--- a/batch_size_test.xlsx
+++ b/batch_size_test.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18168" windowHeight="8664" tabRatio="535" activeTab="3"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8664" tabRatio="535"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -17,27 +17,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="33">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="32">
   <x:si>
-    <x:t>packet size별 batch size에 따른 rx rate</x:t>
+    <x:t>100 times loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>once / normal data</x:t>
+    <x:t>same size loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>once / random data</x:t>
+    <x:t>same size loop / random data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 (13.8~14.0Mpps)</x:t>
+    <x:t>packet size별 batch size에 따른 pps</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 4</x:t>
+    <x:t>64 * 128</x:t>
   </x:si>
   <x:si>
-    <x:t>512 (2.35Mpps)</x:t>
+    <x:t>64 * 512</x:t>
   </x:si>
   <x:si>
-    <x:t>1024 (1.2Mpps)</x:t>
+    <x:t>64 * 1024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100times loop / random data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ascending Order</x:t>
   </x:si>
   <x:si>
     <x:t>128 (8.4Mpps)</x:t>
@@ -49,82 +82,44 @@
     <x:t>64 * 1024 * 8</x:t>
   </x:si>
   <x:si>
-    <x:t>1514 (0.8 Mpps)</x:t>
+    <x:t>packet size별 batch size에 따른 rx rate</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 16</x:t>
+    <x:t>64 * 1024 * 32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024 (1.2Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514 (0.8 Mpps)</x:t>
   </x:si>
   <x:si>
     <x:t>256 (4.5Mpps)</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100times loop / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>same size loop / normal data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 times loop / normal data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>packet size별 batch size에 따른 pps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>same size loop / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 512</x:t>
+    <x:t>512 (2.35Mpps)</x:t>
   </x:si>
   <x:si>
     <x:t>Descending Order</x:t>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>Ascending Order</x:t>
-    </x:r>
+    <x:t>64 (13.8~14.0Mpps)</x:t>
   </x:si>
   <x:si>
-    <x:t>Ascending Order</x:t>
+    <x:t>once / random data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>once / normal data</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="11">
+  <x:fonts count="10">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -171,48 +166,12 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="20"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -329,6 +288,12 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -371,25 +336,19 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -405,6 +364,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -487,6 +447,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -521,6 +482,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -565,6 +527,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -608,6 +571,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -691,8 +655,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -703,7 +667,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
         </x:dxf>
@@ -713,8 +676,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -730,7 +693,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -745,8 +707,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -762,7 +724,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -800,7 +761,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1464,7 +1425,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1848,7 +1809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2551,7 +2512,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2972,7 +2933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3675,7 +3636,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4096,7 +4057,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4161,7 +4122,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4183,7 +4144,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="104775" y="142875"/>
-        <a:ext cx="11620500" cy="6021917"/>
+        <a:ext cx="11620500" cy="6019800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4212,8 +4173,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="104775" y="6524626"/>
-        <a:ext cx="11620500" cy="5193240"/>
+        <a:off x="104775" y="6524625"/>
+        <a:ext cx="11620500" cy="5191125"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4243,7 +4204,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12534900" y="142875"/>
-        <a:ext cx="10687049" cy="5907616"/>
+        <a:ext cx="10687050" cy="5905500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4272,8 +4233,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12573003" y="6572250"/>
-        <a:ext cx="10648946" cy="5145616"/>
+        <a:off x="12573000" y="6572250"/>
+        <a:ext cx="10648950" cy="5143500"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4543,8 +4504,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G52"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C14" activeCellId="0" sqref="C14:C14"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E38" activeCellId="0" sqref="E38:E38"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -4554,42 +4515,42 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C1" s="6"/>
-      <x:c r="D1" s="6"/>
-      <x:c r="E1" s="6"/>
-      <x:c r="F1" s="6"/>
-      <x:c r="G1" s="6"/>
+      <x:c r="B1" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="8"/>
+      <x:c r="F1" s="8"/>
+      <x:c r="G1" s="8"/>
     </x:row>
     <x:row r="2" spans="2:7">
-      <x:c r="B2" s="6"/>
-      <x:c r="C2" s="6"/>
-      <x:c r="D2" s="6"/>
-      <x:c r="E2" s="6"/>
-      <x:c r="F2" s="6"/>
-      <x:c r="G2" s="6"/>
+      <x:c r="B2" s="8"/>
+      <x:c r="C2" s="8"/>
+      <x:c r="D2" s="8"/>
+      <x:c r="E2" s="8"/>
+      <x:c r="F2" s="8"/>
+      <x:c r="G2" s="8"/>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -4631,8 +4592,12 @@
       <x:c r="E5" s="1">
         <x:v>2349000</x:v>
       </x:c>
-      <x:c r="F5" s="1"/>
-      <x:c r="G5" s="1"/>
+      <x:c r="F5" s="1">
+        <x:v>1190000</x:v>
+      </x:c>
+      <x:c r="G5" s="1">
+        <x:v>814800</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="1">
@@ -4650,8 +4615,12 @@
       <x:c r="E6" s="1">
         <x:v>2349000</x:v>
       </x:c>
-      <x:c r="F6" s="1"/>
-      <x:c r="G6" s="1"/>
+      <x:c r="F6" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G6" s="1">
+        <x:v>814800</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="1">
@@ -4669,8 +4638,12 @@
       <x:c r="E7" s="1">
         <x:v>2349000</x:v>
       </x:c>
-      <x:c r="F7" s="1"/>
-      <x:c r="G7" s="1"/>
+      <x:c r="F7" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G7" s="1">
+        <x:v>814800</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="1">
@@ -4688,8 +4661,12 @@
       <x:c r="E8" s="1">
         <x:v>2349000</x:v>
       </x:c>
-      <x:c r="F8" s="1"/>
-      <x:c r="G8" s="1"/>
+      <x:c r="F8" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G8" s="1">
+        <x:v>814800</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="1">
@@ -4710,11 +4687,13 @@
       <x:c r="F9" s="1">
         <x:v>1190000</x:v>
       </x:c>
-      <x:c r="G9" s="1"/>
+      <x:c r="G9" s="1">
+        <x:v>814800</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B10" s="1">
         <x:v>13390000</x:v>
@@ -4728,12 +4707,14 @@
       <x:c r="E10" s="1">
         <x:v>2349000</x:v>
       </x:c>
-      <x:c r="F10" s="1"/>
+      <x:c r="F10" s="1">
+        <x:v>1190000</x:v>
+      </x:c>
       <x:c r="G10" s="1"/>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="1">
         <x:v>12500000</x:v>
@@ -4752,7 +4733,7 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="1">
         <x:v>12550000</x:v>
@@ -4769,7 +4750,7 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B13" s="1">
         <x:v>12480000</x:v>
@@ -4784,7 +4765,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B14" s="1">
         <x:v>12770000</x:v>
@@ -4796,42 +4777,42 @@
       <x:c r="G14" s="1"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C18" s="6"/>
-      <x:c r="D18" s="6"/>
-      <x:c r="E18" s="6"/>
-      <x:c r="F18" s="6"/>
-      <x:c r="G18" s="6"/>
+      <x:c r="B18" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C18" s="8"/>
+      <x:c r="D18" s="8"/>
+      <x:c r="E18" s="8"/>
+      <x:c r="F18" s="8"/>
+      <x:c r="G18" s="8"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="6"/>
-      <x:c r="C19" s="6"/>
-      <x:c r="D19" s="6"/>
-      <x:c r="E19" s="6"/>
-      <x:c r="F19" s="6"/>
-      <x:c r="G19" s="6"/>
+      <x:c r="B19" s="8"/>
+      <x:c r="C19" s="8"/>
+      <x:c r="D19" s="8"/>
+      <x:c r="E19" s="8"/>
+      <x:c r="F19" s="8"/>
+      <x:c r="G19" s="8"/>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="1"/>
       <x:c r="B20" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
@@ -4885,11 +4866,11 @@
       </x:c>
       <x:c r="F22" s="1">
         <x:f t="shared" ref="F22:F27" si="4">F5/1200000</x:f>
-        <x:v>0</x:v>
+        <x:v>0.9916666666666667</x:v>
       </x:c>
       <x:c r="G22" s="1">
         <x:f t="shared" ref="G22:G26" si="5">G5/800000</x:f>
-        <x:v>0</x:v>
+        <x:v>1.0185</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
@@ -4914,11 +4895,11 @@
       </x:c>
       <x:c r="F23" s="1">
         <x:f t="shared" si="4"/>
-        <x:v>0</x:v>
+        <x:v>0.99750000000000005</x:v>
       </x:c>
       <x:c r="G23" s="1">
         <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
+        <x:v>1.0185</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
@@ -4943,11 +4924,11 @@
       </x:c>
       <x:c r="F24" s="1">
         <x:f t="shared" si="4"/>
-        <x:v>0</x:v>
+        <x:v>0.99750000000000005</x:v>
       </x:c>
       <x:c r="G24" s="1">
         <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
+        <x:v>1.0185</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
@@ -4972,11 +4953,11 @@
       </x:c>
       <x:c r="F25" s="1">
         <x:f t="shared" si="4"/>
-        <x:v>0</x:v>
+        <x:v>0.99750000000000005</x:v>
       </x:c>
       <x:c r="G25" s="1">
         <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
+        <x:v>1.0185</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
@@ -5005,12 +4986,12 @@
       </x:c>
       <x:c r="G26" s="1">
         <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
+        <x:v>1.0185</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B27" s="1">
         <x:f t="shared" si="3"/>
@@ -5030,13 +5011,13 @@
       </x:c>
       <x:c r="F27" s="1">
         <x:f t="shared" si="4"/>
-        <x:v>0</x:v>
+        <x:v>0.9916666666666667</x:v>
       </x:c>
       <x:c r="G27" s="1"/>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B28" s="1">
         <x:f t="shared" si="3"/>
@@ -5059,7 +5040,7 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B29" s="1">
         <x:f t="shared" si="3"/>
@@ -5082,7 +5063,7 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B30" s="1">
         <x:f t="shared" si="3"/>
@@ -5105,7 +5086,7 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B31" s="1">
         <x:f t="shared" si="3"/>
@@ -5135,126 +5116,220 @@
       <x:c r="F33" s="1"/>
       <x:c r="G33" s="1"/>
     </x:row>
-    <x:row r="34" spans="1:7">
-      <x:c r="A34" s="1"/>
-      <x:c r="B34" s="1"/>
-      <x:c r="C34" s="1"/>
-      <x:c r="D34" s="1"/>
-      <x:c r="E34" s="1"/>
-      <x:c r="F34" s="1"/>
-      <x:c r="G34" s="1"/>
-    </x:row>
-    <x:row r="35" spans="1:7">
-      <x:c r="A35" s="1"/>
-      <x:c r="B35" s="1"/>
-      <x:c r="C35" s="1"/>
-      <x:c r="D35" s="1"/>
-      <x:c r="E35" s="1"/>
-      <x:c r="F35" s="1"/>
-      <x:c r="G35" s="1"/>
+    <x:row r="34" spans="2:7">
+      <x:c r="B34" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C34" s="8"/>
+      <x:c r="D34" s="8"/>
+      <x:c r="E34" s="8"/>
+      <x:c r="F34" s="8"/>
+      <x:c r="G34" s="8"/>
+    </x:row>
+    <x:row r="35" spans="2:7">
+      <x:c r="B35" s="8"/>
+      <x:c r="C35" s="8"/>
+      <x:c r="D35" s="8"/>
+      <x:c r="E35" s="8"/>
+      <x:c r="F35" s="8"/>
+      <x:c r="G35" s="8"/>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="1"/>
-      <x:c r="B36" s="1"/>
-      <x:c r="C36" s="1"/>
-      <x:c r="D36" s="1"/>
-      <x:c r="E36" s="1"/>
-      <x:c r="F36" s="1"/>
-      <x:c r="G36" s="1"/>
+      <x:c r="B36" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F36" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G36" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
-      <x:c r="A37" s="1"/>
-      <x:c r="B37" s="1"/>
-      <x:c r="C37" s="1"/>
-      <x:c r="D37" s="1"/>
+      <x:c r="A37" s="1">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B37">
+        <x:v>60550</x:v>
+      </x:c>
+      <x:c r="C37" s="1">
+        <x:v>60500</x:v>
+      </x:c>
+      <x:c r="D37" s="1">
+        <x:v>60600</x:v>
+      </x:c>
       <x:c r="E37" s="1"/>
       <x:c r="F37" s="1"/>
       <x:c r="G37" s="1"/>
     </x:row>
     <x:row r="38" spans="1:7">
-      <x:c r="A38" s="1"/>
-      <x:c r="B38" s="1"/>
-      <x:c r="C38" s="1"/>
-      <x:c r="D38" s="1"/>
+      <x:c r="A38" s="1">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B38" s="1">
+        <x:v>60600</x:v>
+      </x:c>
+      <x:c r="C38" s="1">
+        <x:v>60500</x:v>
+      </x:c>
+      <x:c r="D38" s="1">
+        <x:v>60000</x:v>
+      </x:c>
       <x:c r="E38" s="1"/>
       <x:c r="F38" s="1"/>
       <x:c r="G38" s="1"/>
     </x:row>
     <x:row r="39" spans="1:7">
-      <x:c r="A39" s="1"/>
-      <x:c r="B39" s="1"/>
-      <x:c r="C39" s="1"/>
-      <x:c r="D39" s="1"/>
+      <x:c r="A39" s="1">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B39" s="1">
+        <x:v>60200</x:v>
+      </x:c>
+      <x:c r="C39" s="1">
+        <x:v>43800</x:v>
+      </x:c>
+      <x:c r="D39" s="1">
+        <x:v>35200</x:v>
+      </x:c>
       <x:c r="E39" s="1"/>
       <x:c r="F39" s="1"/>
       <x:c r="G39" s="1"/>
     </x:row>
     <x:row r="40" spans="1:7">
-      <x:c r="A40" s="1"/>
-      <x:c r="B40" s="1"/>
-      <x:c r="C40" s="1"/>
-      <x:c r="D40" s="1"/>
+      <x:c r="A40" s="1">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B40" s="1">
+        <x:v>40160</x:v>
+      </x:c>
+      <x:c r="C40" s="1">
+        <x:v>31300</x:v>
+      </x:c>
+      <x:c r="D40" s="1">
+        <x:v>17764</x:v>
+      </x:c>
       <x:c r="E40" s="1"/>
       <x:c r="F40" s="1"/>
       <x:c r="G40" s="1"/>
     </x:row>
     <x:row r="41" spans="1:7">
-      <x:c r="A41" s="1"/>
-      <x:c r="B41" s="1"/>
-      <x:c r="C41" s="1"/>
-      <x:c r="D41" s="1"/>
+      <x:c r="A41" s="1">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B41" s="1">
+        <x:v>22300</x:v>
+      </x:c>
+      <x:c r="C41" s="1">
+        <x:v>16490</x:v>
+      </x:c>
+      <x:c r="D41" s="1">
+        <x:v>8846</x:v>
+      </x:c>
       <x:c r="E41" s="1"/>
       <x:c r="F41" s="1"/>
       <x:c r="G41" s="1"/>
     </x:row>
     <x:row r="42" spans="1:7">
-      <x:c r="A42" s="1"/>
-      <x:c r="B42" s="1"/>
-      <x:c r="C42" s="1"/>
-      <x:c r="D42" s="1"/>
+      <x:c r="A42" s="1">
+        <x:v>1024</x:v>
+      </x:c>
+      <x:c r="B42" s="1">
+        <x:v>13100</x:v>
+      </x:c>
+      <x:c r="C42" s="1">
+        <x:v>8200</x:v>
+      </x:c>
+      <x:c r="D42" s="1">
+        <x:v>4423</x:v>
+      </x:c>
       <x:c r="E42" s="1"/>
       <x:c r="F42" s="1"/>
       <x:c r="G42" s="1"/>
     </x:row>
     <x:row r="43" spans="1:7">
-      <x:c r="A43" s="1"/>
-      <x:c r="B43" s="1"/>
-      <x:c r="C43" s="1"/>
-      <x:c r="D43" s="1"/>
+      <x:c r="A43" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B43" s="1">
+        <x:v>6420</x:v>
+      </x:c>
+      <x:c r="C43" s="1">
+        <x:v>4120</x:v>
+      </x:c>
+      <x:c r="D43" s="1">
+        <x:v>2211</x:v>
+      </x:c>
       <x:c r="E43" s="1"/>
       <x:c r="F43" s="1"/>
       <x:c r="G43" s="1"/>
     </x:row>
     <x:row r="44" spans="1:7">
-      <x:c r="A44" s="1"/>
-      <x:c r="B44" s="1"/>
-      <x:c r="C44" s="1"/>
-      <x:c r="D44" s="1"/>
+      <x:c r="A44" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B44" s="1">
+        <x:v>3050</x:v>
+      </x:c>
+      <x:c r="C44" s="1">
+        <x:v>2062</x:v>
+      </x:c>
+      <x:c r="D44" s="1">
+        <x:v>1106</x:v>
+      </x:c>
       <x:c r="E44" s="1"/>
       <x:c r="F44" s="1"/>
       <x:c r="G44" s="1"/>
     </x:row>
     <x:row r="45" spans="1:7">
-      <x:c r="A45" s="1"/>
-      <x:c r="B45" s="1"/>
-      <x:c r="C45" s="1"/>
-      <x:c r="D45" s="1"/>
+      <x:c r="A45" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B45" s="1">
+        <x:v>1532</x:v>
+      </x:c>
+      <x:c r="C45" s="1">
+        <x:v>1027</x:v>
+      </x:c>
+      <x:c r="D45" s="1">
+        <x:v>553</x:v>
+      </x:c>
       <x:c r="E45" s="1"/>
       <x:c r="F45" s="1"/>
       <x:c r="G45" s="1"/>
     </x:row>
     <x:row r="46" spans="1:7">
-      <x:c r="A46" s="1"/>
-      <x:c r="B46" s="1"/>
-      <x:c r="C46" s="1"/>
+      <x:c r="A46" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B46" s="1">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="C46" s="1">
+        <x:v>489</x:v>
+      </x:c>
       <x:c r="D46" s="1"/>
       <x:c r="E46" s="1"/>
       <x:c r="F46" s="1"/>
       <x:c r="G46" s="1"/>
     </x:row>
     <x:row r="47" spans="1:7">
-      <x:c r="A47" s="1"/>
-      <x:c r="B47" s="1"/>
+      <x:c r="A47" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B47" s="1">
+        <x:v>387</x:v>
+      </x:c>
       <x:c r="C47" s="1"/>
       <x:c r="D47" s="1"/>
       <x:c r="E47" s="1"/>
@@ -5307,11 +5382,12 @@
       <x:c r="G52" s="1"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="2">
+  <x:mergeCells count="3">
     <x:mergeCell ref="B1:G2"/>
     <x:mergeCell ref="B18:G19"/>
+    <x:mergeCell ref="B34:G35"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5332,32 +5408,32 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7" customHeight="1">
-      <x:c r="B1" s="8" t="s">
+      <x:c r="B1" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C1" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D1" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E1" s="10" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F1" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C1" s="8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D1" s="8" t="s">
+      <x:c r="G1" s="10" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E1" s="8" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F1" s="8" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G1" s="8" t="s">
-        <x:v>22</x:v>
-      </x:c>
     </x:row>
     <x:row r="2" spans="2:13" customHeight="1">
-      <x:c r="B2" s="8"/>
-      <x:c r="C2" s="8"/>
-      <x:c r="D2" s="8"/>
-      <x:c r="E2" s="8"/>
-      <x:c r="F2" s="8"/>
-      <x:c r="G2" s="8"/>
+      <x:c r="B2" s="10"/>
+      <x:c r="C2" s="10"/>
+      <x:c r="D2" s="10"/>
+      <x:c r="E2" s="10"/>
+      <x:c r="F2" s="10"/>
+      <x:c r="G2" s="10"/>
       <x:c r="H2" s="2"/>
       <x:c r="I2" s="2"/>
       <x:c r="J2" s="2"/>
@@ -5505,7 +5581,7 @@
     </x:row>
     <x:row r="9" spans="1:7" customHeight="1">
       <x:c r="A9" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B9" s="4">
         <x:v>2722</x:v>
@@ -5528,7 +5604,7 @@
     </x:row>
     <x:row r="10" spans="1:7" customHeight="1">
       <x:c r="A10" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B10" s="4">
         <x:v>2843</x:v>
@@ -5551,7 +5627,7 @@
     </x:row>
     <x:row r="11" spans="1:7" customHeight="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>3133</x:v>
@@ -5574,7 +5650,7 @@
     </x:row>
     <x:row r="12" spans="1:7" customHeight="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>3857</x:v>
@@ -5597,7 +5673,7 @@
     </x:row>
     <x:row r="13" spans="1:7" customHeight="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>5125</x:v>
@@ -5620,7 +5696,7 @@
     </x:row>
     <x:row r="14" spans="1:7" customHeight="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>7528</x:v>
@@ -5643,7 +5719,7 @@
     </x:row>
     <x:row r="15" spans="1:7" customHeight="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>11994</x:v>
@@ -5666,7 +5742,7 @@
     </x:row>
     <x:row r="16" spans="1:7" customHeight="1">
       <x:c r="A16" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>19883</x:v>
@@ -5689,7 +5765,7 @@
     </x:row>
     <x:row r="17" spans="1:7" customHeight="1">
       <x:c r="A17" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>37751</x:v>
@@ -5712,7 +5788,7 @@
     </x:row>
     <x:row r="18" spans="1:7" customHeight="1">
       <x:c r="A18" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>85677</x:v>
@@ -5735,7 +5811,7 @@
     </x:row>
     <x:row r="19" spans="1:7" customHeight="1">
       <x:c r="A19" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>206878</x:v>
@@ -5787,10 +5863,10 @@
       <x:c r="D38" s="3"/>
     </x:row>
     <x:row r="39" spans="2:5">
-      <x:c r="B39" s="6"/>
-      <x:c r="C39" s="6"/>
-      <x:c r="D39" s="7"/>
-      <x:c r="E39" s="7"/>
+      <x:c r="B39" s="8"/>
+      <x:c r="C39" s="8"/>
+      <x:c r="D39" s="9"/>
+      <x:c r="E39" s="9"/>
     </x:row>
     <x:row r="40" spans="2:5">
       <x:c r="B40" s="2"/>
@@ -5849,59 +5925,59 @@
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B48" s="3"/>
       <x:c r="D48" s="3"/>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -5915,7 +5991,7 @@
     <x:mergeCell ref="F1:F2"/>
     <x:mergeCell ref="G1:G2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -5937,40 +6013,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="10" t="s">
+      <x:c r="A1" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B1" s="9"/>
+      <x:c r="C1" s="9"/>
+      <x:c r="D1" s="9"/>
+      <x:c r="E1" s="9"/>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="9"/>
+      <x:c r="B2" s="9"/>
+      <x:c r="C2" s="9"/>
+      <x:c r="D2" s="9"/>
+      <x:c r="E2" s="9"/>
+    </x:row>
+    <x:row r="3" spans="2:5">
+      <x:c r="B3" s="10" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C3" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="10" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B1" s="7"/>
-      <x:c r="C1" s="7"/>
-      <x:c r="D1" s="7"/>
-      <x:c r="E1" s="7"/>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="7"/>
-      <x:c r="B2" s="7"/>
-      <x:c r="C2" s="7"/>
-      <x:c r="D2" s="7"/>
-      <x:c r="E2" s="7"/>
-    </x:row>
-    <x:row r="3" spans="2:5">
-      <x:c r="B3" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C3" s="8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D3" s="8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E3" s="8" t="s">
-        <x:v>23</x:v>
+      <x:c r="E3" s="10" t="s">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5">
-      <x:c r="B4" s="8"/>
-      <x:c r="C4" s="8"/>
-      <x:c r="D4" s="8"/>
-      <x:c r="E4" s="8"/>
+      <x:c r="B4" s="10"/>
+      <x:c r="C4" s="10"/>
+      <x:c r="D4" s="10"/>
+      <x:c r="E4" s="10"/>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="1">
@@ -6076,7 +6152,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>7445</x:v>
@@ -6093,7 +6169,7 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>2307</x:v>
@@ -6110,7 +6186,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>3334</x:v>
@@ -6127,7 +6203,7 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>5643</x:v>
@@ -6144,7 +6220,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>8649</x:v>
@@ -6161,7 +6237,7 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>7925</x:v>
@@ -6178,7 +6254,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>19881</x:v>
@@ -6195,7 +6271,7 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>26627</x:v>
@@ -6212,7 +6288,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>40525</x:v>
@@ -6229,7 +6305,7 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B20" s="4">
         <x:v>74741</x:v>
@@ -6246,7 +6322,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B21" s="4">
         <x:v>150490</x:v>
@@ -6262,32 +6338,32 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5" ht="24.949999999999999" customHeight="1">
-      <x:c r="A25" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B25" s="7"/>
-      <x:c r="C25" s="7"/>
+      <x:c r="A25" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B25" s="9"/>
+      <x:c r="C25" s="9"/>
       <x:c r="D25" s="2"/>
       <x:c r="E25" s="2"/>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="A26" s="7"/>
-      <x:c r="B26" s="7"/>
-      <x:c r="C26" s="7"/>
+      <x:c r="A26" s="9"/>
+      <x:c r="B26" s="9"/>
+      <x:c r="C26" s="9"/>
       <x:c r="D26" s="2"/>
       <x:c r="E26" s="2"/>
     </x:row>
     <x:row r="27" spans="2:3">
-      <x:c r="B27" s="8" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C27" s="8" t="s">
-        <x:v>22</x:v>
+      <x:c r="B27" s="10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C27" s="10" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:3">
-      <x:c r="B28" s="8"/>
-      <x:c r="C28" s="8"/>
+      <x:c r="B28" s="10"/>
+      <x:c r="C28" s="10"/>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="1">
@@ -6357,7 +6433,7 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>1704662</x:v>
@@ -6368,7 +6444,7 @@
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>888145</x:v>
@@ -6379,7 +6455,7 @@
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>501401</x:v>
@@ -6390,7 +6466,7 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>332799</x:v>
@@ -6401,7 +6477,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>234809</x:v>
@@ -6412,7 +6488,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>185326</x:v>
@@ -6423,7 +6499,7 @@
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>161905</x:v>
@@ -6434,7 +6510,7 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>150163</x:v>
@@ -6445,7 +6521,7 @@
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>145611</x:v>
@@ -6456,7 +6532,7 @@
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>148653</x:v>
@@ -6467,7 +6543,7 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>167357</x:v>
@@ -6477,44 +6553,44 @@
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7" ht="24.949999999999999" customHeight="1">
-      <x:c r="A48" s="10" t="s">
+      <x:c r="A48" s="11" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B48" s="7"/>
+      <x:c r="C48" s="7"/>
+      <x:c r="D48" s="7"/>
+      <x:c r="E48" s="7"/>
+      <x:c r="F48" s="6"/>
+      <x:c r="G48" s="6"/>
+    </x:row>
+    <x:row r="49" spans="1:7" ht="24.949999999999999">
+      <x:c r="A49" s="7"/>
+      <x:c r="B49" s="7"/>
+      <x:c r="C49" s="7"/>
+      <x:c r="D49" s="7"/>
+      <x:c r="E49" s="7"/>
+      <x:c r="F49" s="6"/>
+      <x:c r="G49" s="6"/>
+    </x:row>
+    <x:row r="50" spans="2:5">
+      <x:c r="B50" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B48" s="5"/>
-      <x:c r="C48" s="5"/>
-      <x:c r="D48" s="5"/>
-      <x:c r="E48" s="5"/>
-      <x:c r="F48" s="11"/>
-      <x:c r="G48" s="11"/>
-    </x:row>
-    <x:row r="49" spans="1:7" ht="24.949999999999999">
-      <x:c r="A49" s="5"/>
-      <x:c r="B49" s="5"/>
-      <x:c r="C49" s="5"/>
-      <x:c r="D49" s="5"/>
-      <x:c r="E49" s="5"/>
-      <x:c r="F49" s="11"/>
-      <x:c r="G49" s="11"/>
-    </x:row>
-    <x:row r="50" spans="2:5">
-      <x:c r="B50" s="8" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C50" s="8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D50" s="8" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E50" s="8" t="s">
-        <x:v>23</x:v>
+      <x:c r="C50" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D50" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E50" s="10" t="s">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:5">
-      <x:c r="B51" s="8"/>
-      <x:c r="C51" s="8"/>
-      <x:c r="D51" s="8"/>
-      <x:c r="E51" s="8"/>
+      <x:c r="B51" s="10"/>
+      <x:c r="C51" s="10"/>
+      <x:c r="D51" s="10"/>
+      <x:c r="E51" s="10"/>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="1">
@@ -6620,7 +6696,7 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B58" s="4">
         <x:v>2330</x:v>
@@ -6637,7 +6713,7 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B59" s="4">
         <x:v>3582</x:v>
@@ -6654,7 +6730,7 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B60" s="4">
         <x:v>3213</x:v>
@@ -6671,7 +6747,7 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B61" s="4">
         <x:v>3588</x:v>
@@ -6688,15 +6764,15 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B62" s="9">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B62" s="5">
         <x:v>12283</x:v>
       </x:c>
       <x:c r="C62" s="4">
         <x:v>4410</x:v>
       </x:c>
-      <x:c r="D62" s="9">
+      <x:c r="D62" s="5">
         <x:v>13993</x:v>
       </x:c>
       <x:c r="E62" s="4">
@@ -6705,7 +6781,7 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B63" s="4">
         <x:v>7954</x:v>
@@ -6722,7 +6798,7 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B64" s="4">
         <x:v>11599</x:v>
@@ -6739,7 +6815,7 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B65" s="4">
         <x:v>20553</x:v>
@@ -6756,7 +6832,7 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B66" s="4">
         <x:v>38486</x:v>
@@ -6773,7 +6849,7 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B67" s="4">
         <x:v>75167</x:v>
@@ -6790,7 +6866,7 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B68" s="4">
         <x:v>161317</x:v>
@@ -6806,32 +6882,32 @@
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5" ht="24.949999999999999" customHeight="1">
-      <x:c r="A73" s="10" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B73" s="5"/>
-      <x:c r="C73" s="5"/>
-      <x:c r="D73" s="11"/>
-      <x:c r="E73" s="11"/>
+      <x:c r="A73" s="11" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B73" s="7"/>
+      <x:c r="C73" s="7"/>
+      <x:c r="D73" s="6"/>
+      <x:c r="E73" s="6"/>
     </x:row>
     <x:row r="74" spans="1:5" ht="24.949999999999999">
-      <x:c r="A74" s="5"/>
-      <x:c r="B74" s="5"/>
-      <x:c r="C74" s="5"/>
-      <x:c r="D74" s="11"/>
-      <x:c r="E74" s="11"/>
+      <x:c r="A74" s="7"/>
+      <x:c r="B74" s="7"/>
+      <x:c r="C74" s="7"/>
+      <x:c r="D74" s="6"/>
+      <x:c r="E74" s="6"/>
     </x:row>
     <x:row r="75" spans="2:3">
-      <x:c r="B75" s="8" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C75" s="8" t="s">
-        <x:v>22</x:v>
+      <x:c r="B75" s="10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C75" s="10" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:3">
-      <x:c r="B76" s="8"/>
-      <x:c r="C76" s="8"/>
+      <x:c r="B76" s="10"/>
+      <x:c r="C76" s="10"/>
     </x:row>
     <x:row r="77" spans="1:3">
       <x:c r="A77" s="1">
@@ -6901,7 +6977,7 @@
     </x:row>
     <x:row r="83" spans="1:3">
       <x:c r="A83" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>1708597</x:v>
@@ -6912,7 +6988,7 @@
     </x:row>
     <x:row r="84" spans="1:3">
       <x:c r="A84" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>889942</x:v>
@@ -6923,7 +6999,7 @@
     </x:row>
     <x:row r="85" spans="1:3">
       <x:c r="A85" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>506309</x:v>
@@ -6934,7 +7010,7 @@
     </x:row>
     <x:row r="86" spans="1:3">
       <x:c r="A86" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>344510</x:v>
@@ -6945,7 +7021,7 @@
     </x:row>
     <x:row r="87" spans="1:3">
       <x:c r="A87" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>242647</x:v>
@@ -6956,7 +7032,7 @@
     </x:row>
     <x:row r="88" spans="1:3">
       <x:c r="A88" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>185274</x:v>
@@ -6967,7 +7043,7 @@
     </x:row>
     <x:row r="89" spans="1:3">
       <x:c r="A89" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>158391</x:v>
@@ -6978,7 +7054,7 @@
     </x:row>
     <x:row r="90" spans="1:3">
       <x:c r="A90" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>149039</x:v>
@@ -6989,7 +7065,7 @@
     </x:row>
     <x:row r="91" spans="1:3">
       <x:c r="A91" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>153874</x:v>
@@ -7000,7 +7076,7 @@
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>154735</x:v>
@@ -7011,7 +7087,7 @@
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>169481</x:v>
@@ -7039,7 +7115,7 @@
     <x:mergeCell ref="A48:E49"/>
     <x:mergeCell ref="A73:C74"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -7049,13 +7125,13 @@
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="M28" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="M28" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="AC56" activeCellId="0" sqref="AC56:AC56"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>

--- a/batch_size_test.xlsx
+++ b/batch_size_test.xlsx
@@ -4,61 +4,96 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8664" tabRatio="535"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="18168" windowHeight="8664" tabRatio="626" activeTab="5"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <x:sheet name="02.25 persistent loop" sheetId="1" r:id="rId4"/>
     <x:sheet name="02.26 memcpy test" sheetId="2" r:id="rId5"/>
     <x:sheet name="02.27 memcpy test" sheetId="3" r:id="rId6"/>
     <x:sheet name="02.27 memcpy test graph" sheetId="4" r:id="rId7"/>
+    <x:sheet name="02.28 kernel launch" sheetId="5" r:id="rId8"/>
+    <x:sheet name="02.28 kernel launch graph" sheetId="6" r:id="rId9"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="32">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
   <x:si>
-    <x:t>100 times loop / normal data</x:t>
+    <x:t>64 * 1024</x:t>
   </x:si>
   <x:si>
-    <x:t>same size loop / normal data</x:t>
+    <x:t>64 * 512</x:t>
   </x:si>
   <x:si>
-    <x:t>same size loop / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>packet size별 batch size에 따른 pps</x:t>
+    <x:t>64 * 256</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 128</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 512</x:t>
+    <x:t>64 * 1024 * 4</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024</x:t>
+    <x:t>256 (4.5Mpps)</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 256</x:t>
+    <x:t>Ascending Order</x:t>
   </x:si>
   <x:si>
-    <x:t>100times loop / random data</x:t>
+    <x:t>64 * 1024 * 8</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*16</x:t>
+    <x:t>64 * 1024 * 32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>512 (2.35Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128 (8.4Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024 (1.2Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514 (0.8 Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>packet size별 batch size에 따른 cudaMemcpy call 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>once / random data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 (13.8~14.0Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>once / normal data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Descending Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*2</x:t>
   </x:si>
   <x:si>
     <x:t>1024*4</x:t>
   </x:si>
   <x:si>
+    <x:t>64 * 64</x:t>
+  </x:si>
+  <x:si>
     <x:t>1024*8</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*2</x:t>
+    <x:t>1024*16</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 32</x:t>
@@ -67,52 +102,22 @@
     <x:t>1024*32</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ascending Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128 (8.4Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 8</x:t>
+    <x:t>100times loop / random data</x:t>
   </x:si>
   <x:si>
     <x:t>packet size별 batch size에 따른 rx rate</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 32</x:t>
+    <x:t>same size loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>1024 (1.2Mpps)</x:t>
+    <x:t>100 times loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 4</x:t>
+    <x:t>same size loop / random data</x:t>
   </x:si>
   <x:si>
-    <x:t>1514 (0.8 Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256 (4.5Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>512 (2.35Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descending Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 (13.8~14.0Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>once / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>once / normal data</x:t>
+    <x:t>packet size별 batch size에 따른 pps</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -364,7 +369,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -447,7 +451,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -482,7 +485,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -527,7 +529,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -571,7 +572,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -655,8 +655,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -667,6 +667,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
         </x:dxf>
@@ -676,8 +677,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -693,6 +694,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -707,8 +709,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -724,6 +726,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -761,7 +764,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1425,7 +1428,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1809,7 +1812,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2512,7 +2515,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2933,7 +2936,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3636,7 +3639,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4057,7 +4060,1641 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>pps test with kernel launch</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0915827338129496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.149466192170819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.269094922737307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.474893617021277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.672096908939014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.862576687116564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.169352517985612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.270462633451957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.463576158940397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.659574468085106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.999754601226994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.297841726618705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.429418742586002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.649006622516556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.991489361702128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.999754601226994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.461151079136691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.601423487544484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.960264900662252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.999877300613497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.59136690647482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.830367734282325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999779249448124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.762589928057554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.972716488730724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999779249448124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.856115107913669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.870503597122302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.981020166073547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.877697841726619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97864768683274</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.964679911699779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.884892086330935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.941874258600237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.902877697841727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="780291972"/>
+        <c:axId val="200596670"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="780291972"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="200596670"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200596670"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="780291972"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>pps test with kernel launch</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$21:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0915827338129496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.169352517985612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.297841726618705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.461151079136691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59136690647482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.762589928057554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.856115107913669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.870503597122302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.877697841726619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.884892086330935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.902877697841727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.149466192170819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.270462633451957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.429418742586002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.601423487544484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.830367734282325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.972716488730724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.981020166073547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97864768683274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.941874258600237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$D$21:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.269094922737307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.463576158940397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.649006622516556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.960264900662252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999779249448124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.999779249448124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.964679911699779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$E$21:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.474893617021277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.659574468085106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.991489361702128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$F$21:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.672096908939014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$G$21:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.862576687116564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999754601226994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999754601226994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999877300613497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="780291972"/>
+        <c:axId val="200596670"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="780291972"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="200596670"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="200596670"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="780291972"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4122,7 +5759,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4239,6 +5876,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="12592051" cy="6086475"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="6791325"/>
+        <a:ext cx="12592051" cy="6086475"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4504,8 +6206,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G52"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E38" activeCellId="0" sqref="E38:E38"/>
+    <x:sheetView topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:G47"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -4516,7 +6218,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:7">
       <x:c r="B1" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -4535,22 +6237,22 @@
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -4693,7 +6395,7 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B10" s="1">
         <x:v>13390000</x:v>
@@ -4714,7 +6416,7 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B11" s="1">
         <x:v>12500000</x:v>
@@ -4733,7 +6435,7 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B12" s="1">
         <x:v>12550000</x:v>
@@ -4750,7 +6452,7 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B13" s="1">
         <x:v>12480000</x:v>
@@ -4765,7 +6467,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B14" s="1">
         <x:v>12770000</x:v>
@@ -4778,7 +6480,7 @@
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
@@ -4797,22 +6499,22 @@
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="1"/>
       <x:c r="B20" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
@@ -4991,7 +6693,7 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B27" s="1">
         <x:f t="shared" si="3"/>
@@ -5017,7 +6719,7 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B28" s="1">
         <x:f t="shared" si="3"/>
@@ -5040,7 +6742,7 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B29" s="1">
         <x:f t="shared" si="3"/>
@@ -5063,7 +6765,7 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B30" s="1">
         <x:f t="shared" si="3"/>
@@ -5086,7 +6788,7 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B31" s="1">
         <x:f t="shared" si="3"/>
@@ -5118,7 +6820,7 @@
     </x:row>
     <x:row r="34" spans="2:7">
       <x:c r="B34" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C34" s="8"/>
       <x:c r="D34" s="8"/>
@@ -5137,22 +6839,22 @@
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="1"/>
       <x:c r="B36" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
@@ -5168,9 +6870,15 @@
       <x:c r="D37" s="1">
         <x:v>60600</x:v>
       </x:c>
-      <x:c r="E37" s="1"/>
-      <x:c r="F37" s="1"/>
-      <x:c r="G37" s="1"/>
+      <x:c r="E37" s="1">
+        <x:v>60300</x:v>
+      </x:c>
+      <x:c r="F37" s="1">
+        <x:v>37351</x:v>
+      </x:c>
+      <x:c r="G37" s="1">
+        <x:v>25450</x:v>
+      </x:c>
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="1">
@@ -5185,9 +6893,15 @@
       <x:c r="D38" s="1">
         <x:v>60000</x:v>
       </x:c>
-      <x:c r="E38" s="1"/>
-      <x:c r="F38" s="1"/>
-      <x:c r="G38" s="1"/>
+      <x:c r="E38" s="1">
+        <x:v>36654</x:v>
+      </x:c>
+      <x:c r="F38" s="1">
+        <x:v>18705</x:v>
+      </x:c>
+      <x:c r="G38" s="1">
+        <x:v>12732</x:v>
+      </x:c>
     </x:row>
     <x:row r="39" spans="1:7">
       <x:c r="A39" s="1">
@@ -5202,9 +6916,15 @@
       <x:c r="D39" s="1">
         <x:v>35200</x:v>
       </x:c>
-      <x:c r="E39" s="1"/>
-      <x:c r="F39" s="1"/>
-      <x:c r="G39" s="1"/>
+      <x:c r="E39" s="1">
+        <x:v>18347</x:v>
+      </x:c>
+      <x:c r="F39" s="1">
+        <x:v>9353</x:v>
+      </x:c>
+      <x:c r="G39" s="1">
+        <x:v>6366</x:v>
+      </x:c>
     </x:row>
     <x:row r="40" spans="1:7">
       <x:c r="A40" s="1">
@@ -5219,9 +6939,15 @@
       <x:c r="D40" s="1">
         <x:v>17764</x:v>
       </x:c>
-      <x:c r="E40" s="1"/>
-      <x:c r="F40" s="1"/>
-      <x:c r="G40" s="1"/>
+      <x:c r="E40" s="1">
+        <x:v>9177</x:v>
+      </x:c>
+      <x:c r="F40" s="1">
+        <x:v>4677</x:v>
+      </x:c>
+      <x:c r="G40" s="1">
+        <x:v>3183</x:v>
+      </x:c>
     </x:row>
     <x:row r="41" spans="1:7">
       <x:c r="A41" s="1">
@@ -5236,9 +6962,15 @@
       <x:c r="D41" s="1">
         <x:v>8846</x:v>
       </x:c>
-      <x:c r="E41" s="1"/>
-      <x:c r="F41" s="1"/>
-      <x:c r="G41" s="1"/>
+      <x:c r="E41" s="1">
+        <x:v>4589</x:v>
+      </x:c>
+      <x:c r="F41" s="1">
+        <x:v>2339</x:v>
+      </x:c>
+      <x:c r="G41" s="1">
+        <x:v>1592</x:v>
+      </x:c>
     </x:row>
     <x:row r="42" spans="1:7">
       <x:c r="A42" s="1">
@@ -5253,13 +6985,19 @@
       <x:c r="D42" s="1">
         <x:v>4423</x:v>
       </x:c>
-      <x:c r="E42" s="1"/>
-      <x:c r="F42" s="1"/>
-      <x:c r="G42" s="1"/>
+      <x:c r="E42" s="1">
+        <x:v>2295</x:v>
+      </x:c>
+      <x:c r="F42" s="1">
+        <x:v>1170</x:v>
+      </x:c>
+      <x:c r="G42" s="1">
+        <x:v>796</x:v>
+      </x:c>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B43" s="1">
         <x:v>6420</x:v>
@@ -5270,13 +7008,17 @@
       <x:c r="D43" s="1">
         <x:v>2211</x:v>
       </x:c>
-      <x:c r="E43" s="1"/>
-      <x:c r="F43" s="1"/>
+      <x:c r="E43" s="1">
+        <x:v>1147</x:v>
+      </x:c>
+      <x:c r="F43" s="1">
+        <x:v>585</x:v>
+      </x:c>
       <x:c r="G43" s="1"/>
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B44" s="1">
         <x:v>3050</x:v>
@@ -5287,13 +7029,15 @@
       <x:c r="D44" s="1">
         <x:v>1106</x:v>
       </x:c>
-      <x:c r="E44" s="1"/>
+      <x:c r="E44" s="1">
+        <x:v>574</x:v>
+      </x:c>
       <x:c r="F44" s="1"/>
       <x:c r="G44" s="1"/>
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B45" s="1">
         <x:v>1532</x:v>
@@ -5310,7 +7054,7 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B46" s="1">
         <x:v>760</x:v>
@@ -5325,7 +7069,7 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B47" s="1">
         <x:v>387</x:v>
@@ -5409,22 +7153,22 @@
   <x:sheetData>
     <x:row r="1" spans="2:7" customHeight="1">
       <x:c r="B1" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C1" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D1" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E1" s="10" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C1" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D1" s="10" t="s">
+      <x:c r="F1" s="10" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="E1" s="10" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F1" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
       <x:c r="G1" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:13" customHeight="1">
@@ -5581,7 +7325,7 @@
     </x:row>
     <x:row r="9" spans="1:7" customHeight="1">
       <x:c r="A9" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B9" s="4">
         <x:v>2722</x:v>
@@ -5604,7 +7348,7 @@
     </x:row>
     <x:row r="10" spans="1:7" customHeight="1">
       <x:c r="A10" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B10" s="4">
         <x:v>2843</x:v>
@@ -5627,7 +7371,7 @@
     </x:row>
     <x:row r="11" spans="1:7" customHeight="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>3133</x:v>
@@ -5650,7 +7394,7 @@
     </x:row>
     <x:row r="12" spans="1:7" customHeight="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>3857</x:v>
@@ -5673,7 +7417,7 @@
     </x:row>
     <x:row r="13" spans="1:7" customHeight="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>5125</x:v>
@@ -5696,7 +7440,7 @@
     </x:row>
     <x:row r="14" spans="1:7" customHeight="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>7528</x:v>
@@ -5719,7 +7463,7 @@
     </x:row>
     <x:row r="15" spans="1:7" customHeight="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>11994</x:v>
@@ -5742,7 +7486,7 @@
     </x:row>
     <x:row r="16" spans="1:7" customHeight="1">
       <x:c r="A16" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>19883</x:v>
@@ -5765,7 +7509,7 @@
     </x:row>
     <x:row r="17" spans="1:7" customHeight="1">
       <x:c r="A17" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>37751</x:v>
@@ -5788,7 +7532,7 @@
     </x:row>
     <x:row r="18" spans="1:7" customHeight="1">
       <x:c r="A18" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>85677</x:v>
@@ -5811,7 +7555,7 @@
     </x:row>
     <x:row r="19" spans="1:7" customHeight="1">
       <x:c r="A19" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>206878</x:v>
@@ -5925,59 +7669,59 @@
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B48" s="3"/>
       <x:c r="D48" s="3"/>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6014,7 +7758,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B1" s="9"/>
       <x:c r="C1" s="9"/>
@@ -6030,16 +7774,16 @@
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C3" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D3" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E3" s="10" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="C3" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="10" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E3" s="10" t="s">
-        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5">
@@ -6152,7 +7896,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>7445</x:v>
@@ -6169,7 +7913,7 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>2307</x:v>
@@ -6186,7 +7930,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>3334</x:v>
@@ -6203,7 +7947,7 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>5643</x:v>
@@ -6220,7 +7964,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>8649</x:v>
@@ -6237,7 +7981,7 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>7925</x:v>
@@ -6254,7 +7998,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>19881</x:v>
@@ -6271,7 +8015,7 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>26627</x:v>
@@ -6288,7 +8032,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>40525</x:v>
@@ -6305,7 +8049,7 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B20" s="4">
         <x:v>74741</x:v>
@@ -6322,7 +8066,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B21" s="4">
         <x:v>150490</x:v>
@@ -6339,7 +8083,7 @@
     </x:row>
     <x:row r="25" spans="1:5" ht="24.949999999999999" customHeight="1">
       <x:c r="A25" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B25" s="9"/>
       <x:c r="C25" s="9"/>
@@ -6355,10 +8099,10 @@
     </x:row>
     <x:row r="27" spans="2:3">
       <x:c r="B27" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C27" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:3">
@@ -6433,7 +8177,7 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>1704662</x:v>
@@ -6444,7 +8188,7 @@
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>888145</x:v>
@@ -6455,7 +8199,7 @@
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>501401</x:v>
@@ -6466,7 +8210,7 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>332799</x:v>
@@ -6477,7 +8221,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>234809</x:v>
@@ -6488,7 +8232,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>185326</x:v>
@@ -6499,7 +8243,7 @@
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>161905</x:v>
@@ -6510,7 +8254,7 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>150163</x:v>
@@ -6521,7 +8265,7 @@
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>145611</x:v>
@@ -6532,7 +8276,7 @@
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>148653</x:v>
@@ -6543,7 +8287,7 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>167357</x:v>
@@ -6554,7 +8298,7 @@
     </x:row>
     <x:row r="48" spans="1:7" ht="24.949999999999999" customHeight="1">
       <x:c r="A48" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B48" s="7"/>
       <x:c r="C48" s="7"/>
@@ -6574,16 +8318,16 @@
     </x:row>
     <x:row r="50" spans="2:5">
       <x:c r="B50" s="10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C50" s="10" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D50" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E50" s="10" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="C50" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D50" s="10" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E50" s="10" t="s">
-        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:5">
@@ -6696,7 +8440,7 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B58" s="4">
         <x:v>2330</x:v>
@@ -6713,7 +8457,7 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B59" s="4">
         <x:v>3582</x:v>
@@ -6730,7 +8474,7 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B60" s="4">
         <x:v>3213</x:v>
@@ -6747,7 +8491,7 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B61" s="4">
         <x:v>3588</x:v>
@@ -6764,7 +8508,7 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B62" s="5">
         <x:v>12283</x:v>
@@ -6781,7 +8525,7 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B63" s="4">
         <x:v>7954</x:v>
@@ -6798,7 +8542,7 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B64" s="4">
         <x:v>11599</x:v>
@@ -6815,7 +8559,7 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B65" s="4">
         <x:v>20553</x:v>
@@ -6832,7 +8576,7 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B66" s="4">
         <x:v>38486</x:v>
@@ -6849,7 +8593,7 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B67" s="4">
         <x:v>75167</x:v>
@@ -6866,7 +8610,7 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B68" s="4">
         <x:v>161317</x:v>
@@ -6883,7 +8627,7 @@
     </x:row>
     <x:row r="73" spans="1:5" ht="24.949999999999999" customHeight="1">
       <x:c r="A73" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B73" s="7"/>
       <x:c r="C73" s="7"/>
@@ -6899,10 +8643,10 @@
     </x:row>
     <x:row r="75" spans="2:3">
       <x:c r="B75" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C75" s="10" t="s">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:3">
@@ -6977,7 +8721,7 @@
     </x:row>
     <x:row r="83" spans="1:3">
       <x:c r="A83" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>1708597</x:v>
@@ -6988,7 +8732,7 @@
     </x:row>
     <x:row r="84" spans="1:3">
       <x:c r="A84" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>889942</x:v>
@@ -6999,7 +8743,7 @@
     </x:row>
     <x:row r="85" spans="1:3">
       <x:c r="A85" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>506309</x:v>
@@ -7010,7 +8754,7 @@
     </x:row>
     <x:row r="86" spans="1:3">
       <x:c r="A86" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>344510</x:v>
@@ -7021,7 +8765,7 @@
     </x:row>
     <x:row r="87" spans="1:3">
       <x:c r="A87" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>242647</x:v>
@@ -7032,7 +8776,7 @@
     </x:row>
     <x:row r="88" spans="1:3">
       <x:c r="A88" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>185274</x:v>
@@ -7043,7 +8787,7 @@
     </x:row>
     <x:row r="89" spans="1:3">
       <x:c r="A89" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>158391</x:v>
@@ -7054,7 +8798,7 @@
     </x:row>
     <x:row r="90" spans="1:3">
       <x:c r="A90" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>149039</x:v>
@@ -7065,7 +8809,7 @@
     </x:row>
     <x:row r="91" spans="1:3">
       <x:c r="A91" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>153874</x:v>
@@ -7076,7 +8820,7 @@
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>154735</x:v>
@@ -7087,7 +8831,7 @@
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>169481</x:v>
@@ -7135,4 +8879,938 @@
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet5"/>
+  <x:dimension ref="A1:G47"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H16" activeCellId="0" sqref="H16:H16"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <x:col min="2" max="7" width="22.4453125" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="2:7">
+      <x:c r="B1" s="7" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="8"/>
+      <x:c r="F1" s="8"/>
+      <x:c r="G1" s="8"/>
+    </x:row>
+    <x:row r="2" spans="2:7">
+      <x:c r="B2" s="8"/>
+      <x:c r="C2" s="8"/>
+      <x:c r="D2" s="8"/>
+      <x:c r="E2" s="8"/>
+      <x:c r="F2" s="8"/>
+      <x:c r="G2" s="8"/>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="1">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B4">
+        <x:v>1273000</x:v>
+      </x:c>
+      <x:c r="C4" s="1">
+        <x:v>1260000</x:v>
+      </x:c>
+      <x:c r="D4" s="1">
+        <x:v>1219000</x:v>
+      </x:c>
+      <x:c r="E4" s="1">
+        <x:v>1116000</x:v>
+      </x:c>
+      <x:c r="F4" s="1">
+        <x:v>804500</x:v>
+      </x:c>
+      <x:c r="G4" s="1">
+        <x:v>703000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="1">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B5" s="1">
+        <x:v>2354000</x:v>
+      </x:c>
+      <x:c r="C5" s="1">
+        <x:v>2280000</x:v>
+      </x:c>
+      <x:c r="D5" s="1">
+        <x:v>2100000</x:v>
+      </x:c>
+      <x:c r="E5" s="1">
+        <x:v>1550000</x:v>
+      </x:c>
+      <x:c r="F5" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G5" s="1">
+        <x:v>814800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="1">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B6" s="1">
+        <x:v>4140000</x:v>
+      </x:c>
+      <x:c r="C6" s="1">
+        <x:v>3620000</x:v>
+      </x:c>
+      <x:c r="D6" s="1">
+        <x:v>2940000</x:v>
+      </x:c>
+      <x:c r="E6" s="1">
+        <x:v>2330000</x:v>
+      </x:c>
+      <x:c r="F6" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G6" s="1">
+        <x:v>814800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="1">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B7" s="1">
+        <x:v>6410000</x:v>
+      </x:c>
+      <x:c r="C7" s="1">
+        <x:v>5070000</x:v>
+      </x:c>
+      <x:c r="D7" s="1">
+        <x:v>4350000</x:v>
+      </x:c>
+      <x:c r="E7" s="1">
+        <x:v>2349000</x:v>
+      </x:c>
+      <x:c r="F7" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G7" s="1">
+        <x:v>814900</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="1">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B8" s="1">
+        <x:v>8220000</x:v>
+      </x:c>
+      <x:c r="C8" s="1">
+        <x:v>7000000</x:v>
+      </x:c>
+      <x:c r="D8" s="1">
+        <x:v>4529000</x:v>
+      </x:c>
+      <x:c r="E8" s="1">
+        <x:v>2349000</x:v>
+      </x:c>
+      <x:c r="F8" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G8" s="1">
+        <x:v>815000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="1">
+        <x:v>1024</x:v>
+      </x:c>
+      <x:c r="B9" s="1">
+        <x:v>10600000</x:v>
+      </x:c>
+      <x:c r="C9" s="1">
+        <x:v>8200000</x:v>
+      </x:c>
+      <x:c r="D9" s="1">
+        <x:v>4529000</x:v>
+      </x:c>
+      <x:c r="E9" s="1">
+        <x:v>2350000</x:v>
+      </x:c>
+      <x:c r="F9" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G9" s="1">
+        <x:v>815000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B10" s="1">
+        <x:v>11900000</x:v>
+      </x:c>
+      <x:c r="C10" s="1">
+        <x:v>8430000</x:v>
+      </x:c>
+      <x:c r="D10" s="1">
+        <x:v>4530000</x:v>
+      </x:c>
+      <x:c r="E10" s="1">
+        <x:v>2350000</x:v>
+      </x:c>
+      <x:c r="F10" s="1">
+        <x:v>1197000</x:v>
+      </x:c>
+      <x:c r="G10" s="1"/>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B11" s="1">
+        <x:v>12100000</x:v>
+      </x:c>
+      <x:c r="C11" s="1">
+        <x:v>8270000</x:v>
+      </x:c>
+      <x:c r="D11" s="1">
+        <x:v>4530000</x:v>
+      </x:c>
+      <x:c r="E11" s="1">
+        <x:v>2350000</x:v>
+      </x:c>
+      <x:c r="F11" s="1"/>
+      <x:c r="G11" s="1"/>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B12" s="1">
+        <x:v>12200000</x:v>
+      </x:c>
+      <x:c r="C12" s="1">
+        <x:v>8250000</x:v>
+      </x:c>
+      <x:c r="D12" s="1">
+        <x:v>4370000</x:v>
+      </x:c>
+      <x:c r="E12" s="1"/>
+      <x:c r="F12" s="1"/>
+      <x:c r="G12" s="1"/>
+    </x:row>
+    <x:row r="13" spans="1:7">
+      <x:c r="A13" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="1">
+        <x:v>12300000</x:v>
+      </x:c>
+      <x:c r="C13" s="1">
+        <x:v>7940000</x:v>
+      </x:c>
+      <x:c r="D13" s="1"/>
+      <x:c r="E13" s="1"/>
+      <x:c r="F13" s="1"/>
+      <x:c r="G13" s="1"/>
+    </x:row>
+    <x:row r="14" spans="1:7">
+      <x:c r="A14" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B14" s="1">
+        <x:v>12550000</x:v>
+      </x:c>
+      <x:c r="C14" s="1"/>
+      <x:c r="D14" s="1"/>
+      <x:c r="E14" s="1"/>
+      <x:c r="F14" s="1"/>
+      <x:c r="G14" s="1"/>
+    </x:row>
+    <x:row r="18" spans="2:7">
+      <x:c r="B18" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C18" s="8"/>
+      <x:c r="D18" s="8"/>
+      <x:c r="E18" s="8"/>
+      <x:c r="F18" s="8"/>
+      <x:c r="G18" s="8"/>
+    </x:row>
+    <x:row r="19" spans="2:7">
+      <x:c r="B19" s="8"/>
+      <x:c r="C19" s="8"/>
+      <x:c r="D19" s="8"/>
+      <x:c r="E19" s="8"/>
+      <x:c r="F19" s="8"/>
+      <x:c r="G19" s="8"/>
+    </x:row>
+    <x:row r="20" spans="1:7">
+      <x:c r="A20" s="1"/>
+      <x:c r="B20" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F20" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G20" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7">
+      <x:c r="A21" s="1">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B21" s="1">
+        <x:f>B4/13900000</x:f>
+        <x:v>0.091582733812949638</x:v>
+      </x:c>
+      <x:c r="C21">
+        <x:f>C4/MAX($C$4:$C$13)</x:f>
+        <x:v>0.1494661921708185</x:v>
+      </x:c>
+      <x:c r="D21">
+        <x:f>D4/MAX($D$4:$D$13)</x:f>
+        <x:v>0.26909492273730684</x:v>
+      </x:c>
+      <x:c r="E21">
+        <x:f>E4/MAX($E$4:$E$13)</x:f>
+        <x:v>0.47489361702127658</x:v>
+      </x:c>
+      <x:c r="F21">
+        <x:f>F4/MAX($F$4:$F$13)</x:f>
+        <x:v>0.67209690893901419</x:v>
+      </x:c>
+      <x:c r="G21">
+        <x:f>G4/MAX($G$4:$G$13)</x:f>
+        <x:v>0.86257668711656443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="1">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B22" s="1">
+        <x:f t="shared" ref="B22:B31" si="0">B5/13900000</x:f>
+        <x:v>0.16935251798561152</x:v>
+      </x:c>
+      <x:c r="C22">
+        <x:f t="shared" ref="C22:C31" si="1">C5/MAX($C$4:$C$13)</x:f>
+        <x:v>0.27046263345195731</x:v>
+      </x:c>
+      <x:c r="D22">
+        <x:f t="shared" ref="D22:D31" si="2">D5/MAX($D$4:$D$13)</x:f>
+        <x:v>0.46357615894039733</x:v>
+      </x:c>
+      <x:c r="E22">
+        <x:f t="shared" ref="E22:E31" si="3">E5/MAX($E$4:$E$13)</x:f>
+        <x:v>0.65957446808510634</x:v>
+      </x:c>
+      <x:c r="F22">
+        <x:f t="shared" ref="F22:F31" si="4">F5/MAX($F$4:$F$13)</x:f>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G22">
+        <x:f t="shared" ref="G22:G31" si="5">G5/MAX($G$4:$G$13)</x:f>
+        <x:v>0.99975460122699389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="1">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B23" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.29784172661870506</x:v>
+      </x:c>
+      <x:c r="C23">
+        <x:f t="shared" si="1"/>
+        <x:v>0.42941874258600238</x:v>
+      </x:c>
+      <x:c r="D23">
+        <x:f t="shared" si="2"/>
+        <x:v>0.64900662251655628</x:v>
+      </x:c>
+      <x:c r="E23">
+        <x:f t="shared" si="3"/>
+        <x:v>0.99148936170212765</x:v>
+      </x:c>
+      <x:c r="F23">
+        <x:f t="shared" si="4"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G23">
+        <x:f t="shared" si="5"/>
+        <x:v>0.99975460122699389</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="1">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B24" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.46115107913669062</x:v>
+      </x:c>
+      <x:c r="C24">
+        <x:f t="shared" si="1"/>
+        <x:v>0.60142348754448394</x:v>
+      </x:c>
+      <x:c r="D24">
+        <x:f t="shared" si="2"/>
+        <x:v>0.96026490066225167</x:v>
+      </x:c>
+      <x:c r="E24">
+        <x:f t="shared" si="3"/>
+        <x:v>0.99957446808510642</x:v>
+      </x:c>
+      <x:c r="F24">
+        <x:f t="shared" si="4"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G24">
+        <x:f t="shared" si="5"/>
+        <x:v>0.99987730061349689</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="1">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B25" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.59136690647482015</x:v>
+      </x:c>
+      <x:c r="C25">
+        <x:f t="shared" si="1"/>
+        <x:v>0.83036773428232502</x:v>
+      </x:c>
+      <x:c r="D25">
+        <x:f t="shared" si="2"/>
+        <x:v>0.99977924944812357</x:v>
+      </x:c>
+      <x:c r="E25">
+        <x:f t="shared" si="3"/>
+        <x:v>0.99957446808510642</x:v>
+      </x:c>
+      <x:c r="F25">
+        <x:f t="shared" si="4"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G25">
+        <x:f t="shared" si="5"/>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="1">
+        <x:v>1024</x:v>
+      </x:c>
+      <x:c r="B26" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.76258992805755399</x:v>
+      </x:c>
+      <x:c r="C26">
+        <x:f t="shared" si="1"/>
+        <x:v>0.97271648873072358</x:v>
+      </x:c>
+      <x:c r="D26">
+        <x:f t="shared" si="2"/>
+        <x:v>0.99977924944812357</x:v>
+      </x:c>
+      <x:c r="E26">
+        <x:f t="shared" si="3"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F26">
+        <x:f t="shared" si="4"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G26">
+        <x:f t="shared" si="5"/>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B27" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.85611510791366907</x:v>
+      </x:c>
+      <x:c r="C27">
+        <x:f t="shared" si="1"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D27">
+        <x:f t="shared" si="2"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E27">
+        <x:f t="shared" si="3"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F27">
+        <x:f t="shared" si="4"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G27">
+        <x:f t="shared" si="5"/>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B28" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.87050359712230219</x:v>
+      </x:c>
+      <x:c r="C28">
+        <x:f t="shared" si="1"/>
+        <x:v>0.98102016607354681</x:v>
+      </x:c>
+      <x:c r="D28">
+        <x:f t="shared" si="2"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E28">
+        <x:f t="shared" si="3"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F28">
+        <x:f t="shared" si="4"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G28">
+        <x:f t="shared" si="5"/>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B29" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.87769784172661869</x:v>
+      </x:c>
+      <x:c r="C29">
+        <x:f t="shared" si="1"/>
+        <x:v>0.97864768683274017</x:v>
+      </x:c>
+      <x:c r="D29">
+        <x:f t="shared" si="2"/>
+        <x:v>0.96467991169977929</x:v>
+      </x:c>
+      <x:c r="E29">
+        <x:f t="shared" si="3"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F29">
+        <x:f t="shared" si="4"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G29">
+        <x:f t="shared" si="5"/>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B30" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.8848920863309353</x:v>
+      </x:c>
+      <x:c r="C30">
+        <x:f t="shared" si="1"/>
+        <x:v>0.94187425860023721</x:v>
+      </x:c>
+      <x:c r="D30">
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E30">
+        <x:f t="shared" si="3"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F30">
+        <x:f t="shared" si="4"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G30">
+        <x:f t="shared" si="5"/>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B31" s="1">
+        <x:f t="shared" si="0"/>
+        <x:v>0.90287769784172667</x:v>
+      </x:c>
+      <x:c r="C31">
+        <x:f t="shared" si="1"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D31">
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E31">
+        <x:f t="shared" si="3"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F31">
+        <x:f t="shared" si="4"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G31">
+        <x:f t="shared" si="5"/>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="A33" s="1"/>
+      <x:c r="B33" s="1"/>
+      <x:c r="C33" s="1"/>
+      <x:c r="D33" s="1"/>
+      <x:c r="E33" s="1"/>
+      <x:c r="F33" s="1"/>
+      <x:c r="G33" s="1"/>
+    </x:row>
+    <x:row r="34" spans="2:7">
+      <x:c r="B34" s="7" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C34" s="8"/>
+      <x:c r="D34" s="8"/>
+      <x:c r="E34" s="8"/>
+      <x:c r="F34" s="8"/>
+      <x:c r="G34" s="8"/>
+    </x:row>
+    <x:row r="35" spans="2:7">
+      <x:c r="B35" s="8"/>
+      <x:c r="C35" s="8"/>
+      <x:c r="D35" s="8"/>
+      <x:c r="E35" s="8"/>
+      <x:c r="F35" s="8"/>
+      <x:c r="G35" s="8"/>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="A36" s="1"/>
+      <x:c r="B36" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F36" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G36" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="1">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B37">
+        <x:v>39530</x:v>
+      </x:c>
+      <x:c r="C37" s="1">
+        <x:v>39470</x:v>
+      </x:c>
+      <x:c r="D37" s="1">
+        <x:v>38000</x:v>
+      </x:c>
+      <x:c r="E37" s="1">
+        <x:v>34000</x:v>
+      </x:c>
+      <x:c r="F37" s="1">
+        <x:v>25100</x:v>
+      </x:c>
+      <x:c r="G37" s="1">
+        <x:v>21970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="1">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B38" s="1">
+        <x:v>36500</x:v>
+      </x:c>
+      <x:c r="C38" s="1">
+        <x:v>35600</x:v>
+      </x:c>
+      <x:c r="D38" s="1">
+        <x:v>32900</x:v>
+      </x:c>
+      <x:c r="E38" s="1">
+        <x:v>24270</x:v>
+      </x:c>
+      <x:c r="F38" s="1">
+        <x:v>18600</x:v>
+      </x:c>
+      <x:c r="G38" s="1">
+        <x:v>12700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:7">
+      <x:c r="A39" s="1">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B39" s="1">
+        <x:v>31900</x:v>
+      </x:c>
+      <x:c r="C39" s="1">
+        <x:v>28400</x:v>
+      </x:c>
+      <x:c r="D39" s="1">
+        <x:v>22900</x:v>
+      </x:c>
+      <x:c r="E39" s="1">
+        <x:v>18200</x:v>
+      </x:c>
+      <x:c r="F39" s="1">
+        <x:v>9347</x:v>
+      </x:c>
+      <x:c r="G39" s="1">
+        <x:v>6363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:7">
+      <x:c r="A40" s="1">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B40" s="1">
+        <x:v>25133</x:v>
+      </x:c>
+      <x:c r="C40" s="1">
+        <x:v>19800</x:v>
+      </x:c>
+      <x:c r="D40" s="1">
+        <x:v>17000</x:v>
+      </x:c>
+      <x:c r="E40" s="1">
+        <x:v>9170</x:v>
+      </x:c>
+      <x:c r="F40" s="1">
+        <x:v>4676</x:v>
+      </x:c>
+      <x:c r="G40" s="1">
+        <x:v>3183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:7">
+      <x:c r="A41" s="1">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B41" s="1">
+        <x:v>16000</x:v>
+      </x:c>
+      <x:c r="C41" s="1">
+        <x:v>13600</x:v>
+      </x:c>
+      <x:c r="D41" s="1">
+        <x:v>8846</x:v>
+      </x:c>
+      <x:c r="E41" s="1">
+        <x:v>4589</x:v>
+      </x:c>
+      <x:c r="F41" s="1">
+        <x:v>2339</x:v>
+      </x:c>
+      <x:c r="G41" s="1">
+        <x:v>1592</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:7">
+      <x:c r="A42" s="1">
+        <x:v>1024</x:v>
+      </x:c>
+      <x:c r="B42" s="1">
+        <x:v>10425</x:v>
+      </x:c>
+      <x:c r="C42" s="1">
+        <x:v>8020</x:v>
+      </x:c>
+      <x:c r="D42" s="1">
+        <x:v>4423</x:v>
+      </x:c>
+      <x:c r="E42" s="1">
+        <x:v>2295</x:v>
+      </x:c>
+      <x:c r="F42" s="1">
+        <x:v>1169</x:v>
+      </x:c>
+      <x:c r="G42" s="1">
+        <x:v>796</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:7">
+      <x:c r="A43" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B43" s="1">
+        <x:v>5830</x:v>
+      </x:c>
+      <x:c r="C43" s="1">
+        <x:v>4113</x:v>
+      </x:c>
+      <x:c r="D43" s="1">
+        <x:v>2211</x:v>
+      </x:c>
+      <x:c r="E43" s="1">
+        <x:v>1147</x:v>
+      </x:c>
+      <x:c r="F43" s="1">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="G43" s="1"/>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="A44" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B44" s="1">
+        <x:v>2960</x:v>
+      </x:c>
+      <x:c r="C44" s="1">
+        <x:v>2020</x:v>
+      </x:c>
+      <x:c r="D44" s="1">
+        <x:v>1106</x:v>
+      </x:c>
+      <x:c r="E44" s="1">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="F44" s="1"/>
+      <x:c r="G44" s="1"/>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="A45" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B45" s="1">
+        <x:v>1490</x:v>
+      </x:c>
+      <x:c r="C45" s="1">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="D45" s="1">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="E45" s="1"/>
+      <x:c r="F45" s="1"/>
+      <x:c r="G45" s="1"/>
+    </x:row>
+    <x:row r="46" spans="1:7">
+      <x:c r="A46" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B46" s="1">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="C46" s="1">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="D46" s="1"/>
+      <x:c r="E46" s="1"/>
+      <x:c r="F46" s="1"/>
+      <x:c r="G46" s="1"/>
+    </x:row>
+    <x:row r="47" spans="1:7">
+      <x:c r="A47" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B47" s="1">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C47" s="1"/>
+      <x:c r="D47" s="1"/>
+      <x:c r="E47" s="1"/>
+      <x:c r="F47" s="1"/>
+      <x:c r="G47" s="1"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="B1:G2"/>
+    <x:mergeCell ref="B18:G19"/>
+    <x:mergeCell ref="B34:G35"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet6"/>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="P61" activeCellId="0" sqref="P61:P61"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetData/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:drawing r:id="rId1"/>
+</x:worksheet>
 </file>
--- a/batch_size_test.xlsx
+++ b/batch_size_test.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="18168" windowHeight="8664" tabRatio="626" activeTab="5"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8664" tabRatio="517" activeTab="4"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="02.25 persistent loop" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="38">
+  <x:si>
+    <x:t>1024*256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024 (1.2Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>256 (4.5Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ascending Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>512 (2.35Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128 (8.4Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514 (0.8 Mpps)</x:t>
+  </x:si>
   <x:si>
     <x:t>64 * 1024</x:t>
   </x:si>
@@ -33,43 +69,7 @@
     <x:t>64 * 128</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256 (4.5Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ascending Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>512 (2.35Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128 (8.4Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024 (1.2Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1514 (0.8 Mpps)</x:t>
-  </x:si>
-  <x:si>
     <x:t>packet size별 batch size에 따른 cudaMemcpy call 횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>once / random data</x:t>
   </x:si>
   <x:si>
     <x:t>64 (13.8~14.0Mpps)</x:t>
@@ -78,7 +78,16 @@
     <x:t>once / normal data</x:t>
   </x:si>
   <x:si>
+    <x:t>once / random data</x:t>
+  </x:si>
+  <x:si>
     <x:t>Descending Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>packet size별 batch size에 따른 rx rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100times loop / random data</x:t>
   </x:si>
   <x:si>
     <x:t>1024*2</x:t>
@@ -87,37 +96,43 @@
     <x:t>1024*4</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 64</x:t>
+    <x:t>1024*32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 32</x:t>
   </x:si>
   <x:si>
     <x:t>1024*8</x:t>
   </x:si>
   <x:si>
+    <x:t>64 * 64</x:t>
+  </x:si>
+  <x:si>
     <x:t>1024*16</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100times loop / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>packet size별 batch size에 따른 rx rate</x:t>
+    <x:t>100 times loop / normal data</x:t>
   </x:si>
   <x:si>
     <x:t>same size loop / normal data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 times loop / normal data</x:t>
   </x:si>
   <x:si>
     <x:t>same size loop / random data</x:t>
   </x:si>
   <x:si>
     <x:t>packet size별 batch size에 따른 pps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㄴㄴㄴㄴ</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -267,7 +282,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -354,6 +369,22 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -369,6 +400,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -451,6 +483,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -485,6 +518,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -529,6 +563,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -572,6 +607,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -655,8 +691,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -667,7 +703,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
         </x:dxf>
@@ -677,8 +712,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -694,7 +729,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -709,8 +743,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -726,7 +760,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -764,7 +797,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1428,7 +1461,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1812,7 +1845,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2515,7 +2548,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2936,7 +2969,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3639,7 +3672,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4060,7 +4093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4120,11 +4153,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$21</c:f>
+              <c:f>'02.28 kernel launch'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4132,54 +4165,55 @@
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$21:$G$21</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0915827338129496</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.149466192170819</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.269094922737307</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.474893617021277</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.672096908939014</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.862576687116564</c:v>
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,11 +4224,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$22</c:f>
+              <c:f>'02.28 kernel launch'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4202,54 +4236,55 @@
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$22:$G$22</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.169352517985612</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.270462633451957</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.463576158940397</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.659574468085106</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999754601226994</c:v>
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$21:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4260,11 +4295,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$23</c:f>
+              <c:f>'02.28 kernel launch'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4272,54 +4307,55 @@
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$23:$G$23</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.297841726618705</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.429418742586002</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.649006622516556</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.991489361702128</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999754601226994</c:v>
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4330,11 +4366,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$24</c:f>
+              <c:f>'02.28 kernel launch'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4342,54 +4378,55 @@
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$24:$G$24</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.461151079136691</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.601423487544484</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.960264900662252</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.999574468085106</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999877300613497</c:v>
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$23:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4398,68 +4435,58 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$25:$G$25</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.59136690647482</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.830367734282325</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.999779249448124</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.999574468085106</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$24:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0915827338129496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.149466192170819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.269094922737307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.474893617021277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.672096908939014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.862576687116564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,68 +4495,58 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$26:$G$26</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.762589928057554</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.972716488730724</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.999779249448124</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.169352517985612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.270462633451957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.463576158940397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.659574468085106</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.999754601226994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,68 +4555,58 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024*2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$27:$G$27</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.856115107913669</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.297841726618705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.429418742586002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.649006622516556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.991489361702128</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.999754601226994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,68 +4615,58 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024*4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$28:$G$28</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.870503597122302</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.981020166073547</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.461151079136691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.601423487544484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.960264900662252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.999877300613497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4678,208 +4675,58 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024*8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$29:$G$29</c:f>
+              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.877697841726619</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97864768683274</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.964679911699779</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024*16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$30:$G$30</c:f>
+              <c:f>'02.28 kernel launch'!$B$28:$G$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.884892086330935</c:v>
+                  <c:v>0.59136690647482</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.941874258600237</c:v>
+                  <c:v>0.830367734282325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.999779249448124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.999574468085106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1024*32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128 (8.4Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256 (4.5Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512 (2.35Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024 (1.2Mpps)</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514 (0.8 Mpps)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$31:$G$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.902877697841727</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4962,7 +4809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5022,11 +4869,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$20</c:f>
+              <c:f>'02.28 kernel launch'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5035,83 +4882,83 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1024*2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024*4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024*8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024*16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$21:$B$31</c:f>
+              <c:f>'02.28 kernel launch'!$B$20:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.0915827338129496</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.169352517985612</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.297841726618705</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.461151079136691</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0.59136690647482</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.762589928057554</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>0.856115107913669</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.870503597122302</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.877697841726619</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.884892086330935</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.902877697841727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5122,11 +4969,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$C$20</c:f>
+              <c:f>'02.28 kernel launch'!$C$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128 (8.4Mpps)</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5135,83 +4982,83 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1024*2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024*4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024*8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024*16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$C$21:$C$31</c:f>
+              <c:f>'02.28 kernel launch'!$C$20:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.149466192170819</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.270462633451957</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.429418742586002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.601423487544484</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0.830367734282325</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.972716488730724</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.981020166073547</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97864768683274</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.941874258600237</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5222,11 +5069,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$D$20</c:f>
+              <c:f>'02.28 kernel launch'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>256 (4.5Mpps)</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5235,83 +5082,83 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1024*2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024*4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024*8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024*16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$D$21:$D$31</c:f>
+              <c:f>'02.28 kernel launch'!$D$20:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.269094922737307</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.463576158940397</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.649006622516556</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.960264900662252</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0.999779249448124</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.999779249448124</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.964679911699779</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5322,11 +5169,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$E$20</c:f>
+              <c:f>'02.28 kernel launch'!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>512 (2.35Mpps)</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5335,83 +5182,83 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1024*2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024*4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024*8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024*16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$E$21:$E$31</c:f>
+              <c:f>'02.28 kernel launch'!$E$20:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.474893617021277</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.659574468085106</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.991489361702128</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.999574468085106</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>0.999574468085106</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5422,11 +5269,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$F$20</c:f>
+              <c:f>'02.28 kernel launch'!$F$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1024 (1.2Mpps)</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5435,65 +5282,65 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1024*2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024*4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024*8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024*16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$F$21:$F$31</c:f>
+              <c:f>'02.28 kernel launch'!$F$20:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.672096908939014</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -5502,16 +5349,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5522,11 +5369,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$G$20</c:f>
+              <c:f>'02.28 kernel launch'!$G$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1514 (0.8 Mpps)</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5535,80 +5382,80 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$21:$A$31</c:f>
+              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
                   <c:v>1024*2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1024*4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1024*8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1024*16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$G$21:$G$31</c:f>
+              <c:f>'02.28 kernel launch'!$G$20:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.862576687116564</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>0.999754601226994</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>0.999754601226994</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>0.999877300613497</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -5694,7 +5541,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5759,7 +5606,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5884,7 +5731,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5906,7 +5753,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="12592051" cy="6086475"/>
+        <a:ext cx="12592051" cy="6086474"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5936,7 +5783,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="6791325"/>
-        <a:ext cx="12592051" cy="6086475"/>
+        <a:ext cx="12592051" cy="6086474"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6218,7 +6065,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:7">
       <x:c r="B1" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -6243,16 +6090,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -6395,7 +6242,7 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B10" s="1">
         <x:v>13390000</x:v>
@@ -6416,7 +6263,7 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="1">
         <x:v>12500000</x:v>
@@ -6435,7 +6282,7 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B12" s="1">
         <x:v>12550000</x:v>
@@ -6452,7 +6299,7 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B13" s="1">
         <x:v>12480000</x:v>
@@ -6467,7 +6314,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B14" s="1">
         <x:v>12770000</x:v>
@@ -6480,7 +6327,7 @@
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C18" s="8"/>
       <x:c r="D18" s="8"/>
@@ -6505,16 +6352,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
@@ -6693,7 +6540,7 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B27" s="1">
         <x:f t="shared" si="3"/>
@@ -6719,7 +6566,7 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B28" s="1">
         <x:f t="shared" si="3"/>
@@ -6742,7 +6589,7 @@
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="1">
         <x:f t="shared" si="3"/>
@@ -6765,7 +6612,7 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="1">
         <x:f t="shared" si="3"/>
@@ -6788,7 +6635,7 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B31" s="1">
         <x:f t="shared" si="3"/>
@@ -6820,7 +6667,7 @@
     </x:row>
     <x:row r="34" spans="2:7">
       <x:c r="B34" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C34" s="8"/>
       <x:c r="D34" s="8"/>
@@ -6845,16 +6692,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
@@ -6997,7 +6844,7 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B43" s="1">
         <x:v>6420</x:v>
@@ -7018,7 +6865,7 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B44" s="1">
         <x:v>3050</x:v>
@@ -7037,7 +6884,7 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B45" s="1">
         <x:v>1532</x:v>
@@ -7054,7 +6901,7 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B46" s="1">
         <x:v>760</x:v>
@@ -7069,7 +6916,7 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B47" s="1">
         <x:v>387</x:v>
@@ -7141,8 +6988,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:M58"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:G19"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G23" activeCellId="0" sqref="A22:G23"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -7153,10 +7000,10 @@
   <x:sheetData>
     <x:row r="1" spans="2:7" customHeight="1">
       <x:c r="B1" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D1" s="10" t="s">
         <x:v>18</x:v>
@@ -7165,10 +7012,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="F1" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G1" s="10" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="G1" s="10" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:13" customHeight="1">
@@ -7325,7 +7172,7 @@
     </x:row>
     <x:row r="9" spans="1:7" customHeight="1">
       <x:c r="A9" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B9" s="4">
         <x:v>2722</x:v>
@@ -7348,7 +7195,7 @@
     </x:row>
     <x:row r="10" spans="1:7" customHeight="1">
       <x:c r="A10" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B10" s="4">
         <x:v>2843</x:v>
@@ -7371,7 +7218,7 @@
     </x:row>
     <x:row r="11" spans="1:7" customHeight="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>3133</x:v>
@@ -7394,7 +7241,7 @@
     </x:row>
     <x:row r="12" spans="1:7" customHeight="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>3857</x:v>
@@ -7417,7 +7264,7 @@
     </x:row>
     <x:row r="13" spans="1:7" customHeight="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>5125</x:v>
@@ -7440,7 +7287,7 @@
     </x:row>
     <x:row r="14" spans="1:7" customHeight="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>7528</x:v>
@@ -7463,7 +7310,7 @@
     </x:row>
     <x:row r="15" spans="1:7" customHeight="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>11994</x:v>
@@ -7486,7 +7333,7 @@
     </x:row>
     <x:row r="16" spans="1:7" customHeight="1">
       <x:c r="A16" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>19883</x:v>
@@ -7509,7 +7356,7 @@
     </x:row>
     <x:row r="17" spans="1:7" customHeight="1">
       <x:c r="A17" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>37751</x:v>
@@ -7532,7 +7379,7 @@
     </x:row>
     <x:row r="18" spans="1:7" customHeight="1">
       <x:c r="A18" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>85677</x:v>
@@ -7555,7 +7402,7 @@
     </x:row>
     <x:row r="19" spans="1:7" customHeight="1">
       <x:c r="A19" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>206878</x:v>
@@ -7669,59 +7516,59 @@
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B48" s="3"/>
       <x:c r="D48" s="3"/>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7758,7 +7605,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B1" s="9"/>
       <x:c r="C1" s="9"/>
@@ -7774,10 +7621,10 @@
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D3" s="10" t="s">
         <x:v>18</x:v>
@@ -7896,7 +7743,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>7445</x:v>
@@ -7913,7 +7760,7 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>2307</x:v>
@@ -7930,7 +7777,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>3334</x:v>
@@ -7947,7 +7794,7 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>5643</x:v>
@@ -7964,7 +7811,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>8649</x:v>
@@ -7981,7 +7828,7 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>7925</x:v>
@@ -7998,7 +7845,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>19881</x:v>
@@ -8015,7 +7862,7 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>26627</x:v>
@@ -8032,7 +7879,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>40525</x:v>
@@ -8049,7 +7896,7 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="4">
         <x:v>74741</x:v>
@@ -8066,7 +7913,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B21" s="4">
         <x:v>150490</x:v>
@@ -8083,7 +7930,7 @@
     </x:row>
     <x:row r="25" spans="1:5" ht="24.949999999999999" customHeight="1">
       <x:c r="A25" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B25" s="9"/>
       <x:c r="C25" s="9"/>
@@ -8099,10 +7946,10 @@
     </x:row>
     <x:row r="27" spans="2:3">
       <x:c r="B27" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C27" s="10" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="C27" s="10" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:3">
@@ -8177,7 +8024,7 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>1704662</x:v>
@@ -8188,7 +8035,7 @@
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>888145</x:v>
@@ -8199,7 +8046,7 @@
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>501401</x:v>
@@ -8210,7 +8057,7 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>332799</x:v>
@@ -8221,7 +8068,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>234809</x:v>
@@ -8232,7 +8079,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>185326</x:v>
@@ -8243,7 +8090,7 @@
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>161905</x:v>
@@ -8254,7 +8101,7 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>150163</x:v>
@@ -8265,7 +8112,7 @@
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>145611</x:v>
@@ -8276,7 +8123,7 @@
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>148653</x:v>
@@ -8287,7 +8134,7 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>167357</x:v>
@@ -8298,7 +8145,7 @@
     </x:row>
     <x:row r="48" spans="1:7" ht="24.949999999999999" customHeight="1">
       <x:c r="A48" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B48" s="7"/>
       <x:c r="C48" s="7"/>
@@ -8318,10 +8165,10 @@
     </x:row>
     <x:row r="50" spans="2:5">
       <x:c r="B50" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C50" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D50" s="10" t="s">
         <x:v>18</x:v>
@@ -8440,7 +8287,7 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B58" s="4">
         <x:v>2330</x:v>
@@ -8457,7 +8304,7 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B59" s="4">
         <x:v>3582</x:v>
@@ -8474,7 +8321,7 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B60" s="4">
         <x:v>3213</x:v>
@@ -8491,7 +8338,7 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B61" s="4">
         <x:v>3588</x:v>
@@ -8508,7 +8355,7 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B62" s="5">
         <x:v>12283</x:v>
@@ -8525,7 +8372,7 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B63" s="4">
         <x:v>7954</x:v>
@@ -8542,7 +8389,7 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B64" s="4">
         <x:v>11599</x:v>
@@ -8559,7 +8406,7 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B65" s="4">
         <x:v>20553</x:v>
@@ -8576,7 +8423,7 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B66" s="4">
         <x:v>38486</x:v>
@@ -8593,7 +8440,7 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B67" s="4">
         <x:v>75167</x:v>
@@ -8610,7 +8457,7 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B68" s="4">
         <x:v>161317</x:v>
@@ -8627,7 +8474,7 @@
     </x:row>
     <x:row r="73" spans="1:5" ht="24.949999999999999" customHeight="1">
       <x:c r="A73" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B73" s="7"/>
       <x:c r="C73" s="7"/>
@@ -8643,10 +8490,10 @@
     </x:row>
     <x:row r="75" spans="2:3">
       <x:c r="B75" s="10" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C75" s="10" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="C75" s="10" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:3">
@@ -8721,7 +8568,7 @@
     </x:row>
     <x:row r="83" spans="1:3">
       <x:c r="A83" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>1708597</x:v>
@@ -8732,7 +8579,7 @@
     </x:row>
     <x:row r="84" spans="1:3">
       <x:c r="A84" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>889942</x:v>
@@ -8743,7 +8590,7 @@
     </x:row>
     <x:row r="85" spans="1:3">
       <x:c r="A85" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>506309</x:v>
@@ -8754,7 +8601,7 @@
     </x:row>
     <x:row r="86" spans="1:3">
       <x:c r="A86" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>344510</x:v>
@@ -8765,7 +8612,7 @@
     </x:row>
     <x:row r="87" spans="1:3">
       <x:c r="A87" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>242647</x:v>
@@ -8776,7 +8623,7 @@
     </x:row>
     <x:row r="88" spans="1:3">
       <x:c r="A88" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>185274</x:v>
@@ -8787,7 +8634,7 @@
     </x:row>
     <x:row r="89" spans="1:3">
       <x:c r="A89" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>158391</x:v>
@@ -8798,7 +8645,7 @@
     </x:row>
     <x:row r="90" spans="1:3">
       <x:c r="A90" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>149039</x:v>
@@ -8809,7 +8656,7 @@
     </x:row>
     <x:row r="91" spans="1:3">
       <x:c r="A91" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>153874</x:v>
@@ -8820,7 +8667,7 @@
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>154735</x:v>
@@ -8831,7 +8678,7 @@
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>169481</x:v>
@@ -8884,10 +8731,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="A1:G47"/>
+  <x:dimension ref="A1:H58"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H16" activeCellId="0" sqref="H16:H16"/>
+    <x:sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H36" activeCellId="0" sqref="H36:H36"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -8898,7 +8745,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:7">
       <x:c r="B1" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C1" s="8"/>
       <x:c r="D1" s="8"/>
@@ -8923,16 +8770,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -9075,7 +8922,7 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B10" s="1">
         <x:v>11900000</x:v>
@@ -9096,7 +8943,7 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="1">
         <x:v>12100000</x:v>
@@ -9115,7 +8962,7 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B12" s="1">
         <x:v>12200000</x:v>
@@ -9132,7 +8979,7 @@
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B13" s="1">
         <x:v>12300000</x:v>
@@ -9147,653 +8994,801 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B14" s="1">
         <x:v>12550000</x:v>
       </x:c>
-      <x:c r="C14" s="1"/>
+      <x:c r="C14" s="1">
+        <x:v>7500000</x:v>
+      </x:c>
       <x:c r="D14" s="1"/>
       <x:c r="E14" s="1"/>
       <x:c r="F14" s="1"/>
       <x:c r="G14" s="1"/>
     </x:row>
-    <x:row r="18" spans="2:7">
-      <x:c r="B18" s="7" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C18" s="8"/>
-      <x:c r="D18" s="8"/>
-      <x:c r="E18" s="8"/>
-      <x:c r="F18" s="8"/>
-      <x:c r="G18" s="8"/>
-    </x:row>
-    <x:row r="19" spans="2:7">
-      <x:c r="B19" s="8"/>
-      <x:c r="C19" s="8"/>
-      <x:c r="D19" s="8"/>
-      <x:c r="E19" s="8"/>
-      <x:c r="F19" s="8"/>
-      <x:c r="G19" s="8"/>
-    </x:row>
-    <x:row r="20" spans="1:7">
-      <x:c r="A20" s="1"/>
-      <x:c r="B20" s="1" t="s">
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B15">
+        <x:v>12500000</x:v>
+      </x:c>
+      <x:c r="C15">
+        <x:v>7100000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B16">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="C16">
+        <x:v>6700000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17">
+        <x:v>11200000</x:v>
+      </x:c>
+      <x:c r="C17">
+        <x:v>7940000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B18">
+        <x:v>11500000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:7">
+      <x:c r="B21" s="7" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C21" s="8"/>
+      <x:c r="D21" s="8"/>
+      <x:c r="E21" s="8"/>
+      <x:c r="F21" s="8"/>
+      <x:c r="G21" s="8"/>
+    </x:row>
+    <x:row r="22" spans="2:7">
+      <x:c r="B22" s="8"/>
+      <x:c r="C22" s="8"/>
+      <x:c r="D22" s="8"/>
+      <x:c r="E22" s="8"/>
+      <x:c r="F22" s="8"/>
+      <x:c r="G22" s="8"/>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="1"/>
+      <x:c r="B23" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C20" s="1" t="s">
+      <x:c r="C23" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F20" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G20" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:7">
-      <x:c r="A21" s="1">
+      <x:c r="D23" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F23" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G23" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="1">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B21" s="1">
+      <x:c r="B24" s="12">
         <x:f>B4/13900000</x:f>
         <x:v>0.091582733812949638</x:v>
       </x:c>
-      <x:c r="C21">
+      <x:c r="C24" s="13">
         <x:f>C4/MAX($C$4:$C$13)</x:f>
         <x:v>0.1494661921708185</x:v>
       </x:c>
-      <x:c r="D21">
+      <x:c r="D24" s="13">
         <x:f>D4/MAX($D$4:$D$13)</x:f>
         <x:v>0.26909492273730684</x:v>
       </x:c>
-      <x:c r="E21">
+      <x:c r="E24" s="13">
         <x:f>E4/MAX($E$4:$E$13)</x:f>
         <x:v>0.47489361702127658</x:v>
       </x:c>
-      <x:c r="F21">
+      <x:c r="F24" s="13">
         <x:f>F4/MAX($F$4:$F$13)</x:f>
         <x:v>0.67209690893901419</x:v>
       </x:c>
-      <x:c r="G21">
+      <x:c r="G24" s="13">
         <x:f>G4/MAX($G$4:$G$13)</x:f>
         <x:v>0.86257668711656443</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:7">
-      <x:c r="A22" s="1">
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="1">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B22" s="1">
-        <x:f t="shared" ref="B22:B31" si="0">B5/13900000</x:f>
+      <x:c r="B25" s="12">
+        <x:f t="shared" ref="B25:B38" si="0">B5/13900000</x:f>
         <x:v>0.16935251798561152</x:v>
       </x:c>
-      <x:c r="C22">
-        <x:f t="shared" ref="C22:C31" si="1">C5/MAX($C$4:$C$13)</x:f>
+      <x:c r="C25" s="13">
+        <x:f t="shared" ref="C25:C38" si="1">C5/MAX($C$4:$C$13)</x:f>
         <x:v>0.27046263345195731</x:v>
       </x:c>
-      <x:c r="D22">
-        <x:f t="shared" ref="D22:D31" si="2">D5/MAX($D$4:$D$13)</x:f>
+      <x:c r="D25" s="13">
+        <x:f t="shared" ref="D25:D34" si="2">D5/MAX($D$4:$D$13)</x:f>
         <x:v>0.46357615894039733</x:v>
       </x:c>
-      <x:c r="E22">
-        <x:f t="shared" ref="E22:E31" si="3">E5/MAX($E$4:$E$13)</x:f>
+      <x:c r="E25" s="13">
+        <x:f t="shared" ref="E25:E34" si="3">E5/MAX($E$4:$E$13)</x:f>
         <x:v>0.65957446808510634</x:v>
       </x:c>
-      <x:c r="F22">
-        <x:f t="shared" ref="F22:F31" si="4">F5/MAX($F$4:$F$13)</x:f>
+      <x:c r="F25" s="13">
+        <x:f t="shared" ref="F25:F34" si="4">F5/MAX($F$4:$F$13)</x:f>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G22">
-        <x:f t="shared" ref="G22:G31" si="5">G5/MAX($G$4:$G$13)</x:f>
+      <x:c r="G25" s="13">
+        <x:f t="shared" ref="G25:G34" si="5">G5/MAX($G$4:$G$13)</x:f>
         <x:v>0.99975460122699389</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:7">
-      <x:c r="A23" s="1">
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="1">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B23" s="1">
+      <x:c r="B26" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.29784172661870506</x:v>
       </x:c>
-      <x:c r="C23">
+      <x:c r="C26" s="13">
         <x:f t="shared" si="1"/>
         <x:v>0.42941874258600238</x:v>
       </x:c>
-      <x:c r="D23">
+      <x:c r="D26" s="13">
         <x:f t="shared" si="2"/>
         <x:v>0.64900662251655628</x:v>
       </x:c>
-      <x:c r="E23">
+      <x:c r="E26" s="13">
         <x:f t="shared" si="3"/>
         <x:v>0.99148936170212765</x:v>
       </x:c>
-      <x:c r="F23">
+      <x:c r="F26" s="13">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G23">
+      <x:c r="G26" s="13">
         <x:f t="shared" si="5"/>
         <x:v>0.99975460122699389</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:7">
-      <x:c r="A24" s="1">
+    <x:row r="27" spans="1:7">
+      <x:c r="A27" s="1">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B24" s="1">
+      <x:c r="B27" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.46115107913669062</x:v>
       </x:c>
-      <x:c r="C24">
+      <x:c r="C27" s="13">
         <x:f t="shared" si="1"/>
         <x:v>0.60142348754448394</x:v>
       </x:c>
-      <x:c r="D24">
+      <x:c r="D27" s="13">
         <x:f t="shared" si="2"/>
         <x:v>0.96026490066225167</x:v>
       </x:c>
-      <x:c r="E24">
+      <x:c r="E27" s="13">
         <x:f t="shared" si="3"/>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F24">
+      <x:c r="F27" s="13">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G24">
+      <x:c r="G27" s="13">
         <x:f t="shared" si="5"/>
         <x:v>0.99987730061349689</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:7">
-      <x:c r="A25" s="1">
+    <x:row r="28" spans="1:7">
+      <x:c r="A28" s="1">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B25" s="1">
+      <x:c r="B28" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.59136690647482015</x:v>
       </x:c>
-      <x:c r="C25">
+      <x:c r="C28" s="13">
         <x:f t="shared" si="1"/>
         <x:v>0.83036773428232502</x:v>
       </x:c>
-      <x:c r="D25">
+      <x:c r="D28" s="13">
         <x:f t="shared" si="2"/>
         <x:v>0.99977924944812357</x:v>
       </x:c>
-      <x:c r="E25">
+      <x:c r="E28" s="13">
         <x:f t="shared" si="3"/>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F25">
+      <x:c r="F28" s="13">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G25">
+      <x:c r="G28" s="13">
         <x:f t="shared" si="5"/>
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:7">
-      <x:c r="A26" s="1">
+    <x:row r="29" spans="1:7">
+      <x:c r="A29" s="1">
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B26" s="1">
+      <x:c r="B29" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.76258992805755399</x:v>
       </x:c>
-      <x:c r="C26">
+      <x:c r="C29" s="13">
         <x:f t="shared" si="1"/>
         <x:v>0.97271648873072358</x:v>
       </x:c>
-      <x:c r="D26">
+      <x:c r="D29" s="13">
         <x:f t="shared" si="2"/>
         <x:v>0.99977924944812357</x:v>
       </x:c>
-      <x:c r="E26">
+      <x:c r="E29" s="13">
         <x:f t="shared" si="3"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F26">
+      <x:c r="F29" s="13">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G26">
+      <x:c r="G29" s="13">
         <x:f t="shared" si="5"/>
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:7">
-      <x:c r="A27" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B27" s="1">
+    <x:row r="30" spans="1:7">
+      <x:c r="A30" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B30" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.85611510791366907</x:v>
       </x:c>
-      <x:c r="C27">
+      <x:c r="C30" s="13">
         <x:f t="shared" si="1"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D27">
+      <x:c r="D30" s="13">
         <x:f t="shared" si="2"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E27">
+      <x:c r="E30" s="13">
         <x:f t="shared" si="3"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F27">
+      <x:c r="F30" s="13">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G27">
+      <x:c r="G30" s="13">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:7">
-      <x:c r="A28" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B28" s="1">
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B31" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.87050359712230219</x:v>
       </x:c>
-      <x:c r="C28">
+      <x:c r="C31" s="13">
         <x:f t="shared" si="1"/>
         <x:v>0.98102016607354681</x:v>
       </x:c>
-      <x:c r="D28">
+      <x:c r="D31" s="13">
         <x:f t="shared" si="2"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E28">
+      <x:c r="E31" s="13">
         <x:f t="shared" si="3"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F28">
+      <x:c r="F31" s="13">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G28">
+      <x:c r="G31" s="13">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:7">
-      <x:c r="A29" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B29" s="1">
+    <x:row r="32" spans="1:7">
+      <x:c r="A32" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B32" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.87769784172661869</x:v>
       </x:c>
-      <x:c r="C29">
+      <x:c r="C32" s="13">
         <x:f t="shared" si="1"/>
         <x:v>0.97864768683274017</x:v>
       </x:c>
-      <x:c r="D29">
+      <x:c r="D32" s="13">
         <x:f t="shared" si="2"/>
         <x:v>0.96467991169977929</x:v>
       </x:c>
-      <x:c r="E29">
+      <x:c r="E32" s="13">
         <x:f t="shared" si="3"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F29">
+      <x:c r="F32" s="13">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G29">
+      <x:c r="G32" s="13">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:7">
-      <x:c r="A30" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B30" s="1">
+    <x:row r="33" spans="1:7">
+      <x:c r="A33" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B33" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.8848920863309353</x:v>
       </x:c>
-      <x:c r="C30">
+      <x:c r="C33" s="13">
         <x:f t="shared" si="1"/>
         <x:v>0.94187425860023721</x:v>
       </x:c>
-      <x:c r="D30">
+      <x:c r="D33" s="13">
         <x:f t="shared" si="2"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E30">
+      <x:c r="E33" s="13">
         <x:f t="shared" si="3"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F30">
+      <x:c r="F33" s="13">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G30">
+      <x:c r="G33" s="13">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:7">
-      <x:c r="A31" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B31" s="1">
+    <x:row r="34" spans="1:7">
+      <x:c r="A34" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B34" s="12">
         <x:f t="shared" si="0"/>
         <x:v>0.90287769784172667</x:v>
       </x:c>
-      <x:c r="C31">
+      <x:c r="C34" s="13">
+        <x:f t="shared" si="1"/>
+        <x:v>0.88967971530249113</x:v>
+      </x:c>
+      <x:c r="D34" s="13">
+        <x:f t="shared" si="2"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E34" s="13">
+        <x:f t="shared" si="3"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F34" s="13">
+        <x:f t="shared" si="4"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G34" s="13">
+        <x:f t="shared" si="5"/>
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="A35" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B35" s="12">
+        <x:f t="shared" si="0"/>
+        <x:v>0.89928057553956831</x:v>
+      </x:c>
+      <x:c r="C35" s="13">
+        <x:f t="shared" si="1"/>
+        <x:v>0.8422301304863582</x:v>
+      </x:c>
+      <x:c r="D35" s="13"/>
+      <x:c r="E35" s="13"/>
+      <x:c r="F35" s="13"/>
+      <x:c r="G35" s="13"/>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B36" s="12">
+        <x:f t="shared" si="0"/>
+        <x:v>0.86330935251798557</x:v>
+      </x:c>
+      <x:c r="C36" s="13">
+        <x:f t="shared" si="1"/>
+        <x:v>0.79478054567022538</x:v>
+      </x:c>
+      <x:c r="D36" s="13"/>
+      <x:c r="E36" s="13"/>
+      <x:c r="F36" s="13"/>
+      <x:c r="G36" s="13"/>
+      <x:c r="H36" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="12">
+        <x:f t="shared" si="0"/>
+        <x:v>0.80575539568345322</x:v>
+      </x:c>
+      <x:c r="C37" s="13">
+        <x:f t="shared" si="1"/>
+        <x:v>0.94187425860023721</x:v>
+      </x:c>
+      <x:c r="D37" s="13"/>
+      <x:c r="E37" s="13"/>
+      <x:c r="F37" s="13"/>
+      <x:c r="G37" s="13"/>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B38" s="12">
+        <x:f t="shared" si="0"/>
+        <x:v>0.82733812949640284</x:v>
+      </x:c>
+      <x:c r="C38" s="13">
         <x:f t="shared" si="1"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D31">
-        <x:f t="shared" si="2"/>
+      <x:c r="D38" s="13"/>
+      <x:c r="E38" s="13"/>
+      <x:c r="F38" s="13"/>
+      <x:c r="G38" s="13"/>
+    </x:row>
+    <x:row r="41" spans="2:7">
+      <x:c r="B41" s="7" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C41" s="8"/>
+      <x:c r="D41" s="8"/>
+      <x:c r="E41" s="8"/>
+      <x:c r="F41" s="8"/>
+      <x:c r="G41" s="8"/>
+    </x:row>
+    <x:row r="42" spans="2:7">
+      <x:c r="B42" s="8"/>
+      <x:c r="C42" s="8"/>
+      <x:c r="D42" s="8"/>
+      <x:c r="E42" s="8"/>
+      <x:c r="F42" s="8"/>
+      <x:c r="G42" s="8"/>
+    </x:row>
+    <x:row r="43" spans="1:7">
+      <x:c r="A43" s="1"/>
+      <x:c r="B43" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G43" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:7">
+      <x:c r="A44" s="1">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B44">
+        <x:v>39530</x:v>
+      </x:c>
+      <x:c r="C44" s="1">
+        <x:v>39470</x:v>
+      </x:c>
+      <x:c r="D44" s="1">
+        <x:v>38000</x:v>
+      </x:c>
+      <x:c r="E44" s="1">
+        <x:v>34000</x:v>
+      </x:c>
+      <x:c r="F44" s="1">
+        <x:v>25100</x:v>
+      </x:c>
+      <x:c r="G44" s="1">
+        <x:v>21970</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:7">
+      <x:c r="A45" s="1">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B45" s="1">
+        <x:v>36500</x:v>
+      </x:c>
+      <x:c r="C45" s="1">
+        <x:v>35600</x:v>
+      </x:c>
+      <x:c r="D45" s="1">
+        <x:v>32900</x:v>
+      </x:c>
+      <x:c r="E45" s="1">
+        <x:v>24270</x:v>
+      </x:c>
+      <x:c r="F45" s="1">
+        <x:v>18600</x:v>
+      </x:c>
+      <x:c r="G45" s="1">
+        <x:v>12700</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:7">
+      <x:c r="A46" s="1">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B46" s="1">
+        <x:v>31900</x:v>
+      </x:c>
+      <x:c r="C46" s="1">
+        <x:v>28400</x:v>
+      </x:c>
+      <x:c r="D46" s="1">
+        <x:v>22900</x:v>
+      </x:c>
+      <x:c r="E46" s="1">
+        <x:v>18200</x:v>
+      </x:c>
+      <x:c r="F46" s="1">
+        <x:v>9347</x:v>
+      </x:c>
+      <x:c r="G46" s="1">
+        <x:v>6363</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:7">
+      <x:c r="A47" s="1">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B47" s="1">
+        <x:v>25133</x:v>
+      </x:c>
+      <x:c r="C47" s="1">
+        <x:v>19800</x:v>
+      </x:c>
+      <x:c r="D47" s="1">
+        <x:v>17000</x:v>
+      </x:c>
+      <x:c r="E47" s="1">
+        <x:v>9170</x:v>
+      </x:c>
+      <x:c r="F47" s="1">
+        <x:v>4676</x:v>
+      </x:c>
+      <x:c r="G47" s="1">
+        <x:v>3183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:7">
+      <x:c r="A48" s="1">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B48" s="1">
+        <x:v>16000</x:v>
+      </x:c>
+      <x:c r="C48" s="1">
+        <x:v>13600</x:v>
+      </x:c>
+      <x:c r="D48" s="1">
+        <x:v>8846</x:v>
+      </x:c>
+      <x:c r="E48" s="1">
+        <x:v>4589</x:v>
+      </x:c>
+      <x:c r="F48" s="1">
+        <x:v>2339</x:v>
+      </x:c>
+      <x:c r="G48" s="1">
+        <x:v>1592</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:7">
+      <x:c r="A49" s="1">
+        <x:v>1024</x:v>
+      </x:c>
+      <x:c r="B49" s="1">
+        <x:v>10425</x:v>
+      </x:c>
+      <x:c r="C49" s="1">
+        <x:v>8020</x:v>
+      </x:c>
+      <x:c r="D49" s="1">
+        <x:v>4423</x:v>
+      </x:c>
+      <x:c r="E49" s="1">
+        <x:v>2295</x:v>
+      </x:c>
+      <x:c r="F49" s="1">
+        <x:v>1169</x:v>
+      </x:c>
+      <x:c r="G49" s="1">
+        <x:v>796</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:7">
+      <x:c r="A50" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B50" s="1">
+        <x:v>5830</x:v>
+      </x:c>
+      <x:c r="C50" s="1">
+        <x:v>4113</x:v>
+      </x:c>
+      <x:c r="D50" s="1">
+        <x:v>2211</x:v>
+      </x:c>
+      <x:c r="E50" s="1">
+        <x:v>1147</x:v>
+      </x:c>
+      <x:c r="F50" s="1">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="G50" s="1"/>
+    </x:row>
+    <x:row r="51" spans="1:7">
+      <x:c r="A51" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B51" s="1">
+        <x:v>2960</x:v>
+      </x:c>
+      <x:c r="C51" s="1">
+        <x:v>2020</x:v>
+      </x:c>
+      <x:c r="D51" s="1">
+        <x:v>1106</x:v>
+      </x:c>
+      <x:c r="E51" s="1">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="F51" s="1"/>
+      <x:c r="G51" s="1"/>
+    </x:row>
+    <x:row r="52" spans="1:7">
+      <x:c r="A52" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B52" s="1">
+        <x:v>1490</x:v>
+      </x:c>
+      <x:c r="C52" s="1">
+        <x:v>1008</x:v>
+      </x:c>
+      <x:c r="D52" s="1">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="E52" s="1"/>
+      <x:c r="F52" s="1"/>
+      <x:c r="G52" s="1"/>
+    </x:row>
+    <x:row r="53" spans="1:7">
+      <x:c r="A53" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B53" s="1">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="C53" s="1">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="D53" s="1"/>
+      <x:c r="E53" s="1"/>
+      <x:c r="F53" s="1"/>
+      <x:c r="G53" s="1"/>
+    </x:row>
+    <x:row r="54" spans="1:7">
+      <x:c r="A54" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B54" s="1">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C54" s="1">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D54" s="1"/>
+      <x:c r="E54" s="1"/>
+      <x:c r="F54" s="1"/>
+      <x:c r="G54" s="1"/>
+    </x:row>
+    <x:row r="55" spans="1:3">
+      <x:c r="A55" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B55">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C55">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:3">
+      <x:c r="A56" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B56">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C56">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:3">
+      <x:c r="A57" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E31">
-        <x:f t="shared" si="3"/>
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F31">
-        <x:f t="shared" si="4"/>
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="G31">
-        <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:7">
-      <x:c r="A33" s="1"/>
-      <x:c r="B33" s="1"/>
-      <x:c r="C33" s="1"/>
-      <x:c r="D33" s="1"/>
-      <x:c r="E33" s="1"/>
-      <x:c r="F33" s="1"/>
-      <x:c r="G33" s="1"/>
-    </x:row>
-    <x:row r="34" spans="2:7">
-      <x:c r="B34" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C34" s="8"/>
-      <x:c r="D34" s="8"/>
-      <x:c r="E34" s="8"/>
-      <x:c r="F34" s="8"/>
-      <x:c r="G34" s="8"/>
-    </x:row>
-    <x:row r="35" spans="2:7">
-      <x:c r="B35" s="8"/>
-      <x:c r="C35" s="8"/>
-      <x:c r="D35" s="8"/>
-      <x:c r="E35" s="8"/>
-      <x:c r="F35" s="8"/>
-      <x:c r="G35" s="8"/>
-    </x:row>
-    <x:row r="36" spans="1:7">
-      <x:c r="A36" s="1"/>
-      <x:c r="B36" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C36" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D36" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E36" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F36" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G36" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:7">
-      <x:c r="A37" s="1">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B37">
-        <x:v>39530</x:v>
-      </x:c>
-      <x:c r="C37" s="1">
-        <x:v>39470</x:v>
-      </x:c>
-      <x:c r="D37" s="1">
-        <x:v>38000</x:v>
-      </x:c>
-      <x:c r="E37" s="1">
-        <x:v>34000</x:v>
-      </x:c>
-      <x:c r="F37" s="1">
-        <x:v>25100</x:v>
-      </x:c>
-      <x:c r="G37" s="1">
-        <x:v>21970</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:7">
-      <x:c r="A38" s="1">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B38" s="1">
-        <x:v>36500</x:v>
-      </x:c>
-      <x:c r="C38" s="1">
-        <x:v>35600</x:v>
-      </x:c>
-      <x:c r="D38" s="1">
-        <x:v>32900</x:v>
-      </x:c>
-      <x:c r="E38" s="1">
-        <x:v>24270</x:v>
-      </x:c>
-      <x:c r="F38" s="1">
-        <x:v>18600</x:v>
-      </x:c>
-      <x:c r="G38" s="1">
-        <x:v>12700</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:7">
-      <x:c r="A39" s="1">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="B39" s="1">
-        <x:v>31900</x:v>
-      </x:c>
-      <x:c r="C39" s="1">
-        <x:v>28400</x:v>
-      </x:c>
-      <x:c r="D39" s="1">
-        <x:v>22900</x:v>
-      </x:c>
-      <x:c r="E39" s="1">
-        <x:v>18200</x:v>
-      </x:c>
-      <x:c r="F39" s="1">
-        <x:v>9347</x:v>
-      </x:c>
-      <x:c r="G39" s="1">
-        <x:v>6363</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:7">
-      <x:c r="A40" s="1">
-        <x:v>256</x:v>
-      </x:c>
-      <x:c r="B40" s="1">
-        <x:v>25133</x:v>
-      </x:c>
-      <x:c r="C40" s="1">
-        <x:v>19800</x:v>
-      </x:c>
-      <x:c r="D40" s="1">
-        <x:v>17000</x:v>
-      </x:c>
-      <x:c r="E40" s="1">
-        <x:v>9170</x:v>
-      </x:c>
-      <x:c r="F40" s="1">
-        <x:v>4676</x:v>
-      </x:c>
-      <x:c r="G40" s="1">
-        <x:v>3183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:7">
-      <x:c r="A41" s="1">
-        <x:v>512</x:v>
-      </x:c>
-      <x:c r="B41" s="1">
-        <x:v>16000</x:v>
-      </x:c>
-      <x:c r="C41" s="1">
-        <x:v>13600</x:v>
-      </x:c>
-      <x:c r="D41" s="1">
-        <x:v>8846</x:v>
-      </x:c>
-      <x:c r="E41" s="1">
-        <x:v>4589</x:v>
-      </x:c>
-      <x:c r="F41" s="1">
-        <x:v>2339</x:v>
-      </x:c>
-      <x:c r="G41" s="1">
-        <x:v>1592</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:7">
-      <x:c r="A42" s="1">
-        <x:v>1024</x:v>
-      </x:c>
-      <x:c r="B42" s="1">
-        <x:v>10425</x:v>
-      </x:c>
-      <x:c r="C42" s="1">
-        <x:v>8020</x:v>
-      </x:c>
-      <x:c r="D42" s="1">
-        <x:v>4423</x:v>
-      </x:c>
-      <x:c r="E42" s="1">
-        <x:v>2295</x:v>
-      </x:c>
-      <x:c r="F42" s="1">
-        <x:v>1169</x:v>
-      </x:c>
-      <x:c r="G42" s="1">
-        <x:v>796</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:7">
-      <x:c r="A43" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B43" s="1">
-        <x:v>5830</x:v>
-      </x:c>
-      <x:c r="C43" s="1">
-        <x:v>4113</x:v>
-      </x:c>
-      <x:c r="D43" s="1">
-        <x:v>2211</x:v>
-      </x:c>
-      <x:c r="E43" s="1">
-        <x:v>1147</x:v>
-      </x:c>
-      <x:c r="F43" s="1">
-        <x:v>585</x:v>
-      </x:c>
-      <x:c r="G43" s="1"/>
-    </x:row>
-    <x:row r="44" spans="1:7">
-      <x:c r="A44" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B44" s="1">
-        <x:v>2960</x:v>
-      </x:c>
-      <x:c r="C44" s="1">
-        <x:v>2020</x:v>
-      </x:c>
-      <x:c r="D44" s="1">
-        <x:v>1106</x:v>
-      </x:c>
-      <x:c r="E44" s="1">
-        <x:v>574</x:v>
-      </x:c>
-      <x:c r="F44" s="1"/>
-      <x:c r="G44" s="1"/>
-    </x:row>
-    <x:row r="45" spans="1:7">
-      <x:c r="A45" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B45" s="1">
-        <x:v>1490</x:v>
-      </x:c>
-      <x:c r="C45" s="1">
-        <x:v>1008</x:v>
-      </x:c>
-      <x:c r="D45" s="1">
-        <x:v>533</x:v>
-      </x:c>
-      <x:c r="E45" s="1"/>
-      <x:c r="F45" s="1"/>
-      <x:c r="G45" s="1"/>
-    </x:row>
-    <x:row r="46" spans="1:7">
-      <x:c r="A46" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B46" s="1">
-        <x:v>752</x:v>
-      </x:c>
-      <x:c r="C46" s="1">
-        <x:v>485</x:v>
-      </x:c>
-      <x:c r="D46" s="1"/>
-      <x:c r="E46" s="1"/>
-      <x:c r="F46" s="1"/>
-      <x:c r="G46" s="1"/>
-    </x:row>
-    <x:row r="47" spans="1:7">
-      <x:c r="A47" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B47" s="1">
-        <x:v>384</x:v>
-      </x:c>
-      <x:c r="C47" s="1"/>
-      <x:c r="D47" s="1"/>
-      <x:c r="E47" s="1"/>
-      <x:c r="F47" s="1"/>
-      <x:c r="G47" s="1"/>
+      <x:c r="B57">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C57">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:2">
+      <x:c r="A58" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B58">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
     <x:mergeCell ref="B1:G2"/>
-    <x:mergeCell ref="B18:G19"/>
-    <x:mergeCell ref="B34:G35"/>
+    <x:mergeCell ref="B21:G22"/>
+    <x:mergeCell ref="B41:G42"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -9803,13 +9798,13 @@
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="P61" activeCellId="0" sqref="P61:P61"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>

--- a/batch_size_test.xlsx
+++ b/batch_size_test.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8664" tabRatio="517" activeTab="4"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8664" tabRatio="723" activeTab="6"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="02.25 persistent loop" sheetId="1" r:id="rId4"/>
@@ -13,87 +13,106 @@
     <x:sheet name="02.27 memcpy test graph" sheetId="4" r:id="rId7"/>
     <x:sheet name="02.28 kernel launch" sheetId="5" r:id="rId8"/>
     <x:sheet name="02.28 kernel launch graph" sheetId="6" r:id="rId9"/>
+    <x:sheet name="02.28 kernel launch 64 thread" sheetId="7" r:id="rId10"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="38">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="39">
   <x:si>
-    <x:t>1024*256</x:t>
+    <x:t>1024*2</x:t>
   </x:si>
   <x:si>
-    <x:t>1024 (1.2Mpps)</x:t>
+    <x:t>packet size별 batch size에 따른 cudaMemcpy call 횟수</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 32</x:t>
+    <x:t>100times loop / random data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 4</x:t>
+    <x:t>64 * 1024 * 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>512 (2.35Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ascending Order</x:t>
   </x:si>
   <x:si>
     <x:t>256 (4.5Mpps)</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 8</x:t>
-  </x:si>
-  <x:si>
     <x:t>64 * 1024 * 16</x:t>
   </x:si>
   <x:si>
-    <x:t>Ascending Order</x:t>
+    <x:t>packet size별 batch size에 따른 rx rate</x:t>
   </x:si>
   <x:si>
-    <x:t>512 (2.35Mpps)</x:t>
+    <x:t>1514 (0.8 Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128 (8.4Mpps)</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 1024 * 2</x:t>
   </x:si>
   <x:si>
-    <x:t>128 (8.4Mpps)</x:t>
+    <x:t>64 * 128</x:t>
   </x:si>
   <x:si>
-    <x:t>1514 (0.8 Mpps)</x:t>
+    <x:t>64 * 256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>once / normal data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Descending Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 (13.8~14.0Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>once / random data</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*256</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 1024</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 512</x:t>
+    <x:t>same size loop / random data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 256</x:t>
+    <x:t>100 times loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 128</x:t>
+    <x:t>packet size별 batch size에 따른 pps</x:t>
   </x:si>
   <x:si>
-    <x:t>packet size별 batch size에 따른 cudaMemcpy call 횟수</x:t>
+    <x:t>same size loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 (13.8~14.0Mpps)</x:t>
+    <x:t>1024*512</x:t>
   </x:si>
   <x:si>
-    <x:t>once / normal data</x:t>
+    <x:t>1024*128</x:t>
   </x:si>
   <x:si>
-    <x:t>once / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Descending Order</x:t>
-  </x:si>
-  <x:si>
-    <x:t>packet size별 batch size에 따른 rx rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100times loop / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*2</x:t>
+    <x:t>1024*8</x:t>
   </x:si>
   <x:si>
     <x:t>1024*4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㄴㄴㄴㄴ</x:t>
   </x:si>
   <x:si>
     <x:t>1024*32</x:t>
@@ -102,37 +121,22 @@
     <x:t>64 * 32</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*8</x:t>
-  </x:si>
-  <x:si>
     <x:t>64 * 64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 times loop / normal data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>same size loop / normal data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>same size loop / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>packet size별 batch size에 따른 pps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*512</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*128</x:t>
   </x:si>
   <x:si>
     <x:t>1024*64</x:t>
   </x:si>
   <x:si>
-    <x:t>ㄴㄴㄴㄴ</x:t>
+    <x:t>64 * 1024 * 32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024 (1.2Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cudaMemcpy 횟수</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -316,6 +320,22 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -369,22 +389,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="right" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="right" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -400,7 +404,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -483,7 +486,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -518,7 +520,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -563,7 +564,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -607,7 +607,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -691,8 +690,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -703,6 +702,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
         </x:dxf>
@@ -712,8 +712,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -729,6 +729,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -743,8 +744,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
+            <x:color indexed="64"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -760,6 +761,7 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
+            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -797,7 +799,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1461,7 +1463,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1845,7 +1847,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2548,7 +2550,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2969,7 +2971,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3672,7 +3674,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4093,7 +4095,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4809,7 +4811,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5541,7 +5543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5606,7 +5608,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5731,7 +5733,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6064,22 +6066,22 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C1" s="8"/>
-      <x:c r="D1" s="8"/>
-      <x:c r="E1" s="8"/>
-      <x:c r="F1" s="8"/>
-      <x:c r="G1" s="8"/>
+      <x:c r="B1" s="9" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C1" s="10"/>
+      <x:c r="D1" s="10"/>
+      <x:c r="E1" s="10"/>
+      <x:c r="F1" s="10"/>
+      <x:c r="G1" s="10"/>
     </x:row>
     <x:row r="2" spans="2:7">
-      <x:c r="B2" s="8"/>
-      <x:c r="C2" s="8"/>
-      <x:c r="D2" s="8"/>
-      <x:c r="E2" s="8"/>
-      <x:c r="F2" s="8"/>
-      <x:c r="G2" s="8"/>
+      <x:c r="B2" s="10"/>
+      <x:c r="C2" s="10"/>
+      <x:c r="D2" s="10"/>
+      <x:c r="E2" s="10"/>
+      <x:c r="F2" s="10"/>
+      <x:c r="G2" s="10"/>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1"/>
@@ -6090,16 +6092,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -6242,7 +6244,7 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="1">
         <x:v>13390000</x:v>
@@ -6263,7 +6265,7 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B11" s="1">
         <x:v>12500000</x:v>
@@ -6314,7 +6316,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B14" s="1">
         <x:v>12770000</x:v>
@@ -6326,22 +6328,22 @@
       <x:c r="G14" s="1"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C18" s="8"/>
-      <x:c r="D18" s="8"/>
-      <x:c r="E18" s="8"/>
-      <x:c r="F18" s="8"/>
-      <x:c r="G18" s="8"/>
+      <x:c r="B18" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C18" s="10"/>
+      <x:c r="D18" s="10"/>
+      <x:c r="E18" s="10"/>
+      <x:c r="F18" s="10"/>
+      <x:c r="G18" s="10"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="8"/>
-      <x:c r="C19" s="8"/>
-      <x:c r="D19" s="8"/>
-      <x:c r="E19" s="8"/>
-      <x:c r="F19" s="8"/>
-      <x:c r="G19" s="8"/>
+      <x:c r="B19" s="10"/>
+      <x:c r="C19" s="10"/>
+      <x:c r="D19" s="10"/>
+      <x:c r="E19" s="10"/>
+      <x:c r="F19" s="10"/>
+      <x:c r="G19" s="10"/>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="1"/>
@@ -6352,16 +6354,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
@@ -6540,7 +6542,7 @@
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="1">
         <x:f t="shared" si="3"/>
@@ -6566,7 +6568,7 @@
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B28" s="1">
         <x:f t="shared" si="3"/>
@@ -6635,7 +6637,7 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B31" s="1">
         <x:f t="shared" si="3"/>
@@ -6666,22 +6668,22 @@
       <x:c r="G33" s="1"/>
     </x:row>
     <x:row r="34" spans="2:7">
-      <x:c r="B34" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C34" s="8"/>
-      <x:c r="D34" s="8"/>
-      <x:c r="E34" s="8"/>
-      <x:c r="F34" s="8"/>
-      <x:c r="G34" s="8"/>
+      <x:c r="B34" s="9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C34" s="10"/>
+      <x:c r="D34" s="10"/>
+      <x:c r="E34" s="10"/>
+      <x:c r="F34" s="10"/>
+      <x:c r="G34" s="10"/>
     </x:row>
     <x:row r="35" spans="2:7">
-      <x:c r="B35" s="8"/>
-      <x:c r="C35" s="8"/>
-      <x:c r="D35" s="8"/>
-      <x:c r="E35" s="8"/>
-      <x:c r="F35" s="8"/>
-      <x:c r="G35" s="8"/>
+      <x:c r="B35" s="10"/>
+      <x:c r="C35" s="10"/>
+      <x:c r="D35" s="10"/>
+      <x:c r="E35" s="10"/>
+      <x:c r="F35" s="10"/>
+      <x:c r="G35" s="10"/>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="1"/>
@@ -6692,16 +6694,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E36" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
@@ -6844,7 +6846,7 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B43" s="1">
         <x:v>6420</x:v>
@@ -6865,7 +6867,7 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B44" s="1">
         <x:v>3050</x:v>
@@ -6916,7 +6918,7 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B47" s="1">
         <x:v>387</x:v>
@@ -6999,32 +7001,32 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7" customHeight="1">
-      <x:c r="B1" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C1" s="10" t="s">
+      <x:c r="B1" s="12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C1" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="12" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E1" s="12" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D1" s="10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E1" s="10" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F1" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G1" s="10" t="s">
-        <x:v>31</x:v>
+      <x:c r="F1" s="12" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G1" s="12" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:13" customHeight="1">
-      <x:c r="B2" s="10"/>
-      <x:c r="C2" s="10"/>
-      <x:c r="D2" s="10"/>
-      <x:c r="E2" s="10"/>
-      <x:c r="F2" s="10"/>
-      <x:c r="G2" s="10"/>
+      <x:c r="B2" s="12"/>
+      <x:c r="C2" s="12"/>
+      <x:c r="D2" s="12"/>
+      <x:c r="E2" s="12"/>
+      <x:c r="F2" s="12"/>
+      <x:c r="G2" s="12"/>
       <x:c r="H2" s="2"/>
       <x:c r="I2" s="2"/>
       <x:c r="J2" s="2"/>
@@ -7172,7 +7174,7 @@
     </x:row>
     <x:row r="9" spans="1:7" customHeight="1">
       <x:c r="A9" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B9" s="4">
         <x:v>2722</x:v>
@@ -7195,7 +7197,7 @@
     </x:row>
     <x:row r="10" spans="1:7" customHeight="1">
       <x:c r="A10" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B10" s="4">
         <x:v>2843</x:v>
@@ -7218,7 +7220,7 @@
     </x:row>
     <x:row r="11" spans="1:7" customHeight="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>3133</x:v>
@@ -7241,7 +7243,7 @@
     </x:row>
     <x:row r="12" spans="1:7" customHeight="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>3857</x:v>
@@ -7264,7 +7266,7 @@
     </x:row>
     <x:row r="13" spans="1:7" customHeight="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>5125</x:v>
@@ -7287,7 +7289,7 @@
     </x:row>
     <x:row r="14" spans="1:7" customHeight="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>7528</x:v>
@@ -7310,7 +7312,7 @@
     </x:row>
     <x:row r="15" spans="1:7" customHeight="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>11994</x:v>
@@ -7333,7 +7335,7 @@
     </x:row>
     <x:row r="16" spans="1:7" customHeight="1">
       <x:c r="A16" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>19883</x:v>
@@ -7356,7 +7358,7 @@
     </x:row>
     <x:row r="17" spans="1:7" customHeight="1">
       <x:c r="A17" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>37751</x:v>
@@ -7379,7 +7381,7 @@
     </x:row>
     <x:row r="18" spans="1:7" customHeight="1">
       <x:c r="A18" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>85677</x:v>
@@ -7402,7 +7404,7 @@
     </x:row>
     <x:row r="19" spans="1:7" customHeight="1">
       <x:c r="A19" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>206878</x:v>
@@ -7454,10 +7456,10 @@
       <x:c r="D38" s="3"/>
     </x:row>
     <x:row r="39" spans="2:5">
-      <x:c r="B39" s="8"/>
-      <x:c r="C39" s="8"/>
-      <x:c r="D39" s="9"/>
-      <x:c r="E39" s="9"/>
+      <x:c r="B39" s="10"/>
+      <x:c r="C39" s="10"/>
+      <x:c r="D39" s="11"/>
+      <x:c r="E39" s="11"/>
     </x:row>
     <x:row r="40" spans="2:5">
       <x:c r="B40" s="2"/>
@@ -7516,59 +7518,59 @@
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B48" s="3"/>
       <x:c r="D48" s="3"/>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7604,40 +7606,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B1" s="9"/>
-      <x:c r="C1" s="9"/>
-      <x:c r="D1" s="9"/>
-      <x:c r="E1" s="9"/>
+      <x:c r="A1" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B1" s="11"/>
+      <x:c r="C1" s="11"/>
+      <x:c r="D1" s="11"/>
+      <x:c r="E1" s="11"/>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="9"/>
-      <x:c r="B2" s="9"/>
-      <x:c r="C2" s="9"/>
-      <x:c r="D2" s="9"/>
-      <x:c r="E2" s="9"/>
+      <x:c r="A2" s="11"/>
+      <x:c r="B2" s="11"/>
+      <x:c r="C2" s="11"/>
+      <x:c r="D2" s="11"/>
+      <x:c r="E2" s="11"/>
     </x:row>
     <x:row r="3" spans="2:5">
-      <x:c r="B3" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="10" t="s">
+      <x:c r="B3" s="12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C3" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="12" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="12" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D3" s="10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E3" s="10" t="s">
-        <x:v>30</x:v>
-      </x:c>
     </x:row>
     <x:row r="4" spans="2:5">
-      <x:c r="B4" s="10"/>
-      <x:c r="C4" s="10"/>
-      <x:c r="D4" s="10"/>
-      <x:c r="E4" s="10"/>
+      <x:c r="B4" s="12"/>
+      <x:c r="C4" s="12"/>
+      <x:c r="D4" s="12"/>
+      <x:c r="E4" s="12"/>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="1">
@@ -7743,7 +7745,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>7445</x:v>
@@ -7760,7 +7762,7 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>2307</x:v>
@@ -7777,7 +7779,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>3334</x:v>
@@ -7794,7 +7796,7 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>5643</x:v>
@@ -7811,7 +7813,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>8649</x:v>
@@ -7828,7 +7830,7 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>7925</x:v>
@@ -7845,7 +7847,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>19881</x:v>
@@ -7862,7 +7864,7 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>26627</x:v>
@@ -7879,7 +7881,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>40525</x:v>
@@ -7896,7 +7898,7 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B20" s="4">
         <x:v>74741</x:v>
@@ -7913,7 +7915,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B21" s="4">
         <x:v>150490</x:v>
@@ -7929,32 +7931,32 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5" ht="24.949999999999999" customHeight="1">
-      <x:c r="A25" s="11" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B25" s="9"/>
-      <x:c r="C25" s="9"/>
+      <x:c r="A25" s="13" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B25" s="11"/>
+      <x:c r="C25" s="11"/>
       <x:c r="D25" s="2"/>
       <x:c r="E25" s="2"/>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="A26" s="9"/>
-      <x:c r="B26" s="9"/>
-      <x:c r="C26" s="9"/>
+      <x:c r="A26" s="11"/>
+      <x:c r="B26" s="11"/>
+      <x:c r="C26" s="11"/>
       <x:c r="D26" s="2"/>
       <x:c r="E26" s="2"/>
     </x:row>
     <x:row r="27" spans="2:3">
-      <x:c r="B27" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C27" s="10" t="s">
-        <x:v>31</x:v>
+      <x:c r="B27" s="12" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C27" s="12" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:3">
-      <x:c r="B28" s="10"/>
-      <x:c r="C28" s="10"/>
+      <x:c r="B28" s="12"/>
+      <x:c r="C28" s="12"/>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="1">
@@ -8024,7 +8026,7 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>1704662</x:v>
@@ -8035,7 +8037,7 @@
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>888145</x:v>
@@ -8046,7 +8048,7 @@
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>501401</x:v>
@@ -8057,7 +8059,7 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>332799</x:v>
@@ -8068,7 +8070,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>234809</x:v>
@@ -8079,7 +8081,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>185326</x:v>
@@ -8090,7 +8092,7 @@
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>161905</x:v>
@@ -8101,7 +8103,7 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>150163</x:v>
@@ -8112,7 +8114,7 @@
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>145611</x:v>
@@ -8123,7 +8125,7 @@
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>148653</x:v>
@@ -8134,7 +8136,7 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>167357</x:v>
@@ -8144,44 +8146,44 @@
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7" ht="24.949999999999999" customHeight="1">
-      <x:c r="A48" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B48" s="7"/>
-      <x:c r="C48" s="7"/>
-      <x:c r="D48" s="7"/>
-      <x:c r="E48" s="7"/>
+      <x:c r="A48" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B48" s="9"/>
+      <x:c r="C48" s="9"/>
+      <x:c r="D48" s="9"/>
+      <x:c r="E48" s="9"/>
       <x:c r="F48" s="6"/>
       <x:c r="G48" s="6"/>
     </x:row>
     <x:row r="49" spans="1:7" ht="24.949999999999999">
-      <x:c r="A49" s="7"/>
-      <x:c r="B49" s="7"/>
-      <x:c r="C49" s="7"/>
-      <x:c r="D49" s="7"/>
-      <x:c r="E49" s="7"/>
+      <x:c r="A49" s="9"/>
+      <x:c r="B49" s="9"/>
+      <x:c r="C49" s="9"/>
+      <x:c r="D49" s="9"/>
+      <x:c r="E49" s="9"/>
       <x:c r="F49" s="6"/>
       <x:c r="G49" s="6"/>
     </x:row>
     <x:row r="50" spans="2:5">
-      <x:c r="B50" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C50" s="10" t="s">
+      <x:c r="B50" s="12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C50" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D50" s="12" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E50" s="12" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D50" s="10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E50" s="10" t="s">
-        <x:v>30</x:v>
-      </x:c>
     </x:row>
     <x:row r="51" spans="2:5">
-      <x:c r="B51" s="10"/>
-      <x:c r="C51" s="10"/>
-      <x:c r="D51" s="10"/>
-      <x:c r="E51" s="10"/>
+      <x:c r="B51" s="12"/>
+      <x:c r="C51" s="12"/>
+      <x:c r="D51" s="12"/>
+      <x:c r="E51" s="12"/>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="1">
@@ -8287,7 +8289,7 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B58" s="4">
         <x:v>2330</x:v>
@@ -8304,7 +8306,7 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B59" s="4">
         <x:v>3582</x:v>
@@ -8321,7 +8323,7 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B60" s="4">
         <x:v>3213</x:v>
@@ -8338,7 +8340,7 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B61" s="4">
         <x:v>3588</x:v>
@@ -8355,7 +8357,7 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B62" s="5">
         <x:v>12283</x:v>
@@ -8372,7 +8374,7 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B63" s="4">
         <x:v>7954</x:v>
@@ -8389,7 +8391,7 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B64" s="4">
         <x:v>11599</x:v>
@@ -8406,7 +8408,7 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B65" s="4">
         <x:v>20553</x:v>
@@ -8423,7 +8425,7 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B66" s="4">
         <x:v>38486</x:v>
@@ -8440,7 +8442,7 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B67" s="4">
         <x:v>75167</x:v>
@@ -8457,7 +8459,7 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B68" s="4">
         <x:v>161317</x:v>
@@ -8473,32 +8475,32 @@
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5" ht="24.949999999999999" customHeight="1">
-      <x:c r="A73" s="11" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B73" s="7"/>
-      <x:c r="C73" s="7"/>
+      <x:c r="A73" s="13" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B73" s="9"/>
+      <x:c r="C73" s="9"/>
       <x:c r="D73" s="6"/>
       <x:c r="E73" s="6"/>
     </x:row>
     <x:row r="74" spans="1:5" ht="24.949999999999999">
-      <x:c r="A74" s="7"/>
-      <x:c r="B74" s="7"/>
-      <x:c r="C74" s="7"/>
+      <x:c r="A74" s="9"/>
+      <x:c r="B74" s="9"/>
+      <x:c r="C74" s="9"/>
       <x:c r="D74" s="6"/>
       <x:c r="E74" s="6"/>
     </x:row>
     <x:row r="75" spans="2:3">
-      <x:c r="B75" s="10" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C75" s="10" t="s">
-        <x:v>31</x:v>
+      <x:c r="B75" s="12" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C75" s="12" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:3">
-      <x:c r="B76" s="10"/>
-      <x:c r="C76" s="10"/>
+      <x:c r="B76" s="12"/>
+      <x:c r="C76" s="12"/>
     </x:row>
     <x:row r="77" spans="1:3">
       <x:c r="A77" s="1">
@@ -8568,7 +8570,7 @@
     </x:row>
     <x:row r="83" spans="1:3">
       <x:c r="A83" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>1708597</x:v>
@@ -8579,7 +8581,7 @@
     </x:row>
     <x:row r="84" spans="1:3">
       <x:c r="A84" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>889942</x:v>
@@ -8590,7 +8592,7 @@
     </x:row>
     <x:row r="85" spans="1:3">
       <x:c r="A85" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>506309</x:v>
@@ -8601,7 +8603,7 @@
     </x:row>
     <x:row r="86" spans="1:3">
       <x:c r="A86" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>344510</x:v>
@@ -8612,7 +8614,7 @@
     </x:row>
     <x:row r="87" spans="1:3">
       <x:c r="A87" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>242647</x:v>
@@ -8623,7 +8625,7 @@
     </x:row>
     <x:row r="88" spans="1:3">
       <x:c r="A88" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>185274</x:v>
@@ -8634,7 +8636,7 @@
     </x:row>
     <x:row r="89" spans="1:3">
       <x:c r="A89" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>158391</x:v>
@@ -8645,7 +8647,7 @@
     </x:row>
     <x:row r="90" spans="1:3">
       <x:c r="A90" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>149039</x:v>
@@ -8656,7 +8658,7 @@
     </x:row>
     <x:row r="91" spans="1:3">
       <x:c r="A91" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>153874</x:v>
@@ -8667,7 +8669,7 @@
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>154735</x:v>
@@ -8678,7 +8680,7 @@
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>169481</x:v>
@@ -8733,8 +8735,8 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:H58"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H36" activeCellId="0" sqref="H36:H36"/>
+    <x:sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E33" activeCellId="0" sqref="E33:E33"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -8744,22 +8746,22 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="7" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C1" s="8"/>
-      <x:c r="D1" s="8"/>
-      <x:c r="E1" s="8"/>
-      <x:c r="F1" s="8"/>
-      <x:c r="G1" s="8"/>
+      <x:c r="B1" s="9" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C1" s="10"/>
+      <x:c r="D1" s="10"/>
+      <x:c r="E1" s="10"/>
+      <x:c r="F1" s="10"/>
+      <x:c r="G1" s="10"/>
     </x:row>
     <x:row r="2" spans="2:7">
-      <x:c r="B2" s="8"/>
-      <x:c r="C2" s="8"/>
-      <x:c r="D2" s="8"/>
-      <x:c r="E2" s="8"/>
-      <x:c r="F2" s="8"/>
-      <x:c r="G2" s="8"/>
+      <x:c r="B2" s="10"/>
+      <x:c r="C2" s="10"/>
+      <x:c r="D2" s="10"/>
+      <x:c r="E2" s="10"/>
+      <x:c r="F2" s="10"/>
+      <x:c r="G2" s="10"/>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1"/>
@@ -8770,16 +8772,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -8922,7 +8924,7 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="1">
         <x:v>11900000</x:v>
@@ -8943,7 +8945,7 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B11" s="1">
         <x:v>12100000</x:v>
@@ -8994,7 +8996,7 @@
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B14" s="1">
         <x:v>12550000</x:v>
@@ -9009,7 +9011,7 @@
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B15">
         <x:v>12500000</x:v>
@@ -9020,7 +9022,7 @@
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B16">
         <x:v>12000000</x:v>
@@ -9031,7 +9033,7 @@
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B17">
         <x:v>11200000</x:v>
@@ -9042,29 +9044,29 @@
     </x:row>
     <x:row r="18" spans="1:2">
       <x:c r="A18" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B18">
         <x:v>11500000</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:7">
-      <x:c r="B21" s="7" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C21" s="8"/>
-      <x:c r="D21" s="8"/>
-      <x:c r="E21" s="8"/>
-      <x:c r="F21" s="8"/>
-      <x:c r="G21" s="8"/>
+      <x:c r="B21" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C21" s="10"/>
+      <x:c r="D21" s="10"/>
+      <x:c r="E21" s="10"/>
+      <x:c r="F21" s="10"/>
+      <x:c r="G21" s="10"/>
     </x:row>
     <x:row r="22" spans="2:7">
-      <x:c r="B22" s="8"/>
-      <x:c r="C22" s="8"/>
-      <x:c r="D22" s="8"/>
-      <x:c r="E22" s="8"/>
-      <x:c r="F22" s="8"/>
-      <x:c r="G22" s="8"/>
+      <x:c r="B22" s="10"/>
+      <x:c r="C22" s="10"/>
+      <x:c r="D22" s="10"/>
+      <x:c r="E22" s="10"/>
+      <x:c r="F22" s="10"/>
+      <x:c r="G22" s="10"/>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="1"/>
@@ -9075,43 +9077,43 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E23" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="1">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B24" s="12">
+      <x:c r="B24" s="7">
         <x:f>B4/13900000</x:f>
         <x:v>0.091582733812949638</x:v>
       </x:c>
-      <x:c r="C24" s="13">
+      <x:c r="C24" s="8">
         <x:f>C4/MAX($C$4:$C$13)</x:f>
         <x:v>0.1494661921708185</x:v>
       </x:c>
-      <x:c r="D24" s="13">
+      <x:c r="D24" s="8">
         <x:f>D4/MAX($D$4:$D$13)</x:f>
         <x:v>0.26909492273730684</x:v>
       </x:c>
-      <x:c r="E24" s="13">
+      <x:c r="E24" s="8">
         <x:f>E4/MAX($E$4:$E$13)</x:f>
         <x:v>0.47489361702127658</x:v>
       </x:c>
-      <x:c r="F24" s="13">
+      <x:c r="F24" s="8">
         <x:f>F4/MAX($F$4:$F$13)</x:f>
         <x:v>0.67209690893901419</x:v>
       </x:c>
-      <x:c r="G24" s="13">
+      <x:c r="G24" s="8">
         <x:f>G4/MAX($G$4:$G$13)</x:f>
         <x:v>0.86257668711656443</x:v>
       </x:c>
@@ -9120,27 +9122,27 @@
       <x:c r="A25" s="1">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B25" s="12">
+      <x:c r="B25" s="7">
         <x:f t="shared" ref="B25:B38" si="0">B5/13900000</x:f>
         <x:v>0.16935251798561152</x:v>
       </x:c>
-      <x:c r="C25" s="13">
+      <x:c r="C25" s="8">
         <x:f t="shared" ref="C25:C38" si="1">C5/MAX($C$4:$C$13)</x:f>
         <x:v>0.27046263345195731</x:v>
       </x:c>
-      <x:c r="D25" s="13">
+      <x:c r="D25" s="8">
         <x:f t="shared" ref="D25:D34" si="2">D5/MAX($D$4:$D$13)</x:f>
         <x:v>0.46357615894039733</x:v>
       </x:c>
-      <x:c r="E25" s="13">
+      <x:c r="E25" s="8">
         <x:f t="shared" ref="E25:E34" si="3">E5/MAX($E$4:$E$13)</x:f>
         <x:v>0.65957446808510634</x:v>
       </x:c>
-      <x:c r="F25" s="13">
+      <x:c r="F25" s="8">
         <x:f t="shared" ref="F25:F34" si="4">F5/MAX($F$4:$F$13)</x:f>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G25" s="13">
+      <x:c r="G25" s="8">
         <x:f t="shared" ref="G25:G34" si="5">G5/MAX($G$4:$G$13)</x:f>
         <x:v>0.99975460122699389</x:v>
       </x:c>
@@ -9149,27 +9151,27 @@
       <x:c r="A26" s="1">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B26" s="12">
+      <x:c r="B26" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.29784172661870506</x:v>
       </x:c>
-      <x:c r="C26" s="13">
+      <x:c r="C26" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.42941874258600238</x:v>
       </x:c>
-      <x:c r="D26" s="13">
+      <x:c r="D26" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0.64900662251655628</x:v>
       </x:c>
-      <x:c r="E26" s="13">
+      <x:c r="E26" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0.99148936170212765</x:v>
       </x:c>
-      <x:c r="F26" s="13">
+      <x:c r="F26" s="8">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G26" s="13">
+      <x:c r="G26" s="8">
         <x:f t="shared" si="5"/>
         <x:v>0.99975460122699389</x:v>
       </x:c>
@@ -9178,27 +9180,27 @@
       <x:c r="A27" s="1">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B27" s="12">
+      <x:c r="B27" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.46115107913669062</x:v>
       </x:c>
-      <x:c r="C27" s="13">
+      <x:c r="C27" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.60142348754448394</x:v>
       </x:c>
-      <x:c r="D27" s="13">
+      <x:c r="D27" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0.96026490066225167</x:v>
       </x:c>
-      <x:c r="E27" s="13">
+      <x:c r="E27" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F27" s="13">
+      <x:c r="F27" s="8">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G27" s="13">
+      <x:c r="G27" s="8">
         <x:f t="shared" si="5"/>
         <x:v>0.99987730061349689</x:v>
       </x:c>
@@ -9207,27 +9209,27 @@
       <x:c r="A28" s="1">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B28" s="12">
+      <x:c r="B28" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.59136690647482015</x:v>
       </x:c>
-      <x:c r="C28" s="13">
+      <x:c r="C28" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.83036773428232502</x:v>
       </x:c>
-      <x:c r="D28" s="13">
+      <x:c r="D28" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0.99977924944812357</x:v>
       </x:c>
-      <x:c r="E28" s="13">
+      <x:c r="E28" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F28" s="13">
+      <x:c r="F28" s="8">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G28" s="13">
+      <x:c r="G28" s="8">
         <x:f t="shared" si="5"/>
         <x:v>1</x:v>
       </x:c>
@@ -9236,85 +9238,85 @@
       <x:c r="A29" s="1">
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B29" s="12">
+      <x:c r="B29" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.76258992805755399</x:v>
       </x:c>
-      <x:c r="C29" s="13">
+      <x:c r="C29" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.97271648873072358</x:v>
       </x:c>
-      <x:c r="D29" s="13">
+      <x:c r="D29" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0.99977924944812357</x:v>
       </x:c>
-      <x:c r="E29" s="13">
+      <x:c r="E29" s="8">
         <x:f t="shared" si="3"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F29" s="13">
+      <x:c r="F29" s="8">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G29" s="13">
+      <x:c r="G29" s="8">
         <x:f t="shared" si="5"/>
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B30" s="12">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.85611510791366907</x:v>
       </x:c>
-      <x:c r="C30" s="13">
+      <x:c r="C30" s="8">
         <x:f t="shared" si="1"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D30" s="13">
+      <x:c r="D30" s="8">
         <x:f t="shared" si="2"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E30" s="13">
+      <x:c r="E30" s="8">
         <x:f t="shared" si="3"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F30" s="13">
+      <x:c r="F30" s="8">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G30" s="13">
+      <x:c r="G30" s="8">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B31" s="12">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B31" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.87050359712230219</x:v>
       </x:c>
-      <x:c r="C31" s="13">
+      <x:c r="C31" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.98102016607354681</x:v>
       </x:c>
-      <x:c r="D31" s="13">
+      <x:c r="D31" s="8">
         <x:f t="shared" si="2"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E31" s="13">
+      <x:c r="E31" s="8">
         <x:f t="shared" si="3"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F31" s="13">
+      <x:c r="F31" s="8">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G31" s="13">
+      <x:c r="G31" s="8">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
@@ -9323,27 +9325,27 @@
       <x:c r="A32" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B32" s="12">
+      <x:c r="B32" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.87769784172661869</x:v>
       </x:c>
-      <x:c r="C32" s="13">
+      <x:c r="C32" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.97864768683274017</x:v>
       </x:c>
-      <x:c r="D32" s="13">
+      <x:c r="D32" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0.96467991169977929</x:v>
       </x:c>
-      <x:c r="E32" s="13">
+      <x:c r="E32" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F32" s="13">
+      <x:c r="F32" s="8">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G32" s="13">
+      <x:c r="G32" s="8">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
@@ -9352,148 +9354,148 @@
       <x:c r="A33" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B33" s="12">
+      <x:c r="B33" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.8848920863309353</x:v>
       </x:c>
-      <x:c r="C33" s="13">
+      <x:c r="C33" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.94187425860023721</x:v>
       </x:c>
-      <x:c r="D33" s="13">
+      <x:c r="D33" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E33" s="13">
+      <x:c r="E33" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F33" s="13">
+      <x:c r="F33" s="8">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G33" s="13">
+      <x:c r="G33" s="8">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B34" s="12">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B34" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.90287769784172667</x:v>
       </x:c>
-      <x:c r="C34" s="13">
+      <x:c r="C34" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.88967971530249113</x:v>
       </x:c>
-      <x:c r="D34" s="13">
+      <x:c r="D34" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E34" s="13">
+      <x:c r="E34" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F34" s="13">
+      <x:c r="F34" s="8">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G34" s="13">
+      <x:c r="G34" s="8">
         <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B35" s="12">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B35" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.89928057553956831</x:v>
       </x:c>
-      <x:c r="C35" s="13">
+      <x:c r="C35" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.8422301304863582</x:v>
       </x:c>
-      <x:c r="D35" s="13"/>
-      <x:c r="E35" s="13"/>
-      <x:c r="F35" s="13"/>
-      <x:c r="G35" s="13"/>
+      <x:c r="D35" s="8"/>
+      <x:c r="E35" s="8"/>
+      <x:c r="F35" s="8"/>
+      <x:c r="G35" s="8"/>
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B36" s="12">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B36" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.86330935251798557</x:v>
       </x:c>
-      <x:c r="C36" s="13">
+      <x:c r="C36" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.79478054567022538</x:v>
       </x:c>
-      <x:c r="D36" s="13"/>
-      <x:c r="E36" s="13"/>
-      <x:c r="F36" s="13"/>
-      <x:c r="G36" s="13"/>
+      <x:c r="D36" s="8"/>
+      <x:c r="E36" s="8"/>
+      <x:c r="F36" s="8"/>
+      <x:c r="G36" s="8"/>
       <x:c r="H36" t="s">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="12">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B37" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.80575539568345322</x:v>
       </x:c>
-      <x:c r="C37" s="13">
+      <x:c r="C37" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0.94187425860023721</x:v>
       </x:c>
-      <x:c r="D37" s="13"/>
-      <x:c r="E37" s="13"/>
-      <x:c r="F37" s="13"/>
-      <x:c r="G37" s="13"/>
+      <x:c r="D37" s="8"/>
+      <x:c r="E37" s="8"/>
+      <x:c r="F37" s="8"/>
+      <x:c r="G37" s="8"/>
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B38" s="12">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B38" s="7">
         <x:f t="shared" si="0"/>
         <x:v>0.82733812949640284</x:v>
       </x:c>
-      <x:c r="C38" s="13">
+      <x:c r="C38" s="8">
         <x:f t="shared" si="1"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D38" s="13"/>
-      <x:c r="E38" s="13"/>
-      <x:c r="F38" s="13"/>
-      <x:c r="G38" s="13"/>
+      <x:c r="D38" s="8"/>
+      <x:c r="E38" s="8"/>
+      <x:c r="F38" s="8"/>
+      <x:c r="G38" s="8"/>
     </x:row>
     <x:row r="41" spans="2:7">
-      <x:c r="B41" s="7" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C41" s="8"/>
-      <x:c r="D41" s="8"/>
-      <x:c r="E41" s="8"/>
-      <x:c r="F41" s="8"/>
-      <x:c r="G41" s="8"/>
+      <x:c r="B41" s="9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C41" s="10"/>
+      <x:c r="D41" s="10"/>
+      <x:c r="E41" s="10"/>
+      <x:c r="F41" s="10"/>
+      <x:c r="G41" s="10"/>
     </x:row>
     <x:row r="42" spans="2:7">
-      <x:c r="B42" s="8"/>
-      <x:c r="C42" s="8"/>
-      <x:c r="D42" s="8"/>
-      <x:c r="E42" s="8"/>
-      <x:c r="F42" s="8"/>
-      <x:c r="G42" s="8"/>
+      <x:c r="B42" s="10"/>
+      <x:c r="C42" s="10"/>
+      <x:c r="D42" s="10"/>
+      <x:c r="E42" s="10"/>
+      <x:c r="F42" s="10"/>
+      <x:c r="G42" s="10"/>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="1"/>
@@ -9504,16 +9506,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E43" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
@@ -9656,7 +9658,7 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B50" s="1">
         <x:v>5830</x:v>
@@ -9677,7 +9679,7 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B51" s="1">
         <x:v>2960</x:v>
@@ -9728,7 +9730,7 @@
     </x:row>
     <x:row r="54" spans="1:7">
       <x:c r="A54" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B54" s="1">
         <x:v>384</x:v>
@@ -9743,7 +9745,7 @@
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B55">
         <x:v>191</x:v>
@@ -9754,7 +9756,7 @@
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B56">
         <x:v>92</x:v>
@@ -9765,7 +9767,7 @@
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B57">
         <x:v>44</x:v>
@@ -9776,7 +9778,7 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B58">
         <x:v>22</x:v>
@@ -9788,7 +9790,7 @@
     <x:mergeCell ref="B21:G22"/>
     <x:mergeCell ref="B41:G42"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -9804,8 +9806,624 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet10"/>
+  <x:dimension ref="A1:H54"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D42" activeCellId="0" sqref="D42:D42"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <x:col min="2" max="3" width="32.41015625" customWidth="1"/>
+    <x:col min="4" max="7" width="22.4453125" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="2:7" ht="24.949999999999999" customHeight="1">
+      <x:c r="B1" s="9" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C1" s="11"/>
+      <x:c r="D1" s="2"/>
+      <x:c r="E1" s="2"/>
+      <x:c r="F1" s="2"/>
+      <x:c r="G1" s="2"/>
+    </x:row>
+    <x:row r="2" spans="2:7">
+      <x:c r="B2" s="11"/>
+      <x:c r="C2" s="11"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
+      <x:c r="F2" s="2"/>
+      <x:c r="G2" s="2"/>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="1"/>
+      <x:c r="E3" s="1"/>
+      <x:c r="F3" s="1"/>
+      <x:c r="G3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="1">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="C4" s="1">
+        <x:v>8440000</x:v>
+      </x:c>
+      <x:c r="D4" s="1"/>
+      <x:c r="E4" s="1"/>
+      <x:c r="F4" s="1"/>
+      <x:c r="G4" s="1"/>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B5" s="1">
+        <x:v>12100000</x:v>
+      </x:c>
+      <x:c r="C5" s="1">
+        <x:v>8310000</x:v>
+      </x:c>
+      <x:c r="D5" s="1"/>
+      <x:c r="E5" s="1"/>
+      <x:c r="F5" s="1"/>
+      <x:c r="G5" s="1"/>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="1">
+        <x:v>12270000</x:v>
+      </x:c>
+      <x:c r="C6" s="1">
+        <x:v>8300000</x:v>
+      </x:c>
+      <x:c r="D6" s="1"/>
+      <x:c r="E6" s="1"/>
+      <x:c r="F6" s="1"/>
+      <x:c r="G6" s="1"/>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="1">
+        <x:v>12330000</x:v>
+      </x:c>
+      <x:c r="C7" s="1">
+        <x:v>7940000</x:v>
+      </x:c>
+      <x:c r="D7" s="1"/>
+      <x:c r="E7" s="1"/>
+      <x:c r="F7" s="1"/>
+      <x:c r="G7" s="1"/>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B8" s="1">
+        <x:v>12600000</x:v>
+      </x:c>
+      <x:c r="C8" s="1">
+        <x:v>7500000</x:v>
+      </x:c>
+      <x:c r="D8" s="1"/>
+      <x:c r="E8" s="1"/>
+      <x:c r="F8" s="1"/>
+      <x:c r="G8" s="1"/>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B9">
+        <x:v>12500000</x:v>
+      </x:c>
+      <x:c r="C9">
+        <x:v>7100000</x:v>
+      </x:c>
+      <x:c r="D9" s="1"/>
+      <x:c r="E9" s="1"/>
+      <x:c r="F9" s="1"/>
+      <x:c r="G9" s="1"/>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B10">
+        <x:v>12000000</x:v>
+      </x:c>
+      <x:c r="C10">
+        <x:v>6700000</x:v>
+      </x:c>
+      <x:c r="D10" s="1"/>
+      <x:c r="E10" s="1"/>
+      <x:c r="F10" s="1"/>
+      <x:c r="G10" s="1"/>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B11">
+        <x:v>11200000</x:v>
+      </x:c>
+      <x:c r="C11">
+        <x:v>7940000</x:v>
+      </x:c>
+      <x:c r="D11" s="1"/>
+      <x:c r="E11" s="1"/>
+      <x:c r="F11" s="1"/>
+      <x:c r="G11" s="1"/>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B12">
+        <x:v>11500000</x:v>
+      </x:c>
+      <x:c r="D12" s="1"/>
+      <x:c r="E12" s="1"/>
+      <x:c r="F12" s="1"/>
+      <x:c r="G12" s="1"/>
+    </x:row>
+    <x:row r="13" spans="4:7">
+      <x:c r="D13" s="1"/>
+      <x:c r="E13" s="1"/>
+      <x:c r="F13" s="1"/>
+      <x:c r="G13" s="1"/>
+    </x:row>
+    <x:row r="14" spans="4:7">
+      <x:c r="D14" s="1"/>
+      <x:c r="E14" s="1"/>
+      <x:c r="F14" s="1"/>
+      <x:c r="G14" s="1"/>
+    </x:row>
+    <x:row r="15" spans="2:3">
+      <x:c r="B15" s="9" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C15" s="11"/>
+    </x:row>
+    <x:row r="16" spans="2:3">
+      <x:c r="B16" s="11"/>
+      <x:c r="C16" s="11"/>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="1"/>
+      <x:c r="B17" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="7">
+        <x:f t="shared" ref="B18:B26" si="0">B4/13900000</x:f>
+        <x:v>0.86330935251798557</x:v>
+      </x:c>
+      <x:c r="C18" s="8">
+        <x:f t="shared" ref="C18:C26" si="1">C4/MAX($C$4:$C$13)</x:f>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B19" s="7">
+        <x:f t="shared" si="0"/>
+        <x:v>0.87050359712230219</x:v>
+      </x:c>
+      <x:c r="C19" s="8">
+        <x:f t="shared" si="1"/>
+        <x:v>0.9845971563981043</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B20" s="7">
+        <x:f t="shared" si="0"/>
+        <x:v>0.88273381294964026</x:v>
+      </x:c>
+      <x:c r="C20" s="8">
+        <x:f t="shared" si="1"/>
+        <x:v>0.98341232227488151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7" ht="24.949999999999999" customHeight="1">
+      <x:c r="A21" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B21" s="7">
+        <x:f t="shared" si="0"/>
+        <x:v>0.88705035971223023</x:v>
+      </x:c>
+      <x:c r="C21" s="8">
+        <x:f t="shared" si="1"/>
+        <x:v>0.94075829383886256</x:v>
+      </x:c>
+      <x:c r="D21" s="2"/>
+      <x:c r="E21" s="2"/>
+      <x:c r="F21" s="2"/>
+      <x:c r="G21" s="2"/>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B22" s="7">
+        <x:f t="shared" si="0"/>
+        <x:v>0.90647482014388492</x:v>
+      </x:c>
+      <x:c r="C22" s="8">
+        <x:f t="shared" si="1"/>
+        <x:v>0.88862559241706163</x:v>
+      </x:c>
+      <x:c r="D22" s="2"/>
+      <x:c r="E22" s="2"/>
+      <x:c r="F22" s="2"/>
+      <x:c r="G22" s="2"/>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B23" s="7">
+        <x:f t="shared" si="0"/>
+        <x:v>0.89928057553956831</x:v>
+      </x:c>
+      <x:c r="C23" s="8">
+        <x:f t="shared" si="1"/>
+        <x:v>0.84123222748815163</x:v>
+      </x:c>
+      <x:c r="D23" s="1"/>
+      <x:c r="E23" s="1"/>
+      <x:c r="F23" s="1"/>
+      <x:c r="G23" s="1"/>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B24" s="7">
+        <x:f t="shared" si="0"/>
+        <x:v>0.86330935251798557</x:v>
+      </x:c>
+      <x:c r="C24" s="8">
+        <x:f t="shared" si="1"/>
+        <x:v>0.79383886255924174</x:v>
+      </x:c>
+      <x:c r="D24" s="8"/>
+      <x:c r="E24" s="8"/>
+      <x:c r="F24" s="8"/>
+      <x:c r="G24" s="8"/>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B25" s="7">
+        <x:f t="shared" si="0"/>
+        <x:v>0.80575539568345322</x:v>
+      </x:c>
+      <x:c r="C25" s="8">
+        <x:f t="shared" si="1"/>
+        <x:v>0.94075829383886256</x:v>
+      </x:c>
+      <x:c r="D25" s="8"/>
+      <x:c r="E25" s="8"/>
+      <x:c r="F25" s="8"/>
+      <x:c r="G25" s="8"/>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="7">
+        <x:f t="shared" si="0"/>
+        <x:v>0.82733812949640284</x:v>
+      </x:c>
+      <x:c r="C26" s="8">
+        <x:f t="shared" si="1"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D26" s="8"/>
+      <x:c r="E26" s="8"/>
+      <x:c r="F26" s="8"/>
+      <x:c r="G26" s="8"/>
+    </x:row>
+    <x:row r="27" spans="4:7">
+      <x:c r="D27" s="8"/>
+      <x:c r="E27" s="8"/>
+      <x:c r="F27" s="8"/>
+      <x:c r="G27" s="8"/>
+    </x:row>
+    <x:row r="28" spans="4:7">
+      <x:c r="D28" s="8"/>
+      <x:c r="E28" s="8"/>
+      <x:c r="F28" s="8"/>
+      <x:c r="G28" s="8"/>
+    </x:row>
+    <x:row r="29" spans="2:7">
+      <x:c r="B29" s="9" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C29" s="11"/>
+      <x:c r="D29" s="8"/>
+      <x:c r="E29" s="8"/>
+      <x:c r="F29" s="8"/>
+      <x:c r="G29" s="8"/>
+    </x:row>
+    <x:row r="30" spans="2:7">
+      <x:c r="B30" s="11"/>
+      <x:c r="C30" s="11"/>
+      <x:c r="D30" s="8"/>
+      <x:c r="E30" s="8"/>
+      <x:c r="F30" s="8"/>
+      <x:c r="G30" s="8"/>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="1"/>
+      <x:c r="B31" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D31" s="8"/>
+      <x:c r="E31" s="8"/>
+      <x:c r="F31" s="8"/>
+      <x:c r="G31" s="8"/>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="A32" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="1">
+        <x:v>5848</x:v>
+      </x:c>
+      <x:c r="C32" s="1">
+        <x:v>4124</x:v>
+      </x:c>
+      <x:c r="D32" s="8"/>
+      <x:c r="E32" s="8"/>
+      <x:c r="F32" s="8"/>
+      <x:c r="G32" s="8"/>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="A33" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B33" s="1">
+        <x:v>2970</x:v>
+      </x:c>
+      <x:c r="C33" s="1">
+        <x:v>2030</x:v>
+      </x:c>
+      <x:c r="D33" s="8"/>
+      <x:c r="E33" s="8"/>
+      <x:c r="F33" s="8"/>
+      <x:c r="G33" s="8"/>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="A34" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B34" s="1">
+        <x:v>1497</x:v>
+      </x:c>
+      <x:c r="C34" s="1">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c r="D34" s="8"/>
+      <x:c r="E34" s="8"/>
+      <x:c r="F34" s="8"/>
+      <x:c r="G34" s="8"/>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="A35" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B35" s="1">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="C35" s="1">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="D35" s="8"/>
+      <x:c r="E35" s="8"/>
+      <x:c r="F35" s="8"/>
+      <x:c r="G35" s="8"/>
+    </x:row>
+    <x:row r="36" spans="1:8">
+      <x:c r="A36" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B36" s="1">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="C36" s="1">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="D36" s="8"/>
+      <x:c r="E36" s="8"/>
+      <x:c r="F36" s="8"/>
+      <x:c r="G36" s="8"/>
+      <x:c r="H36" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B37">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C37">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D37" s="8"/>
+      <x:c r="E37" s="8"/>
+      <x:c r="F37" s="8"/>
+      <x:c r="G37" s="8"/>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B38">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C38">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D38" s="8"/>
+      <x:c r="E38" s="8"/>
+      <x:c r="F38" s="8"/>
+      <x:c r="G38" s="8"/>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B39">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C39">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B40">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="4:7" ht="24.949999999999999" customHeight="1">
+      <x:c r="D41" s="2"/>
+      <x:c r="E41" s="2"/>
+      <x:c r="F41" s="2"/>
+      <x:c r="G41" s="2"/>
+    </x:row>
+    <x:row r="42" spans="4:7">
+      <x:c r="D42" s="2"/>
+      <x:c r="E42" s="2"/>
+      <x:c r="F42" s="2"/>
+      <x:c r="G42" s="2"/>
+    </x:row>
+    <x:row r="43" spans="4:7">
+      <x:c r="D43" s="1"/>
+      <x:c r="E43" s="1"/>
+      <x:c r="F43" s="1"/>
+      <x:c r="G43" s="1"/>
+    </x:row>
+    <x:row r="44" spans="4:7">
+      <x:c r="D44" s="1"/>
+      <x:c r="E44" s="1"/>
+      <x:c r="F44" s="1"/>
+      <x:c r="G44" s="1"/>
+    </x:row>
+    <x:row r="45" spans="4:7">
+      <x:c r="D45" s="1"/>
+      <x:c r="E45" s="1"/>
+      <x:c r="F45" s="1"/>
+      <x:c r="G45" s="1"/>
+    </x:row>
+    <x:row r="46" spans="4:7">
+      <x:c r="D46" s="1"/>
+      <x:c r="E46" s="1"/>
+      <x:c r="F46" s="1"/>
+      <x:c r="G46" s="1"/>
+    </x:row>
+    <x:row r="47" spans="4:7">
+      <x:c r="D47" s="1"/>
+      <x:c r="E47" s="1"/>
+      <x:c r="F47" s="1"/>
+      <x:c r="G47" s="1"/>
+    </x:row>
+    <x:row r="48" spans="4:7">
+      <x:c r="D48" s="1"/>
+      <x:c r="E48" s="1"/>
+      <x:c r="F48" s="1"/>
+      <x:c r="G48" s="1"/>
+    </x:row>
+    <x:row r="49" spans="4:7">
+      <x:c r="D49" s="1"/>
+      <x:c r="E49" s="1"/>
+      <x:c r="F49" s="1"/>
+      <x:c r="G49" s="1"/>
+    </x:row>
+    <x:row r="50" spans="4:7">
+      <x:c r="D50" s="1"/>
+      <x:c r="E50" s="1"/>
+      <x:c r="F50" s="1"/>
+      <x:c r="G50" s="1"/>
+    </x:row>
+    <x:row r="51" spans="4:7">
+      <x:c r="D51" s="1"/>
+      <x:c r="E51" s="1"/>
+      <x:c r="F51" s="1"/>
+      <x:c r="G51" s="1"/>
+    </x:row>
+    <x:row r="52" spans="4:7">
+      <x:c r="D52" s="1"/>
+      <x:c r="E52" s="1"/>
+      <x:c r="F52" s="1"/>
+      <x:c r="G52" s="1"/>
+    </x:row>
+    <x:row r="53" spans="4:7">
+      <x:c r="D53" s="1"/>
+      <x:c r="E53" s="1"/>
+      <x:c r="F53" s="1"/>
+      <x:c r="G53" s="1"/>
+    </x:row>
+    <x:row r="54" spans="4:7">
+      <x:c r="D54" s="1"/>
+      <x:c r="E54" s="1"/>
+      <x:c r="F54" s="1"/>
+      <x:c r="G54" s="1"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="B1:C2"/>
+    <x:mergeCell ref="B15:C16"/>
+    <x:mergeCell ref="B29:C30"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/batch_size_test.xlsx
+++ b/batch_size_test.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8664" tabRatio="723" activeTab="6"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22776" windowHeight="8664" tabRatio="647"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="02.25 persistent loop" sheetId="1" r:id="rId4"/>
@@ -20,51 +20,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="39">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="48">
   <x:si>
-    <x:t>1024*2</x:t>
+    <x:t>packet size별 batch size에 따른 rx rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>256 (4.5Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1514 (0.8 Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ascending Order</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024 (1.2Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>512 (2.35Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cudaMemcpy 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128 (8.4Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 16</x:t>
   </x:si>
   <x:si>
     <x:t>packet size별 batch size에 따른 cudaMemcpy call 횟수</x:t>
   </x:si>
   <x:si>
-    <x:t>100times loop / random data</x:t>
+    <x:t>1024*2</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 8</x:t>
+    <x:t>1024*16</x:t>
   </x:si>
   <x:si>
-    <x:t>512 (2.35Mpps)</x:t>
+    <x:t>ㄴㄴㄴㄴ</x:t>
   </x:si>
   <x:si>
-    <x:t>Ascending Order</x:t>
+    <x:t>1024*8</x:t>
   </x:si>
   <x:si>
-    <x:t>256 (4.5Mpps)</x:t>
+    <x:t>64 * 32</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 16</x:t>
+    <x:t>1024*4</x:t>
   </x:si>
   <x:si>
-    <x:t>packet size별 batch size에 따른 rx rate</x:t>
+    <x:t>1024*32</x:t>
   </x:si>
   <x:si>
-    <x:t>1514 (0.8 Mpps)</x:t>
+    <x:t>64 * 64</x:t>
   </x:si>
   <x:si>
-    <x:t>128 (8.4Mpps)</x:t>
+    <x:t>1024*64</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 128</x:t>
+    <x:t>100times loop / random data</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 256</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*256</x:t>
   </x:si>
   <x:si>
     <x:t>once / normal data</x:t>
@@ -79,12 +127,6 @@
     <x:t>once / random data</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024</x:t>
-  </x:si>
-  <x:si>
     <x:t>same size loop / random data</x:t>
   </x:si>
   <x:si>
@@ -97,52 +139,40 @@
     <x:t>same size loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*512</x:t>
+    <x:t>1.116Mpps</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*128</x:t>
+    <x:t>1.260Mpps</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*8</x:t>
+    <x:t>0.804Mpps</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*4</x:t>
+    <x:t>1.273Mpps</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*16</x:t>
+    <x:t>0.703Mpps</x:t>
   </x:si>
   <x:si>
-    <x:t>ㄴㄴㄴㄴ</x:t>
+    <x:t>1.219Mpps</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*32</x:t>
+    <x:t>rx rate</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 32</x:t>
+    <x:t>64 (13.9Mpps)</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024 (1.2Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cudaMemcpy 횟수</x:t>
+    <x:t>Polling</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="164" formatCode="0&quot;.&quot;000&quot;Mpps&quot;"/>
+  </x:numFmts>
   <x:fonts count="10">
     <x:font>
       <x:name val="돋움"/>
@@ -286,19 +316,19 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="24">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="right" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
           <x:alignment horizontal="right" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -306,13 +336,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -347,9 +377,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -363,6 +390,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -389,6 +419,106 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="6">
     <x:cellStyle xfId="15" builtinId="5" iLevel="0"/>
@@ -404,6 +534,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -486,6 +617,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -520,6 +652,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -564,6 +697,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -607,6 +741,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -690,8 +825,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -702,7 +837,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
         </x:dxf>
@@ -712,8 +846,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -729,7 +863,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -744,8 +877,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -761,7 +894,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -812,6 +944,214 @@
   </mc:AlternateContent>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="0" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="0" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>Polling</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rx rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$K$3:$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.9Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$L$3:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.139784172661871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.231785714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.431555555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.822978723404255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.991666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="465864675"/>
+        <c:axId val="135537802"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="465864675"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="135537802"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="135537802"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="465864675"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1084,276 +1424,6 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>143796</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.26 memcpy test'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>once / random data</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'02.26 memcpy test'!$A$3:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64 * 32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64 * 64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>64 * 128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64 * 256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64 * 512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64 * 1024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64 * 1024 * 2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>64 * 1024 * 4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64 * 1024 * 8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64 * 1024 * 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64 * 1024 * 32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'02.26 memcpy test'!$B$3:$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>2158</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2498</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2568</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2797</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2722</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2843</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3133</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3857</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5125</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7528</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11994</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19883</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37751</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>85677</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>206878</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'02.26 memcpy test'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100times loop / random data</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'02.26 memcpy test'!$A$3:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1514</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64 * 32</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64 * 64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>64 * 128</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>64 * 256</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>64 * 512</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>64 * 1024</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>64 * 1024 * 2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>64 * 1024 * 4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>64 * 1024 * 8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64 * 1024 * 16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64 * 1024 * 32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'02.26 memcpy test'!$C$3:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1770</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1699</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1711</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1856</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1863</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1859</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1837</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1871</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2167</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3070</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4383</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6324</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10384</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19670</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36042</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>68111</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>144260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,7 +1533,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1488,11 +1558,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.26 memcpy test'!$F$1</c:f>
+              <c:f>'02.26 memcpy test'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>same size loop / random data</c:v>
+                  <c:v>once / random data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1559,60 +1629,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.26 memcpy test'!$F$3:$F$19</c:f>
+              <c:f>'02.26 memcpy test'!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>53082580</c:v>
+                  <c:v>2158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26495746</c:v>
+                  <c:v>3389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13349051</c:v>
+                  <c:v>2498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6723948</c:v>
+                  <c:v>3017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3405052</c:v>
+                  <c:v>2568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2371391</c:v>
+                  <c:v>2797</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1751795</c:v>
+                  <c:v>2722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>911955</c:v>
+                  <c:v>2843</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>516491</c:v>
+                  <c:v>3133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>358872</c:v>
+                  <c:v>3857</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>266584</c:v>
+                  <c:v>5125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>212426</c:v>
+                  <c:v>7528</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>176876</c:v>
+                  <c:v>11994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>203803</c:v>
+                  <c:v>19883</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>194096</c:v>
+                  <c:v>37751</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>177540</c:v>
+                  <c:v>85677</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>207715</c:v>
+                  <c:v>206878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,11 +1693,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.26 memcpy test'!$G$1</c:f>
+              <c:f>'02.26 memcpy test'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>same size loop / normal data</c:v>
+                  <c:v>100times loop / random data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1694,60 +1764,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.26 memcpy test'!$G$3:$G$19</c:f>
+              <c:f>'02.26 memcpy test'!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>53210255</c:v>
+                  <c:v>1770</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26563529</c:v>
+                  <c:v>1699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13317576</c:v>
+                  <c:v>1711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6701410</c:v>
+                  <c:v>1856</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3396446</c:v>
+                  <c:v>1863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2387563</c:v>
+                  <c:v>1859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1750444</c:v>
+                  <c:v>1837</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>899962</c:v>
+                  <c:v>1871</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>517749</c:v>
+                  <c:v>2167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>364816</c:v>
+                  <c:v>3070</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>272869</c:v>
+                  <c:v>4383</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>212842</c:v>
+                  <c:v>6324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>181297</c:v>
+                  <c:v>10384</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>200157</c:v>
+                  <c:v>19670</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>189911</c:v>
+                  <c:v>36042</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>165535</c:v>
+                  <c:v>68111</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>149631</c:v>
+                  <c:v>144260</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1847,7 +1917,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2550,7 +2620,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2971,7 +3041,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3674,7 +3744,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4095,7 +4165,173 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rx rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$J$19:$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.9Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch'!$K$19:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0915827338129496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.149466192170819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.269094922737307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.474893617021277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.671679197994987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.862576687116564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="482800043"/>
+        <c:axId val="282732574"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="482800043"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="282732574"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="282732574"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="482800043"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4485,7 +4721,7 @@
                   <c:v>0.474893617021277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.672096908939014</c:v>
+                  <c:v>0.671679197994987</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.862576687116564</c:v>
@@ -4548,7 +4784,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999754601226994</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,7 +4844,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999754601226994</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4668,7 +4904,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999877300613497</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4811,7 +5047,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5342,7 +5578,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.672096908939014</c:v>
+                  <c:v>0.671679197994987</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -5445,13 +5681,13 @@
                   <c:v>0.862576687116564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.999754601226994</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.999754601226994</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.999877300613497</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -5543,7 +5779,107 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="12592051" cy="6086474"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="6791325"/>
+        <a:ext cx="12592051" cy="6086474"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13506450" y="2886075"/>
+        <a:ext cx="6772276" cy="4200525"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5608,7 +5944,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5733,20 +6069,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1424940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1242060</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame fPublished="0">
       <xdr:nvGraphicFramePr>
@@ -5754,42 +6090,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="12592051" cy="6086474"/>
+        <a:off x="11572874" y="4667250"/>
+        <a:ext cx="5715000" cy="3457575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame fPublished="0">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="6791325"/>
-        <a:ext cx="12592051" cy="6086474"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6053,610 +6359,681 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:G52"/>
+  <x:dimension ref="A1:P52"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:G47"/>
+    <x:sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H10" activeCellId="0" sqref="H10:H10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
     <x:col min="2" max="7" width="20.61328125" customWidth="1"/>
+    <x:col min="10" max="10" width="8.796875" bestFit="1" customWidth="1"/>
+    <x:col min="11" max="11" width="17.19921875" style="1" customWidth="1"/>
+    <x:col min="12" max="12" width="12.3984375" customWidth="1"/>
+    <x:col min="13" max="16" width="8.796875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
       <x:c r="B1" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C1" s="10"/>
-      <x:c r="D1" s="10"/>
-      <x:c r="E1" s="10"/>
-      <x:c r="F1" s="10"/>
-      <x:c r="G1" s="10"/>
-    </x:row>
-    <x:row r="2" spans="2:7">
-      <x:c r="B2" s="10"/>
-      <x:c r="C2" s="10"/>
-      <x:c r="D2" s="10"/>
-      <x:c r="E2" s="10"/>
-      <x:c r="F2" s="10"/>
-      <x:c r="G2" s="10"/>
-    </x:row>
-    <x:row r="3" spans="1:7">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="11"/>
+      <x:c r="D1" s="11"/>
+      <x:c r="E1" s="11"/>
+      <x:c r="F1" s="11"/>
+      <x:c r="G1" s="11"/>
+    </x:row>
+    <x:row r="2" spans="2:12">
+      <x:c r="B2" s="11"/>
+      <x:c r="C2" s="11"/>
+      <x:c r="D2" s="11"/>
+      <x:c r="E2" s="11"/>
+      <x:c r="F2" s="11"/>
+      <x:c r="G2" s="11"/>
+      <x:c r="I2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="L2" s="1"/>
+    </x:row>
+    <x:row r="3" spans="1:12">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="L3" s="22">
+        <x:f>$B$4/13900</x:f>
+        <x:v>0.13978417266187051</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:12">
       <x:c r="A4" s="1">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B4">
-        <x:v>1943000</x:v>
-      </x:c>
-      <x:c r="C4" s="1">
-        <x:v>1947000</x:v>
-      </x:c>
-      <x:c r="D4" s="1">
-        <x:v>1942000</x:v>
-      </x:c>
-      <x:c r="E4" s="1">
-        <x:v>1934000</x:v>
-      </x:c>
-      <x:c r="F4" s="1">
-        <x:v>1190000</x:v>
-      </x:c>
-      <x:c r="G4" s="1">
-        <x:v>814800</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
+      <x:c r="B4" s="20">
+        <x:v>1943</x:v>
+      </x:c>
+      <x:c r="C4" s="21">
+        <x:v>1947</x:v>
+      </x:c>
+      <x:c r="D4" s="21">
+        <x:v>1942</x:v>
+      </x:c>
+      <x:c r="E4" s="21">
+        <x:v>1934</x:v>
+      </x:c>
+      <x:c r="F4" s="21">
+        <x:v>1190</x:v>
+      </x:c>
+      <x:c r="G4" s="21">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="L4" s="23">
+        <x:f>$C$4/8400</x:f>
+        <x:v>0.23178571428571429</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:12">
       <x:c r="A5" s="1">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B5" s="1">
-        <x:v>3876000</x:v>
-      </x:c>
-      <x:c r="C5" s="1">
-        <x:v>3879000</x:v>
-      </x:c>
-      <x:c r="D5" s="1">
-        <x:v>3870000</x:v>
-      </x:c>
-      <x:c r="E5" s="1">
-        <x:v>2349000</x:v>
-      </x:c>
-      <x:c r="F5" s="1">
-        <x:v>1190000</x:v>
-      </x:c>
-      <x:c r="G5" s="1">
-        <x:v>814800</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
+      <x:c r="B5" s="21">
+        <x:v>3876</x:v>
+      </x:c>
+      <x:c r="C5" s="21">
+        <x:v>3879</x:v>
+      </x:c>
+      <x:c r="D5" s="21">
+        <x:v>3870</x:v>
+      </x:c>
+      <x:c r="E5" s="21">
+        <x:v>2349</x:v>
+      </x:c>
+      <x:c r="F5" s="21">
+        <x:v>1190</x:v>
+      </x:c>
+      <x:c r="G5" s="21">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="I5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="K5" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L5" s="23">
+        <x:f>$D$4/4500</x:f>
+        <x:v>0.43155555555555558</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:12">
       <x:c r="A6" s="1">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B6" s="1">
-        <x:v>7740000</x:v>
-      </x:c>
-      <x:c r="C6" s="1">
-        <x:v>5640000</x:v>
-      </x:c>
-      <x:c r="D6" s="1">
-        <x:v>4525000</x:v>
-      </x:c>
-      <x:c r="E6" s="1">
-        <x:v>2349000</x:v>
-      </x:c>
-      <x:c r="F6" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G6" s="1">
-        <x:v>814800</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
+      <x:c r="B6" s="21">
+        <x:v>7740</x:v>
+      </x:c>
+      <x:c r="C6" s="21">
+        <x:v>5640</x:v>
+      </x:c>
+      <x:c r="D6" s="21">
+        <x:v>4525</x:v>
+      </x:c>
+      <x:c r="E6" s="21">
+        <x:v>2349</x:v>
+      </x:c>
+      <x:c r="F6" s="21">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G6" s="21">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="K6" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="L6" s="23">
+        <x:f>$E$4/2350</x:f>
+        <x:v>0.82297872340425537</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:12">
       <x:c r="A7" s="1">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B7" s="1">
-        <x:v>10310000</x:v>
-      </x:c>
-      <x:c r="C7" s="1">
-        <x:v>8402000</x:v>
-      </x:c>
-      <x:c r="D7" s="1">
-        <x:v>4528000</x:v>
-      </x:c>
-      <x:c r="E7" s="1">
-        <x:v>2349000</x:v>
-      </x:c>
-      <x:c r="F7" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G7" s="1">
-        <x:v>814800</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
+      <x:c r="B7" s="21">
+        <x:v>10310</x:v>
+      </x:c>
+      <x:c r="C7" s="21">
+        <x:v>8402</x:v>
+      </x:c>
+      <x:c r="D7" s="21">
+        <x:v>4528</x:v>
+      </x:c>
+      <x:c r="E7" s="21">
+        <x:v>2349</x:v>
+      </x:c>
+      <x:c r="F7" s="21">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G7" s="21">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="K7" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L7" s="22">
+        <x:f>$F$4/1200</x:f>
+        <x:v>0.9916666666666667</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:12">
       <x:c r="A8" s="1">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B8" s="1">
-        <x:v>10680000</x:v>
-      </x:c>
-      <x:c r="C8" s="1">
-        <x:v>8444000</x:v>
-      </x:c>
-      <x:c r="D8" s="1">
-        <x:v>4528000</x:v>
-      </x:c>
-      <x:c r="E8" s="1">
-        <x:v>2349000</x:v>
-      </x:c>
-      <x:c r="F8" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G8" s="1">
-        <x:v>814800</x:v>
+      <x:c r="B8" s="21">
+        <x:v>10680</x:v>
+      </x:c>
+      <x:c r="C8" s="21">
+        <x:v>8444</x:v>
+      </x:c>
+      <x:c r="D8" s="21">
+        <x:v>4528</x:v>
+      </x:c>
+      <x:c r="E8" s="21">
+        <x:v>2349</x:v>
+      </x:c>
+      <x:c r="F8" s="21">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G8" s="21">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="K8" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L8" s="22">
+        <x:f>$G$4/815</x:f>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="1">
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B9" s="1">
-        <x:v>13380000</x:v>
-      </x:c>
-      <x:c r="C9" s="1">
-        <x:v>8445000</x:v>
-      </x:c>
-      <x:c r="D9" s="1">
-        <x:v>4528000</x:v>
-      </x:c>
-      <x:c r="E9" s="1">
-        <x:v>2349000</x:v>
-      </x:c>
-      <x:c r="F9" s="1">
-        <x:v>1190000</x:v>
-      </x:c>
-      <x:c r="G9" s="1">
-        <x:v>814800</x:v>
+      <x:c r="B9" s="21">
+        <x:v>13380</x:v>
+      </x:c>
+      <x:c r="C9" s="21">
+        <x:v>8445</x:v>
+      </x:c>
+      <x:c r="D9" s="21">
+        <x:v>4528</x:v>
+      </x:c>
+      <x:c r="E9" s="21">
+        <x:v>2349</x:v>
+      </x:c>
+      <x:c r="F9" s="21">
+        <x:v>1190</x:v>
+      </x:c>
+      <x:c r="G9" s="21">
+        <x:v>815</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="1">
-        <x:v>13390000</x:v>
-      </x:c>
-      <x:c r="C10" s="1">
-        <x:v>8445000</x:v>
-      </x:c>
-      <x:c r="D10" s="1">
-        <x:v>4528000</x:v>
-      </x:c>
-      <x:c r="E10" s="1">
-        <x:v>2349000</x:v>
-      </x:c>
-      <x:c r="F10" s="1">
-        <x:v>1190000</x:v>
-      </x:c>
-      <x:c r="G10" s="1"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B10" s="21">
+        <x:v>13390</x:v>
+      </x:c>
+      <x:c r="C10" s="21">
+        <x:v>8445</x:v>
+      </x:c>
+      <x:c r="D10" s="21">
+        <x:v>4528</x:v>
+      </x:c>
+      <x:c r="E10" s="21">
+        <x:v>2349</x:v>
+      </x:c>
+      <x:c r="F10" s="21">
+        <x:v>1190</x:v>
+      </x:c>
+      <x:c r="G10" s="21"/>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B11" s="1">
-        <x:v>12500000</x:v>
-      </x:c>
-      <x:c r="C11" s="1">
-        <x:v>8445952</x:v>
-      </x:c>
-      <x:c r="D11" s="1">
-        <x:v>4528000</x:v>
-      </x:c>
-      <x:c r="E11" s="1">
-        <x:v>2350000</x:v>
-      </x:c>
-      <x:c r="F11" s="1"/>
-      <x:c r="G11" s="1"/>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B11" s="21">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="C11" s="21">
+        <x:v>8446</x:v>
+      </x:c>
+      <x:c r="D11" s="21">
+        <x:v>4528</x:v>
+      </x:c>
+      <x:c r="E11" s="21">
+        <x:v>2350</x:v>
+      </x:c>
+      <x:c r="F11" s="21"/>
+      <x:c r="G11" s="21"/>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B12" s="1">
-        <x:v>12550000</x:v>
-      </x:c>
-      <x:c r="C12" s="1">
-        <x:v>8430000</x:v>
-      </x:c>
-      <x:c r="D12" s="1">
-        <x:v>4420000</x:v>
-      </x:c>
-      <x:c r="E12" s="1"/>
-      <x:c r="F12" s="1"/>
-      <x:c r="G12" s="1"/>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B12" s="21">
+        <x:v>12550</x:v>
+      </x:c>
+      <x:c r="C12" s="21">
+        <x:v>8430</x:v>
+      </x:c>
+      <x:c r="D12" s="21">
+        <x:v>4420</x:v>
+      </x:c>
+      <x:c r="E12" s="21"/>
+      <x:c r="F12" s="21"/>
+      <x:c r="G12" s="21"/>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B13" s="1">
-        <x:v>12480000</x:v>
-      </x:c>
-      <x:c r="C13" s="1">
-        <x:v>8020000</x:v>
-      </x:c>
-      <x:c r="D13" s="1"/>
-      <x:c r="E13" s="1"/>
-      <x:c r="F13" s="1"/>
-      <x:c r="G13" s="1"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="21">
+        <x:v>12480</x:v>
+      </x:c>
+      <x:c r="C13" s="21">
+        <x:v>8020</x:v>
+      </x:c>
+      <x:c r="D13" s="21"/>
+      <x:c r="E13" s="21"/>
+      <x:c r="F13" s="21"/>
+      <x:c r="G13" s="21"/>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B14" s="1">
-        <x:v>12770000</x:v>
-      </x:c>
-      <x:c r="C14" s="1"/>
-      <x:c r="D14" s="1"/>
-      <x:c r="E14" s="1"/>
-      <x:c r="F14" s="1"/>
-      <x:c r="G14" s="1"/>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B14" s="21">
+        <x:v>12770</x:v>
+      </x:c>
+      <x:c r="C14" s="21"/>
+      <x:c r="D14" s="21"/>
+      <x:c r="E14" s="21"/>
+      <x:c r="F14" s="21"/>
+      <x:c r="G14" s="21"/>
+    </x:row>
+    <x:row r="16" spans="10:16">
+      <x:c r="J16" s="14"/>
+      <x:c r="K16" s="14"/>
+      <x:c r="L16" s="14"/>
+      <x:c r="M16" s="14"/>
+      <x:c r="N16" s="14"/>
+      <x:c r="O16" s="14"/>
+      <x:c r="P16" s="14"/>
+    </x:row>
+    <x:row r="17" spans="10:16">
+      <x:c r="J17" s="14"/>
+      <x:c r="K17" s="14"/>
+      <x:c r="L17" s="14"/>
+      <x:c r="M17" s="14"/>
+      <x:c r="N17" s="14"/>
+      <x:c r="O17" s="14"/>
+      <x:c r="P17" s="14"/>
     </x:row>
     <x:row r="18" spans="2:7">
       <x:c r="B18" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C18" s="10"/>
-      <x:c r="D18" s="10"/>
-      <x:c r="E18" s="10"/>
-      <x:c r="F18" s="10"/>
-      <x:c r="G18" s="10"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C18" s="11"/>
+      <x:c r="D18" s="11"/>
+      <x:c r="E18" s="11"/>
+      <x:c r="F18" s="11"/>
+      <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="10"/>
-      <x:c r="C19" s="10"/>
-      <x:c r="D19" s="10"/>
-      <x:c r="E19" s="10"/>
-      <x:c r="F19" s="10"/>
-      <x:c r="G19" s="10"/>
+      <x:c r="B19" s="11"/>
+      <x:c r="C19" s="11"/>
+      <x:c r="D19" s="11"/>
+      <x:c r="E19" s="11"/>
+      <x:c r="F19" s="11"/>
+      <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="1"/>
       <x:c r="B20" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="1">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B21" s="1">
-        <x:f>B4/13900000</x:f>
+      <x:c r="B21" s="22">
+        <x:f>$B$4/13900</x:f>
         <x:v>0.13978417266187051</x:v>
       </x:c>
-      <x:c r="C21">
-        <x:f t="shared" ref="C21:C31" si="0">C4/8400000</x:f>
+      <x:c r="C21" s="23">
+        <x:f>$C$4/8400</x:f>
         <x:v>0.23178571428571429</x:v>
       </x:c>
-      <x:c r="D21">
-        <x:f t="shared" ref="D21:D31" si="1">D4/4500000</x:f>
+      <x:c r="D21" s="23">
+        <x:f>$D$4/4500</x:f>
         <x:v>0.43155555555555558</x:v>
       </x:c>
-      <x:c r="E21">
-        <x:f t="shared" ref="E21:E31" si="2">E4/2350000</x:f>
+      <x:c r="E21" s="23">
+        <x:f>$E$4/2350</x:f>
         <x:v>0.82297872340425537</x:v>
       </x:c>
-      <x:c r="F21" s="1">
-        <x:f>F4/1200000</x:f>
+      <x:c r="F21" s="22">
+        <x:f>$F$4/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
-      <x:c r="G21" s="1">
-        <x:f>G4/800000</x:f>
-        <x:v>1.0185</x:v>
+      <x:c r="G21" s="22">
+        <x:f>$G$4/MAX($G$4:$G$9)</x:f>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="1">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B22" s="1">
-        <x:f t="shared" ref="B22:B31" si="3">B5/13900000</x:f>
+      <x:c r="B22" s="22">
+        <x:f>B5/13900</x:f>
         <x:v>0.27884892086330937</x:v>
       </x:c>
-      <x:c r="C22">
-        <x:f t="shared" si="0"/>
+      <x:c r="C22" s="23">
+        <x:f>C5/8400</x:f>
         <x:v>0.4617857142857143</x:v>
       </x:c>
-      <x:c r="D22">
-        <x:f t="shared" si="1"/>
+      <x:c r="D22" s="23">
+        <x:f>D5/4500</x:f>
         <x:v>0.85999999999999999</x:v>
       </x:c>
-      <x:c r="E22">
-        <x:f t="shared" si="2"/>
+      <x:c r="E22" s="23">
+        <x:f>E5/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F22" s="1">
-        <x:f t="shared" ref="F22:F27" si="4">F5/1200000</x:f>
+      <x:c r="F22" s="22">
+        <x:f>F5/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
-      <x:c r="G22" s="1">
-        <x:f t="shared" ref="G22:G26" si="5">G5/800000</x:f>
-        <x:v>1.0185</x:v>
+      <x:c r="G22" s="22">
+        <x:f t="shared" ref="G22:G25" si="0">G5/MAX($G$4:$G$9)</x:f>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="1">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B23" s="1">
-        <x:f t="shared" si="3"/>
+      <x:c r="B23" s="22">
+        <x:f>B6/13900</x:f>
         <x:v>0.55683453237410074</x:v>
       </x:c>
-      <x:c r="C23">
+      <x:c r="C23" s="23">
+        <x:f>C6/8400</x:f>
+        <x:v>0.67142857142857137</x:v>
+      </x:c>
+      <x:c r="D23" s="23">
+        <x:f>D6/4500</x:f>
+        <x:v>1.0055555555555555</x:v>
+      </x:c>
+      <x:c r="E23" s="23">
+        <x:f>E6/2350</x:f>
+        <x:v>0.99957446808510642</x:v>
+      </x:c>
+      <x:c r="F23" s="22">
+        <x:f>F6/1200</x:f>
+        <x:v>0.99750000000000005</x:v>
+      </x:c>
+      <x:c r="G23" s="22">
         <x:f t="shared" si="0"/>
-        <x:v>0.67142857142857137</x:v>
-      </x:c>
-      <x:c r="D23">
-        <x:f t="shared" si="1"/>
-        <x:v>1.0055555555555555</x:v>
-      </x:c>
-      <x:c r="E23">
-        <x:f t="shared" si="2"/>
-        <x:v>0.99957446808510642</x:v>
-      </x:c>
-      <x:c r="F23" s="1">
-        <x:f t="shared" si="4"/>
-        <x:v>0.99750000000000005</x:v>
-      </x:c>
-      <x:c r="G23" s="1">
-        <x:f t="shared" si="5"/>
-        <x:v>1.0185</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="1">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B24" s="1">
-        <x:f t="shared" si="3"/>
+      <x:c r="B24" s="22">
+        <x:f>B7/13900</x:f>
         <x:v>0.74172661870503598</x:v>
       </x:c>
-      <x:c r="C24">
+      <x:c r="C24" s="23">
+        <x:f>C7/8400</x:f>
+        <x:v>1.0002380952380951</x:v>
+      </x:c>
+      <x:c r="D24" s="23">
+        <x:f>D7/4500</x:f>
+        <x:v>1.0062222222222221</x:v>
+      </x:c>
+      <x:c r="E24" s="23">
+        <x:f>E7/2350</x:f>
+        <x:v>0.99957446808510642</x:v>
+      </x:c>
+      <x:c r="F24" s="22">
+        <x:f>F7/1200</x:f>
+        <x:v>0.99750000000000005</x:v>
+      </x:c>
+      <x:c r="G24" s="22">
         <x:f t="shared" si="0"/>
-        <x:v>1.0002380952380951</x:v>
-      </x:c>
-      <x:c r="D24">
-        <x:f t="shared" si="1"/>
-        <x:v>1.0062222222222221</x:v>
-      </x:c>
-      <x:c r="E24">
-        <x:f t="shared" si="2"/>
-        <x:v>0.99957446808510642</x:v>
-      </x:c>
-      <x:c r="F24" s="1">
-        <x:f t="shared" si="4"/>
-        <x:v>0.99750000000000005</x:v>
-      </x:c>
-      <x:c r="G24" s="1">
-        <x:f t="shared" si="5"/>
-        <x:v>1.0185</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="1">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B25" s="1">
-        <x:f t="shared" si="3"/>
+      <x:c r="B25" s="22">
+        <x:f>B8/13900</x:f>
         <x:v>0.76834532374100717</x:v>
       </x:c>
-      <x:c r="C25">
+      <x:c r="C25" s="23">
+        <x:f>C8/8400</x:f>
+        <x:v>1.0052380952380953</x:v>
+      </x:c>
+      <x:c r="D25" s="23">
+        <x:f>D8/4500</x:f>
+        <x:v>1.0062222222222221</x:v>
+      </x:c>
+      <x:c r="E25" s="23">
+        <x:f>E8/2350</x:f>
+        <x:v>0.99957446808510642</x:v>
+      </x:c>
+      <x:c r="F25" s="22">
+        <x:f>F8/1200</x:f>
+        <x:v>0.99750000000000005</x:v>
+      </x:c>
+      <x:c r="G25" s="22">
         <x:f t="shared" si="0"/>
-        <x:v>1.0052380952380953</x:v>
-      </x:c>
-      <x:c r="D25">
-        <x:f t="shared" si="1"/>
-        <x:v>1.0062222222222221</x:v>
-      </x:c>
-      <x:c r="E25">
-        <x:f t="shared" si="2"/>
-        <x:v>0.99957446808510642</x:v>
-      </x:c>
-      <x:c r="F25" s="1">
-        <x:f t="shared" si="4"/>
-        <x:v>0.99750000000000005</x:v>
-      </x:c>
-      <x:c r="G25" s="1">
-        <x:f t="shared" si="5"/>
-        <x:v>1.0185</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="1">
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B26" s="1">
-        <x:f t="shared" si="3"/>
+      <x:c r="B26" s="22">
+        <x:f>B9/13900</x:f>
         <x:v>0.96258992805755395</x:v>
       </x:c>
-      <x:c r="C26">
-        <x:f t="shared" si="0"/>
+      <x:c r="C26" s="23">
+        <x:f>C9/8400</x:f>
         <x:v>1.0053571428571428</x:v>
       </x:c>
-      <x:c r="D26">
-        <x:f t="shared" si="1"/>
+      <x:c r="D26" s="23">
+        <x:f>D9/4500</x:f>
         <x:v>1.0062222222222221</x:v>
       </x:c>
-      <x:c r="E26">
-        <x:f t="shared" si="2"/>
+      <x:c r="E26" s="23">
+        <x:f>E9/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F26" s="1">
-        <x:f t="shared" si="4"/>
+      <x:c r="F26" s="22">
+        <x:f>F9/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
-      <x:c r="G26" s="1">
-        <x:f t="shared" si="5"/>
-        <x:v>1.0185</x:v>
+      <x:c r="G26" s="22">
+        <x:f>G9/MAX($G$4:$G$9)</x:f>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="1">
-        <x:f t="shared" si="3"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B27" s="22">
+        <x:f>B10/13900</x:f>
         <x:v>0.96330935251798566</x:v>
       </x:c>
-      <x:c r="C27">
-        <x:f t="shared" si="0"/>
+      <x:c r="C27" s="23">
+        <x:f>C10/8400</x:f>
         <x:v>1.0053571428571428</x:v>
       </x:c>
-      <x:c r="D27">
-        <x:f t="shared" si="1"/>
+      <x:c r="D27" s="23">
+        <x:f>D10/4500</x:f>
         <x:v>1.0062222222222221</x:v>
       </x:c>
-      <x:c r="E27">
-        <x:f t="shared" si="2"/>
+      <x:c r="E27" s="23">
+        <x:f>E10/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F27" s="1">
-        <x:f t="shared" si="4"/>
+      <x:c r="F27" s="22">
+        <x:f>F10/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
-      <x:c r="G27" s="1"/>
+      <x:c r="G27" s="22"/>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B28" s="1">
-        <x:f t="shared" si="3"/>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B28" s="22">
+        <x:f>B11/13900</x:f>
         <x:v>0.89928057553956831</x:v>
       </x:c>
-      <x:c r="C28">
-        <x:f t="shared" si="0"/>
-        <x:v>1.0054704761904762</x:v>
-      </x:c>
-      <x:c r="D28">
-        <x:f t="shared" si="1"/>
+      <x:c r="C28" s="23">
+        <x:f>C11/8400</x:f>
+        <x:v>1.0054761904761904</x:v>
+      </x:c>
+      <x:c r="D28" s="23">
+        <x:f>D11/4500</x:f>
         <x:v>1.0062222222222221</x:v>
       </x:c>
-      <x:c r="E28">
-        <x:f t="shared" si="2"/>
+      <x:c r="E28" s="23">
+        <x:f>E11/2350</x:f>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F28" s="1"/>
-      <x:c r="G28" s="1"/>
+      <x:c r="F28" s="22"/>
+      <x:c r="G28" s="22"/>
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B29" s="1">
-        <x:f t="shared" si="3"/>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B29" s="22">
+        <x:f>B12/13900</x:f>
         <x:v>0.90287769784172667</x:v>
       </x:c>
-      <x:c r="C29">
-        <x:f t="shared" si="0"/>
+      <x:c r="C29" s="23">
+        <x:f>C12/8400</x:f>
         <x:v>1.0035714285714286</x:v>
       </x:c>
-      <x:c r="D29">
-        <x:f t="shared" si="1"/>
+      <x:c r="D29" s="23">
+        <x:f>D12/4500</x:f>
         <x:v>0.98222222222222222</x:v>
       </x:c>
-      <x:c r="E29">
-        <x:f t="shared" si="2"/>
+      <x:c r="E29" s="23">
+        <x:f>E12/2350</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F29" s="1"/>
-      <x:c r="G29" s="1"/>
+      <x:c r="F29" s="22"/>
+      <x:c r="G29" s="22"/>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B30" s="1">
-        <x:f t="shared" si="3"/>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B30" s="22">
+        <x:f>B13/13900</x:f>
         <x:v>0.89784172661870498</x:v>
       </x:c>
-      <x:c r="C30">
-        <x:f t="shared" si="0"/>
+      <x:c r="C30" s="23">
+        <x:f>C13/8400</x:f>
         <x:v>0.95476190476190481</x:v>
       </x:c>
-      <x:c r="D30">
-        <x:f t="shared" si="1"/>
+      <x:c r="D30" s="23">
+        <x:f>D13/4500</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E30">
-        <x:f t="shared" si="2"/>
+      <x:c r="E30" s="23">
+        <x:f>E13/2350</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F30" s="1"/>
-      <x:c r="G30" s="1"/>
+      <x:c r="F30" s="22"/>
+      <x:c r="G30" s="22"/>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B31" s="1">
-        <x:f t="shared" si="3"/>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B31" s="22">
+        <x:f>B14/13900</x:f>
         <x:v>0.91870503597122299</x:v>
       </x:c>
-      <x:c r="C31">
-        <x:f t="shared" si="0"/>
+      <x:c r="C31" s="23">
+        <x:f>C14/8400</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D31">
-        <x:f t="shared" si="1"/>
+      <x:c r="D31" s="23">
+        <x:f>D14/4500</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E31">
-        <x:f t="shared" si="2"/>
+      <x:c r="E31" s="23">
+        <x:f>E14/2350</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F31" s="1"/>
-      <x:c r="G31" s="1"/>
+      <x:c r="F31" s="22"/>
+      <x:c r="G31" s="22"/>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="1"/>
@@ -6669,41 +7046,41 @@
     </x:row>
     <x:row r="34" spans="2:7">
       <x:c r="B34" s="9" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C34" s="10"/>
-      <x:c r="D34" s="10"/>
-      <x:c r="E34" s="10"/>
-      <x:c r="F34" s="10"/>
-      <x:c r="G34" s="10"/>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C34" s="11"/>
+      <x:c r="D34" s="11"/>
+      <x:c r="E34" s="11"/>
+      <x:c r="F34" s="11"/>
+      <x:c r="G34" s="11"/>
     </x:row>
     <x:row r="35" spans="2:7">
-      <x:c r="B35" s="10"/>
-      <x:c r="C35" s="10"/>
-      <x:c r="D35" s="10"/>
-      <x:c r="E35" s="10"/>
-      <x:c r="F35" s="10"/>
-      <x:c r="G35" s="10"/>
+      <x:c r="B35" s="11"/>
+      <x:c r="C35" s="11"/>
+      <x:c r="D35" s="11"/>
+      <x:c r="E35" s="11"/>
+      <x:c r="F35" s="11"/>
+      <x:c r="G35" s="11"/>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="1"/>
       <x:c r="B36" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
@@ -6846,7 +7223,7 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B43" s="1">
         <x:v>6420</x:v>
@@ -6867,7 +7244,7 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B44" s="1">
         <x:v>3050</x:v>
@@ -6886,7 +7263,7 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B45" s="1">
         <x:v>1532</x:v>
@@ -6903,7 +7280,7 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B46" s="1">
         <x:v>760</x:v>
@@ -6918,7 +7295,7 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B47" s="1">
         <x:v>387</x:v>
@@ -6982,6 +7359,7 @@
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:drawing r:id="rId1"/>
 </x:worksheet>
 </file>
 
@@ -6991,7 +7369,7 @@
   <x:dimension ref="A1:M58"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G23" activeCellId="0" sqref="A22:G23"/>
+      <x:selection activeCell="B29" activeCellId="0" sqref="B29:B29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -7002,22 +7380,22 @@
   <x:sheetData>
     <x:row r="1" spans="2:7" customHeight="1">
       <x:c r="B1" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D1" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E1" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F1" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G1" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:13" customHeight="1">
@@ -7174,7 +7552,7 @@
     </x:row>
     <x:row r="9" spans="1:7" customHeight="1">
       <x:c r="A9" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B9" s="4">
         <x:v>2722</x:v>
@@ -7197,7 +7575,7 @@
     </x:row>
     <x:row r="10" spans="1:7" customHeight="1">
       <x:c r="A10" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B10" s="4">
         <x:v>2843</x:v>
@@ -7220,7 +7598,7 @@
     </x:row>
     <x:row r="11" spans="1:7" customHeight="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>3133</x:v>
@@ -7243,7 +7621,7 @@
     </x:row>
     <x:row r="12" spans="1:7" customHeight="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>3857</x:v>
@@ -7266,7 +7644,7 @@
     </x:row>
     <x:row r="13" spans="1:7" customHeight="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>5125</x:v>
@@ -7289,7 +7667,7 @@
     </x:row>
     <x:row r="14" spans="1:7" customHeight="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>7528</x:v>
@@ -7312,7 +7690,7 @@
     </x:row>
     <x:row r="15" spans="1:7" customHeight="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>11994</x:v>
@@ -7335,7 +7713,7 @@
     </x:row>
     <x:row r="16" spans="1:7" customHeight="1">
       <x:c r="A16" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>19883</x:v>
@@ -7358,7 +7736,7 @@
     </x:row>
     <x:row r="17" spans="1:7" customHeight="1">
       <x:c r="A17" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>37751</x:v>
@@ -7381,7 +7759,7 @@
     </x:row>
     <x:row r="18" spans="1:7" customHeight="1">
       <x:c r="A18" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>85677</x:v>
@@ -7404,7 +7782,7 @@
     </x:row>
     <x:row r="19" spans="1:7" customHeight="1">
       <x:c r="A19" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>206878</x:v>
@@ -7456,10 +7834,10 @@
       <x:c r="D38" s="3"/>
     </x:row>
     <x:row r="39" spans="2:5">
-      <x:c r="B39" s="10"/>
-      <x:c r="C39" s="10"/>
-      <x:c r="D39" s="11"/>
-      <x:c r="E39" s="11"/>
+      <x:c r="B39" s="11"/>
+      <x:c r="C39" s="11"/>
+      <x:c r="D39" s="10"/>
+      <x:c r="E39" s="10"/>
     </x:row>
     <x:row r="40" spans="2:5">
       <x:c r="B40" s="2"/>
@@ -7518,59 +7896,59 @@
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B48" s="3"/>
       <x:c r="D48" s="3"/>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7595,7 +7973,7 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:G93"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="D96" activeCellId="0" sqref="D96:D96"/>
     </x:sheetView>
   </x:sheetViews>
@@ -7607,32 +7985,32 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="11"/>
-      <x:c r="C1" s="11"/>
-      <x:c r="D1" s="11"/>
-      <x:c r="E1" s="11"/>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B1" s="10"/>
+      <x:c r="C1" s="10"/>
+      <x:c r="D1" s="10"/>
+      <x:c r="E1" s="10"/>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="11"/>
-      <x:c r="B2" s="11"/>
-      <x:c r="C2" s="11"/>
-      <x:c r="D2" s="11"/>
-      <x:c r="E2" s="11"/>
+      <x:c r="A2" s="10"/>
+      <x:c r="B2" s="10"/>
+      <x:c r="C2" s="10"/>
+      <x:c r="D2" s="10"/>
+      <x:c r="E2" s="10"/>
     </x:row>
     <x:row r="3" spans="2:5">
       <x:c r="B3" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C3" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D3" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E3" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5">
@@ -7745,7 +8123,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>7445</x:v>
@@ -7762,7 +8140,7 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>2307</x:v>
@@ -7779,7 +8157,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>3334</x:v>
@@ -7796,7 +8174,7 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>5643</x:v>
@@ -7813,7 +8191,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>8649</x:v>
@@ -7830,7 +8208,7 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>7925</x:v>
@@ -7847,7 +8225,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>19881</x:v>
@@ -7864,7 +8242,7 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>26627</x:v>
@@ -7881,7 +8259,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>40525</x:v>
@@ -7898,7 +8276,7 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B20" s="4">
         <x:v>74741</x:v>
@@ -7915,7 +8293,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B21" s="4">
         <x:v>150490</x:v>
@@ -7932,26 +8310,26 @@
     </x:row>
     <x:row r="25" spans="1:5" ht="24.949999999999999" customHeight="1">
       <x:c r="A25" s="13" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B25" s="11"/>
-      <x:c r="C25" s="11"/>
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B25" s="10"/>
+      <x:c r="C25" s="10"/>
       <x:c r="D25" s="2"/>
       <x:c r="E25" s="2"/>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="A26" s="11"/>
-      <x:c r="B26" s="11"/>
-      <x:c r="C26" s="11"/>
+      <x:c r="A26" s="10"/>
+      <x:c r="B26" s="10"/>
+      <x:c r="C26" s="10"/>
       <x:c r="D26" s="2"/>
       <x:c r="E26" s="2"/>
     </x:row>
     <x:row r="27" spans="2:3">
       <x:c r="B27" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C27" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:3">
@@ -8026,7 +8404,7 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>1704662</x:v>
@@ -8037,7 +8415,7 @@
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>888145</x:v>
@@ -8048,7 +8426,7 @@
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>501401</x:v>
@@ -8059,7 +8437,7 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>332799</x:v>
@@ -8070,7 +8448,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>234809</x:v>
@@ -8081,7 +8459,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>185326</x:v>
@@ -8092,7 +8470,7 @@
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>161905</x:v>
@@ -8103,7 +8481,7 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>150163</x:v>
@@ -8114,7 +8492,7 @@
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>145611</x:v>
@@ -8125,7 +8503,7 @@
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>148653</x:v>
@@ -8136,7 +8514,7 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>167357</x:v>
@@ -8147,7 +8525,7 @@
     </x:row>
     <x:row r="48" spans="1:7" ht="24.949999999999999" customHeight="1">
       <x:c r="A48" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B48" s="9"/>
       <x:c r="C48" s="9"/>
@@ -8167,16 +8545,16 @@
     </x:row>
     <x:row r="50" spans="2:5">
       <x:c r="B50" s="12" t="s">
-        <x:v>18</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C50" s="12" t="s">
-        <x:v>2</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D50" s="12" t="s">
-        <x:v>15</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E50" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:5">
@@ -8289,7 +8667,7 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B58" s="4">
         <x:v>2330</x:v>
@@ -8306,7 +8684,7 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B59" s="4">
         <x:v>3582</x:v>
@@ -8323,7 +8701,7 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B60" s="4">
         <x:v>3213</x:v>
@@ -8340,7 +8718,7 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B61" s="4">
         <x:v>3588</x:v>
@@ -8357,7 +8735,7 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B62" s="5">
         <x:v>12283</x:v>
@@ -8374,7 +8752,7 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B63" s="4">
         <x:v>7954</x:v>
@@ -8391,7 +8769,7 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B64" s="4">
         <x:v>11599</x:v>
@@ -8408,7 +8786,7 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B65" s="4">
         <x:v>20553</x:v>
@@ -8425,7 +8803,7 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B66" s="4">
         <x:v>38486</x:v>
@@ -8442,7 +8820,7 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B67" s="4">
         <x:v>75167</x:v>
@@ -8459,7 +8837,7 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B68" s="4">
         <x:v>161317</x:v>
@@ -8476,7 +8854,7 @@
     </x:row>
     <x:row r="73" spans="1:5" ht="24.949999999999999" customHeight="1">
       <x:c r="A73" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B73" s="9"/>
       <x:c r="C73" s="9"/>
@@ -8492,10 +8870,10 @@
     </x:row>
     <x:row r="75" spans="2:3">
       <x:c r="B75" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C75" s="12" t="s">
-        <x:v>24</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:3">
@@ -8570,7 +8948,7 @@
     </x:row>
     <x:row r="83" spans="1:3">
       <x:c r="A83" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>1708597</x:v>
@@ -8581,7 +8959,7 @@
     </x:row>
     <x:row r="84" spans="1:3">
       <x:c r="A84" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>889942</x:v>
@@ -8592,7 +8970,7 @@
     </x:row>
     <x:row r="85" spans="1:3">
       <x:c r="A85" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>506309</x:v>
@@ -8603,7 +8981,7 @@
     </x:row>
     <x:row r="86" spans="1:3">
       <x:c r="A86" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>344510</x:v>
@@ -8614,7 +8992,7 @@
     </x:row>
     <x:row r="87" spans="1:3">
       <x:c r="A87" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>242647</x:v>
@@ -8625,7 +9003,7 @@
     </x:row>
     <x:row r="88" spans="1:3">
       <x:c r="A88" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>185274</x:v>
@@ -8636,7 +9014,7 @@
     </x:row>
     <x:row r="89" spans="1:3">
       <x:c r="A89" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>158391</x:v>
@@ -8647,7 +9025,7 @@
     </x:row>
     <x:row r="90" spans="1:3">
       <x:c r="A90" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>149039</x:v>
@@ -8658,7 +9036,7 @@
     </x:row>
     <x:row r="91" spans="1:3">
       <x:c r="A91" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>153874</x:v>
@@ -8669,7 +9047,7 @@
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>154735</x:v>
@@ -8680,7 +9058,7 @@
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>169481</x:v>
@@ -8733,388 +9111,512 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="A1:H58"/>
+  <x:dimension ref="A1:N58"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E33" activeCellId="0" sqref="E33:E33"/>
+    <x:sheetView topLeftCell="D7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="H13" activeCellId="0" sqref="H13:H13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="13.19921875" customWidth="1"/>
     <x:col min="2" max="7" width="22.4453125" customWidth="1"/>
+    <x:col min="10" max="10" width="18.6015625" customWidth="1"/>
+    <x:col min="11" max="11" width="18.3984375" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
       <x:c r="B1" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C1" s="10"/>
-      <x:c r="D1" s="10"/>
-      <x:c r="E1" s="10"/>
-      <x:c r="F1" s="10"/>
-      <x:c r="G1" s="10"/>
-    </x:row>
-    <x:row r="2" spans="2:7">
-      <x:c r="B2" s="10"/>
-      <x:c r="C2" s="10"/>
-      <x:c r="D2" s="10"/>
-      <x:c r="E2" s="10"/>
-      <x:c r="F2" s="10"/>
-      <x:c r="G2" s="10"/>
-    </x:row>
-    <x:row r="3" spans="1:7">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="11"/>
+      <x:c r="D1" s="11"/>
+      <x:c r="E1" s="11"/>
+      <x:c r="F1" s="11"/>
+      <x:c r="G1" s="11"/>
+    </x:row>
+    <x:row r="2" spans="2:11">
+      <x:c r="B2" s="11"/>
+      <x:c r="C2" s="11"/>
+      <x:c r="D2" s="11"/>
+      <x:c r="E2" s="11"/>
+      <x:c r="F2" s="11"/>
+      <x:c r="G2" s="11"/>
+      <x:c r="K2" s="1"/>
+    </x:row>
+    <x:row r="3" spans="1:11">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:14">
       <x:c r="A4" s="1">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B4">
-        <x:v>1273000</x:v>
-      </x:c>
-      <x:c r="C4" s="1">
-        <x:v>1260000</x:v>
-      </x:c>
-      <x:c r="D4" s="1">
-        <x:v>1219000</x:v>
-      </x:c>
-      <x:c r="E4" s="1">
-        <x:v>1116000</x:v>
-      </x:c>
-      <x:c r="F4" s="1">
-        <x:v>804500</x:v>
-      </x:c>
-      <x:c r="G4" s="1">
-        <x:v>703000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
+      <x:c r="B4" s="16">
+        <x:v>1273</x:v>
+      </x:c>
+      <x:c r="C4" s="17">
+        <x:v>1260</x:v>
+      </x:c>
+      <x:c r="D4" s="17">
+        <x:v>1219</x:v>
+      </x:c>
+      <x:c r="E4" s="17">
+        <x:v>1116</x:v>
+      </x:c>
+      <x:c r="F4" s="17">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="G4" s="17">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="I4" s="1"/>
+      <x:c r="J4" s="1"/>
+      <x:c r="K4" s="1"/>
+      <x:c r="L4" s="1"/>
+      <x:c r="M4" s="1"/>
+      <x:c r="N4" s="1"/>
+    </x:row>
+    <x:row r="5" spans="1:14">
       <x:c r="A5" s="1">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B5" s="1">
-        <x:v>2354000</x:v>
-      </x:c>
-      <x:c r="C5" s="1">
-        <x:v>2280000</x:v>
-      </x:c>
-      <x:c r="D5" s="1">
-        <x:v>2100000</x:v>
-      </x:c>
-      <x:c r="E5" s="1">
-        <x:v>1550000</x:v>
-      </x:c>
-      <x:c r="F5" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G5" s="1">
-        <x:v>814800</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
+      <x:c r="B5" s="18">
+        <x:v>2354</x:v>
+      </x:c>
+      <x:c r="C5" s="17">
+        <x:v>2280</x:v>
+      </x:c>
+      <x:c r="D5" s="17">
+        <x:v>2100</x:v>
+      </x:c>
+      <x:c r="E5" s="17">
+        <x:v>1550</x:v>
+      </x:c>
+      <x:c r="F5" s="17">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G5" s="17">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="J5" s="1"/>
+      <x:c r="K5" s="1"/>
+      <x:c r="L5" s="1"/>
+      <x:c r="M5" s="1"/>
+      <x:c r="N5" s="1"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
       <x:c r="A6" s="1">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B6" s="1">
-        <x:v>4140000</x:v>
-      </x:c>
-      <x:c r="C6" s="1">
-        <x:v>3620000</x:v>
-      </x:c>
-      <x:c r="D6" s="1">
-        <x:v>2940000</x:v>
-      </x:c>
-      <x:c r="E6" s="1">
-        <x:v>2330000</x:v>
-      </x:c>
-      <x:c r="F6" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G6" s="1">
-        <x:v>814800</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
+      <x:c r="B6" s="19">
+        <x:v>4140</x:v>
+      </x:c>
+      <x:c r="C6" s="17">
+        <x:v>3620</x:v>
+      </x:c>
+      <x:c r="D6" s="17">
+        <x:v>2940</x:v>
+      </x:c>
+      <x:c r="E6" s="17">
+        <x:v>2330</x:v>
+      </x:c>
+      <x:c r="F6" s="17">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G6" s="17">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="K6" s="1"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
       <x:c r="A7" s="1">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B7" s="1">
-        <x:v>6410000</x:v>
-      </x:c>
-      <x:c r="C7" s="1">
-        <x:v>5070000</x:v>
-      </x:c>
-      <x:c r="D7" s="1">
-        <x:v>4350000</x:v>
-      </x:c>
-      <x:c r="E7" s="1">
-        <x:v>2349000</x:v>
-      </x:c>
-      <x:c r="F7" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G7" s="1">
-        <x:v>814900</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
+      <x:c r="B7" s="17">
+        <x:v>6410</x:v>
+      </x:c>
+      <x:c r="C7" s="17">
+        <x:v>5070</x:v>
+      </x:c>
+      <x:c r="D7" s="17">
+        <x:v>4350</x:v>
+      </x:c>
+      <x:c r="E7" s="17">
+        <x:v>2349</x:v>
+      </x:c>
+      <x:c r="F7" s="17">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G7" s="17">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="K7" s="1"/>
+    </x:row>
+    <x:row r="8" spans="1:11">
       <x:c r="A8" s="1">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B8" s="1">
-        <x:v>8220000</x:v>
-      </x:c>
-      <x:c r="C8" s="1">
-        <x:v>7000000</x:v>
-      </x:c>
-      <x:c r="D8" s="1">
-        <x:v>4529000</x:v>
-      </x:c>
-      <x:c r="E8" s="1">
-        <x:v>2349000</x:v>
-      </x:c>
-      <x:c r="F8" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G8" s="1">
-        <x:v>815000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
+      <x:c r="B8" s="17">
+        <x:v>8220</x:v>
+      </x:c>
+      <x:c r="C8" s="17">
+        <x:v>7000</x:v>
+      </x:c>
+      <x:c r="D8" s="17">
+        <x:v>4529</x:v>
+      </x:c>
+      <x:c r="E8" s="17">
+        <x:v>2349</x:v>
+      </x:c>
+      <x:c r="F8" s="17">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G8" s="17">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="J8" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K8" s="15" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11">
       <x:c r="A9" s="1">
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B9" s="1">
-        <x:v>10600000</x:v>
-      </x:c>
-      <x:c r="C9" s="1">
-        <x:v>8200000</x:v>
-      </x:c>
-      <x:c r="D9" s="1">
-        <x:v>4529000</x:v>
-      </x:c>
-      <x:c r="E9" s="1">
-        <x:v>2350000</x:v>
-      </x:c>
-      <x:c r="F9" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G9" s="1">
-        <x:v>815000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7">
+      <x:c r="B9" s="17">
+        <x:v>10600</x:v>
+      </x:c>
+      <x:c r="C9" s="17">
+        <x:v>8200</x:v>
+      </x:c>
+      <x:c r="D9" s="17">
+        <x:v>4529</x:v>
+      </x:c>
+      <x:c r="E9" s="17">
+        <x:v>2350</x:v>
+      </x:c>
+      <x:c r="F9" s="17">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G9" s="17">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="J9" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K9" s="15" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:11">
       <x:c r="A10" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B10" s="17">
+        <x:v>11900</x:v>
+      </x:c>
+      <x:c r="C10" s="17">
+        <x:v>8430</x:v>
+      </x:c>
+      <x:c r="D10" s="17">
+        <x:v>4530</x:v>
+      </x:c>
+      <x:c r="E10" s="17">
+        <x:v>2350</x:v>
+      </x:c>
+      <x:c r="F10" s="17">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="G10" s="17"/>
+      <x:c r="J10" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K10" s="15" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B11" s="17">
+        <x:v>12100</x:v>
+      </x:c>
+      <x:c r="C11" s="17">
+        <x:v>8270</x:v>
+      </x:c>
+      <x:c r="D11" s="17">
+        <x:v>4530</x:v>
+      </x:c>
+      <x:c r="E11" s="17">
+        <x:v>2350</x:v>
+      </x:c>
+      <x:c r="F11" s="17"/>
+      <x:c r="G11" s="17"/>
+      <x:c r="J11" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K11" s="15" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B12" s="17">
+        <x:v>12200</x:v>
+      </x:c>
+      <x:c r="C12" s="17">
+        <x:v>8250</x:v>
+      </x:c>
+      <x:c r="D12" s="17">
+        <x:v>4370</x:v>
+      </x:c>
+      <x:c r="E12" s="17"/>
+      <x:c r="F12" s="17"/>
+      <x:c r="G12" s="17"/>
+      <x:c r="J12" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K12" s="15" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B13" s="17">
+        <x:v>12300</x:v>
+      </x:c>
+      <x:c r="C13" s="17">
+        <x:v>7940</x:v>
+      </x:c>
+      <x:c r="D13" s="17"/>
+      <x:c r="E13" s="17"/>
+      <x:c r="F13" s="17"/>
+      <x:c r="G13" s="17"/>
+      <x:c r="J13" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K13" s="15" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B14" s="17">
+        <x:v>12550</x:v>
+      </x:c>
+      <x:c r="C14" s="17">
+        <x:v>7500</x:v>
+      </x:c>
+      <x:c r="D14" s="17"/>
+      <x:c r="E14" s="17"/>
+      <x:c r="F14" s="17"/>
+      <x:c r="G14" s="17"/>
+      <x:c r="H14" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="K14" s="1"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B15" s="16">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="C15" s="16">
+        <x:v>7100</x:v>
+      </x:c>
+      <x:c r="D15" s="16"/>
+      <x:c r="E15" s="16"/>
+      <x:c r="F15" s="16"/>
+      <x:c r="G15" s="16"/>
+      <x:c r="K15" s="1"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B16" s="16">
+        <x:v>12000</x:v>
+      </x:c>
+      <x:c r="C16" s="16">
+        <x:v>6700</x:v>
+      </x:c>
+      <x:c r="D16" s="16"/>
+      <x:c r="E16" s="16"/>
+      <x:c r="F16" s="16"/>
+      <x:c r="G16" s="16"/>
+      <x:c r="K16" s="1"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B17" s="16">
+        <x:v>11200</x:v>
+      </x:c>
+      <x:c r="C17" s="16">
+        <x:v>7940</x:v>
+      </x:c>
+      <x:c r="D17" s="16"/>
+      <x:c r="E17" s="16"/>
+      <x:c r="F17" s="16"/>
+      <x:c r="G17" s="16"/>
+      <x:c r="K17" s="1"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B18" s="16">
+        <x:v>11500</x:v>
+      </x:c>
+      <x:c r="C18" s="16"/>
+      <x:c r="D18" s="16"/>
+      <x:c r="E18" s="16"/>
+      <x:c r="F18" s="16"/>
+      <x:c r="G18" s="16"/>
+      <x:c r="K18" s="1"/>
+    </x:row>
+    <x:row r="19" spans="10:11">
+      <x:c r="J19" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="K19" s="7">
+        <x:f>$B$4/13900</x:f>
+        <x:v>0.091582733812949638</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="10:11">
+      <x:c r="J20" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K20" s="8">
+        <x:f>$C$4/MAX($C$4:$C$13)</x:f>
+        <x:v>0.1494661921708185</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:11">
+      <x:c r="B21" s="9" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B10" s="1">
-        <x:v>11900000</x:v>
-      </x:c>
-      <x:c r="C10" s="1">
-        <x:v>8430000</x:v>
-      </x:c>
-      <x:c r="D10" s="1">
-        <x:v>4530000</x:v>
-      </x:c>
-      <x:c r="E10" s="1">
-        <x:v>2350000</x:v>
-      </x:c>
-      <x:c r="F10" s="1">
-        <x:v>1197000</x:v>
-      </x:c>
-      <x:c r="G10" s="1"/>
-    </x:row>
-    <x:row r="11" spans="1:7">
-      <x:c r="A11" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B11" s="1">
-        <x:v>12100000</x:v>
-      </x:c>
-      <x:c r="C11" s="1">
-        <x:v>8270000</x:v>
-      </x:c>
-      <x:c r="D11" s="1">
-        <x:v>4530000</x:v>
-      </x:c>
-      <x:c r="E11" s="1">
-        <x:v>2350000</x:v>
-      </x:c>
-      <x:c r="F11" s="1"/>
-      <x:c r="G11" s="1"/>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="A12" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B12" s="1">
-        <x:v>12200000</x:v>
-      </x:c>
-      <x:c r="C12" s="1">
-        <x:v>8250000</x:v>
-      </x:c>
-      <x:c r="D12" s="1">
-        <x:v>4370000</x:v>
-      </x:c>
-      <x:c r="E12" s="1"/>
-      <x:c r="F12" s="1"/>
-      <x:c r="G12" s="1"/>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="A13" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="B13" s="1">
-        <x:v>12300000</x:v>
-      </x:c>
-      <x:c r="C13" s="1">
-        <x:v>7940000</x:v>
-      </x:c>
-      <x:c r="D13" s="1"/>
-      <x:c r="E13" s="1"/>
-      <x:c r="F13" s="1"/>
-      <x:c r="G13" s="1"/>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="A14" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B14" s="1">
-        <x:v>12550000</x:v>
-      </x:c>
-      <x:c r="C14" s="1">
-        <x:v>7500000</x:v>
-      </x:c>
-      <x:c r="D14" s="1"/>
-      <x:c r="E14" s="1"/>
-      <x:c r="F14" s="1"/>
-      <x:c r="G14" s="1"/>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B15">
-        <x:v>12500000</x:v>
-      </x:c>
-      <x:c r="C15">
-        <x:v>7100000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B16">
-        <x:v>12000000</x:v>
-      </x:c>
-      <x:c r="C16">
-        <x:v>6700000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B17">
-        <x:v>11200000</x:v>
-      </x:c>
-      <x:c r="C17">
-        <x:v>7940000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B18">
-        <x:v>11500000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="2:7">
-      <x:c r="B21" s="9" t="s">
+      <x:c r="C21" s="11"/>
+      <x:c r="D21" s="11"/>
+      <x:c r="E21" s="11"/>
+      <x:c r="F21" s="11"/>
+      <x:c r="G21" s="11"/>
+      <x:c r="J21" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K21" s="8">
+        <x:f>$D$4/MAX($D$4:$D$13)</x:f>
+        <x:v>0.26909492273730684</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:11">
+      <x:c r="B22" s="11"/>
+      <x:c r="C22" s="11"/>
+      <x:c r="D22" s="11"/>
+      <x:c r="E22" s="11"/>
+      <x:c r="F22" s="11"/>
+      <x:c r="G22" s="11"/>
+      <x:c r="J22" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C21" s="10"/>
-      <x:c r="D21" s="10"/>
-      <x:c r="E21" s="10"/>
-      <x:c r="F21" s="10"/>
-      <x:c r="G21" s="10"/>
-    </x:row>
-    <x:row r="22" spans="2:7">
-      <x:c r="B22" s="10"/>
-      <x:c r="C22" s="10"/>
-      <x:c r="D22" s="10"/>
-      <x:c r="E22" s="10"/>
-      <x:c r="F22" s="10"/>
-      <x:c r="G22" s="10"/>
-    </x:row>
-    <x:row r="23" spans="1:7">
+      <x:c r="K22" s="8">
+        <x:f>$E$4/MAX($E$4:$E$13)</x:f>
+        <x:v>0.47489361702127658</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:11">
       <x:c r="A23" s="1"/>
       <x:c r="B23" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:7">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J23" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K23" s="8">
+        <x:f>$F$4/MAX($F$4:$F$13)</x:f>
+        <x:v>0.67167919799498743</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:11">
       <x:c r="A24" s="1">
         <x:v>32</x:v>
       </x:c>
       <x:c r="B24" s="7">
-        <x:f>B4/13900000</x:f>
+        <x:f>$B$4/13900</x:f>
         <x:v>0.091582733812949638</x:v>
       </x:c>
       <x:c r="C24" s="8">
-        <x:f>C4/MAX($C$4:$C$13)</x:f>
+        <x:f>$C$4/MAX($C$4:$C$13)</x:f>
         <x:v>0.1494661921708185</x:v>
       </x:c>
       <x:c r="D24" s="8">
-        <x:f>D4/MAX($D$4:$D$13)</x:f>
+        <x:f>$D$4/MAX($D$4:$D$13)</x:f>
         <x:v>0.26909492273730684</x:v>
       </x:c>
       <x:c r="E24" s="8">
-        <x:f>E4/MAX($E$4:$E$13)</x:f>
+        <x:f>$E$4/MAX($E$4:$E$13)</x:f>
         <x:v>0.47489361702127658</x:v>
       </x:c>
       <x:c r="F24" s="8">
-        <x:f>F4/MAX($F$4:$F$13)</x:f>
-        <x:v>0.67209690893901419</x:v>
+        <x:f>$F$4/MAX($F$4:$F$13)</x:f>
+        <x:v>0.67167919799498743</x:v>
       </x:c>
       <x:c r="G24" s="8">
-        <x:f>G4/MAX($G$4:$G$13)</x:f>
+        <x:f>$G$4/MAX($G$4:$G$13)</x:f>
+        <x:v>0.86257668711656443</x:v>
+      </x:c>
+      <x:c r="J24" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K24" s="8">
+        <x:f>$G$4/MAX($G$4:$G$13)</x:f>
         <x:v>0.86257668711656443</x:v>
       </x:c>
     </x:row>
@@ -9123,28 +9625,28 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B25" s="7">
-        <x:f t="shared" ref="B25:B38" si="0">B5/13900000</x:f>
+        <x:f>B5/13900</x:f>
         <x:v>0.16935251798561152</x:v>
       </x:c>
       <x:c r="C25" s="8">
-        <x:f t="shared" ref="C25:C38" si="1">C5/MAX($C$4:$C$13)</x:f>
+        <x:f t="shared" ref="C25:C38" si="0">C5/MAX($C$4:$C$13)</x:f>
         <x:v>0.27046263345195731</x:v>
       </x:c>
       <x:c r="D25" s="8">
-        <x:f t="shared" ref="D25:D34" si="2">D5/MAX($D$4:$D$13)</x:f>
+        <x:f t="shared" ref="D25:D34" si="1">D5/MAX($D$4:$D$13)</x:f>
         <x:v>0.46357615894039733</x:v>
       </x:c>
       <x:c r="E25" s="8">
-        <x:f t="shared" ref="E25:E34" si="3">E5/MAX($E$4:$E$13)</x:f>
+        <x:f t="shared" ref="E25:E34" si="2">E5/MAX($E$4:$E$13)</x:f>
         <x:v>0.65957446808510634</x:v>
       </x:c>
       <x:c r="F25" s="8">
-        <x:f t="shared" ref="F25:F34" si="4">F5/MAX($F$4:$F$13)</x:f>
+        <x:f t="shared" ref="F25:F34" si="3">F5/MAX($F$4:$F$13)</x:f>
         <x:v>1</x:v>
       </x:c>
       <x:c r="G25" s="8">
-        <x:f t="shared" ref="G25:G34" si="5">G5/MAX($G$4:$G$13)</x:f>
-        <x:v>0.99975460122699389</x:v>
+        <x:f t="shared" ref="G25:G34" si="4">G5/MAX($G$4:$G$13)</x:f>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7">
@@ -9152,28 +9654,28 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="B26" s="7">
+        <x:f>B6/13900</x:f>
+        <x:v>0.29784172661870506</x:v>
+      </x:c>
+      <x:c r="C26" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.29784172661870506</x:v>
-      </x:c>
-      <x:c r="C26" s="8">
+        <x:v>0.42941874258600238</x:v>
+      </x:c>
+      <x:c r="D26" s="8">
         <x:f t="shared" si="1"/>
-        <x:v>0.42941874258600238</x:v>
-      </x:c>
-      <x:c r="D26" s="8">
+        <x:v>0.64900662251655628</x:v>
+      </x:c>
+      <x:c r="E26" s="8">
         <x:f t="shared" si="2"/>
-        <x:v>0.64900662251655628</x:v>
-      </x:c>
-      <x:c r="E26" s="8">
+        <x:v>0.99148936170212765</x:v>
+      </x:c>
+      <x:c r="F26" s="8">
         <x:f t="shared" si="3"/>
-        <x:v>0.99148936170212765</x:v>
-      </x:c>
-      <x:c r="F26" s="8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G26" s="8">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="G26" s="8">
-        <x:f t="shared" si="5"/>
-        <x:v>0.99975460122699389</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
@@ -9181,28 +9683,28 @@
         <x:v>256</x:v>
       </x:c>
       <x:c r="B27" s="7">
+        <x:f>B7/13900</x:f>
+        <x:v>0.46115107913669062</x:v>
+      </x:c>
+      <x:c r="C27" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.46115107913669062</x:v>
-      </x:c>
-      <x:c r="C27" s="8">
+        <x:v>0.60142348754448394</x:v>
+      </x:c>
+      <x:c r="D27" s="8">
         <x:f t="shared" si="1"/>
-        <x:v>0.60142348754448394</x:v>
-      </x:c>
-      <x:c r="D27" s="8">
+        <x:v>0.96026490066225167</x:v>
+      </x:c>
+      <x:c r="E27" s="8">
         <x:f t="shared" si="2"/>
-        <x:v>0.96026490066225167</x:v>
-      </x:c>
-      <x:c r="E27" s="8">
+        <x:v>0.99957446808510642</x:v>
+      </x:c>
+      <x:c r="F27" s="8">
         <x:f t="shared" si="3"/>
-        <x:v>0.99957446808510642</x:v>
-      </x:c>
-      <x:c r="F27" s="8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G27" s="8">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="G27" s="8">
-        <x:f t="shared" si="5"/>
-        <x:v>0.99987730061349689</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7">
@@ -9210,27 +9712,27 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="B28" s="7">
+        <x:f>B8/13900</x:f>
+        <x:v>0.59136690647482015</x:v>
+      </x:c>
+      <x:c r="C28" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.59136690647482015</x:v>
-      </x:c>
-      <x:c r="C28" s="8">
+        <x:v>0.83036773428232502</x:v>
+      </x:c>
+      <x:c r="D28" s="8">
         <x:f t="shared" si="1"/>
-        <x:v>0.83036773428232502</x:v>
-      </x:c>
-      <x:c r="D28" s="8">
+        <x:v>0.99977924944812357</x:v>
+      </x:c>
+      <x:c r="E28" s="8">
         <x:f t="shared" si="2"/>
-        <x:v>0.99977924944812357</x:v>
-      </x:c>
-      <x:c r="E28" s="8">
+        <x:v>0.99957446808510642</x:v>
+      </x:c>
+      <x:c r="F28" s="8">
         <x:f t="shared" si="3"/>
-        <x:v>0.99957446808510642</x:v>
-      </x:c>
-      <x:c r="F28" s="8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G28" s="8">
         <x:f t="shared" si="4"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G28" s="8">
-        <x:f t="shared" si="5"/>
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -9239,185 +9741,185 @@
         <x:v>1024</x:v>
       </x:c>
       <x:c r="B29" s="7">
+        <x:f>B9/13900</x:f>
+        <x:v>0.76258992805755399</x:v>
+      </x:c>
+      <x:c r="C29" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.76258992805755399</x:v>
-      </x:c>
-      <x:c r="C29" s="8">
+        <x:v>0.97271648873072358</x:v>
+      </x:c>
+      <x:c r="D29" s="8">
         <x:f t="shared" si="1"/>
-        <x:v>0.97271648873072358</x:v>
-      </x:c>
-      <x:c r="D29" s="8">
+        <x:v>0.99977924944812357</x:v>
+      </x:c>
+      <x:c r="E29" s="8">
         <x:f t="shared" si="2"/>
-        <x:v>0.99977924944812357</x:v>
-      </x:c>
-      <x:c r="E29" s="8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F29" s="8">
         <x:f t="shared" si="3"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F29" s="8">
+      <x:c r="G29" s="8">
         <x:f t="shared" si="4"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="G29" s="8">
-        <x:f t="shared" si="5"/>
-        <x:v>1</x:v>
-      </x:c>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B30" s="7">
+        <x:f>B10/13900</x:f>
+        <x:v>0.85611510791366907</x:v>
+      </x:c>
+      <x:c r="C30" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.85611510791366907</x:v>
-      </x:c>
-      <x:c r="C30" s="8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D30" s="8">
         <x:f t="shared" si="1"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D30" s="8">
+      <x:c r="E30" s="8">
         <x:f t="shared" si="2"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E30" s="8">
+      <x:c r="F30" s="8">
         <x:f t="shared" si="3"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F30" s="8">
+      <x:c r="G30" s="8">
         <x:f t="shared" si="4"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G30" s="8">
-        <x:f t="shared" si="5"/>
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B31" s="7">
+        <x:f>B11/13900</x:f>
+        <x:v>0.87050359712230219</x:v>
+      </x:c>
+      <x:c r="C31" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.87050359712230219</x:v>
-      </x:c>
-      <x:c r="C31" s="8">
+        <x:v>0.98102016607354681</x:v>
+      </x:c>
+      <x:c r="D31" s="8">
         <x:f t="shared" si="1"/>
-        <x:v>0.98102016607354681</x:v>
-      </x:c>
-      <x:c r="D31" s="8">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E31" s="8">
         <x:f t="shared" si="2"/>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E31" s="8">
+      <x:c r="F31" s="8">
         <x:f t="shared" si="3"/>
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F31" s="8">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G31" s="8">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G31" s="8">
-        <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
-      </x:c>
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B32" s="7">
+        <x:f>B12/13900</x:f>
+        <x:v>0.87769784172661869</x:v>
+      </x:c>
+      <x:c r="C32" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.87769784172661869</x:v>
-      </x:c>
-      <x:c r="C32" s="8">
+        <x:v>0.97864768683274017</x:v>
+      </x:c>
+      <x:c r="D32" s="8">
         <x:f t="shared" si="1"/>
-        <x:v>0.97864768683274017</x:v>
-      </x:c>
-      <x:c r="D32" s="8">
+        <x:v>0.96467991169977929</x:v>
+      </x:c>
+      <x:c r="E32" s="8">
         <x:f t="shared" si="2"/>
-        <x:v>0.96467991169977929</x:v>
-      </x:c>
-      <x:c r="E32" s="8">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F32" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F32" s="8">
+      <x:c r="G32" s="8">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G32" s="8">
-        <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
-      </x:c>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B33" s="7">
+        <x:f>B13/13900</x:f>
+        <x:v>0.8848920863309353</x:v>
+      </x:c>
+      <x:c r="C33" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.8848920863309353</x:v>
-      </x:c>
-      <x:c r="C33" s="8">
+        <x:v>0.94187425860023721</x:v>
+      </x:c>
+      <x:c r="D33" s="8">
         <x:f t="shared" si="1"/>
-        <x:v>0.94187425860023721</x:v>
-      </x:c>
-      <x:c r="D33" s="8">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E33" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E33" s="8">
+      <x:c r="F33" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F33" s="8">
+      <x:c r="G33" s="8">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G33" s="8">
-        <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
-      </x:c>
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B34" s="7">
+        <x:f>B14/13900</x:f>
+        <x:v>0.90287769784172667</x:v>
+      </x:c>
+      <x:c r="C34" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.90287769784172667</x:v>
-      </x:c>
-      <x:c r="C34" s="8">
+        <x:v>0.88967971530249113</x:v>
+      </x:c>
+      <x:c r="D34" s="8">
         <x:f t="shared" si="1"/>
-        <x:v>0.88967971530249113</x:v>
-      </x:c>
-      <x:c r="D34" s="8">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E34" s="8">
         <x:f t="shared" si="2"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E34" s="8">
+      <x:c r="F34" s="8">
         <x:f t="shared" si="3"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F34" s="8">
+      <x:c r="G34" s="8">
         <x:f t="shared" si="4"/>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="G34" s="8">
-        <x:f t="shared" si="5"/>
-        <x:v>0</x:v>
-      </x:c>
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B35" s="7">
+        <x:f>B15/13900</x:f>
+        <x:v>0.89928057553956831</x:v>
+      </x:c>
+      <x:c r="C35" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.89928057553956831</x:v>
-      </x:c>
-      <x:c r="C35" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.8422301304863582</x:v>
       </x:c>
       <x:c r="D35" s="8"/>
@@ -9427,14 +9929,14 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B36" s="7">
+        <x:f>B16/13900</x:f>
+        <x:v>0.86330935251798557</x:v>
+      </x:c>
+      <x:c r="C36" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.86330935251798557</x:v>
-      </x:c>
-      <x:c r="C36" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.79478054567022538</x:v>
       </x:c>
       <x:c r="D36" s="8"/>
@@ -9442,19 +9944,19 @@
       <x:c r="F36" s="8"/>
       <x:c r="G36" s="8"/>
       <x:c r="H36" t="s">
-        <x:v>30</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B37" s="7">
+        <x:f>B17/13900</x:f>
+        <x:v>0.80575539568345322</x:v>
+      </x:c>
+      <x:c r="C37" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.80575539568345322</x:v>
-      </x:c>
-      <x:c r="C37" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.94187425860023721</x:v>
       </x:c>
       <x:c r="D37" s="8"/>
@@ -9464,14 +9966,14 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B38" s="7">
+        <x:f>B18/13900</x:f>
+        <x:v>0.82733812949640284</x:v>
+      </x:c>
+      <x:c r="C38" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.82733812949640284</x:v>
-      </x:c>
-      <x:c r="C38" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0</x:v>
       </x:c>
       <x:c r="D38" s="8"/>
@@ -9481,41 +9983,41 @@
     </x:row>
     <x:row r="41" spans="2:7">
       <x:c r="B41" s="9" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C41" s="10"/>
-      <x:c r="D41" s="10"/>
-      <x:c r="E41" s="10"/>
-      <x:c r="F41" s="10"/>
-      <x:c r="G41" s="10"/>
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C41" s="11"/>
+      <x:c r="D41" s="11"/>
+      <x:c r="E41" s="11"/>
+      <x:c r="F41" s="11"/>
+      <x:c r="G41" s="11"/>
     </x:row>
     <x:row r="42" spans="2:7">
-      <x:c r="B42" s="10"/>
-      <x:c r="C42" s="10"/>
-      <x:c r="D42" s="10"/>
-      <x:c r="E42" s="10"/>
-      <x:c r="F42" s="10"/>
-      <x:c r="G42" s="10"/>
+      <x:c r="B42" s="11"/>
+      <x:c r="C42" s="11"/>
+      <x:c r="D42" s="11"/>
+      <x:c r="E42" s="11"/>
+      <x:c r="F42" s="11"/>
+      <x:c r="G42" s="11"/>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="1"/>
       <x:c r="B43" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
@@ -9658,7 +10160,7 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B50" s="1">
         <x:v>5830</x:v>
@@ -9679,7 +10181,7 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B51" s="1">
         <x:v>2960</x:v>
@@ -9698,7 +10200,7 @@
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B52" s="1">
         <x:v>1490</x:v>
@@ -9715,7 +10217,7 @@
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B53" s="1">
         <x:v>752</x:v>
@@ -9730,7 +10232,7 @@
     </x:row>
     <x:row r="54" spans="1:7">
       <x:c r="A54" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B54" s="1">
         <x:v>384</x:v>
@@ -9745,7 +10247,7 @@
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B55">
         <x:v>191</x:v>
@@ -9756,7 +10258,7 @@
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B56">
         <x:v>92</x:v>
@@ -9767,7 +10269,7 @@
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B57">
         <x:v>44</x:v>
@@ -9778,7 +10280,7 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B58">
         <x:v>22</x:v>
@@ -9790,8 +10292,9 @@
     <x:mergeCell ref="B21:G22"/>
     <x:mergeCell ref="B41:G42"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:drawing r:id="rId1"/>
 </x:worksheet>
 </file>
 
@@ -9806,7 +10309,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -9817,7 +10320,7 @@
   <x:sheetPr codeName="Sheet10"/>
   <x:dimension ref="A1:H54"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="D42" activeCellId="0" sqref="D42:D42"/>
     </x:sheetView>
   </x:sheetViews>
@@ -9830,17 +10333,17 @@
   <x:sheetData>
     <x:row r="1" spans="2:7" ht="24.949999999999999" customHeight="1">
       <x:c r="B1" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C1" s="11"/>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="10"/>
       <x:c r="D1" s="2"/>
       <x:c r="E1" s="2"/>
       <x:c r="F1" s="2"/>
       <x:c r="G1" s="2"/>
     </x:row>
     <x:row r="2" spans="2:7">
-      <x:c r="B2" s="11"/>
-      <x:c r="C2" s="11"/>
+      <x:c r="B2" s="10"/>
+      <x:c r="C2" s="10"/>
       <x:c r="D2" s="2"/>
       <x:c r="E2" s="2"/>
       <x:c r="F2" s="2"/>
@@ -9849,10 +10352,10 @@
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="1"/>
       <x:c r="E3" s="1"/>
@@ -9861,7 +10364,7 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B4" s="1">
         <x:v>12000000</x:v>
@@ -9876,7 +10379,7 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B5" s="1">
         <x:v>12100000</x:v>
@@ -9891,7 +10394,7 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B6" s="1">
         <x:v>12270000</x:v>
@@ -9906,7 +10409,7 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="1">
         <x:v>12330000</x:v>
@@ -9921,7 +10424,7 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B8" s="1">
         <x:v>12600000</x:v>
@@ -9936,7 +10439,7 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B9">
         <x:v>12500000</x:v>
@@ -9951,7 +10454,7 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B10">
         <x:v>12000000</x:v>
@@ -9966,7 +10469,7 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B11">
         <x:v>11200000</x:v>
@@ -9981,7 +10484,7 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B12">
         <x:v>11500000</x:v>
@@ -10005,26 +10508,26 @@
     </x:row>
     <x:row r="15" spans="2:3">
       <x:c r="B15" s="9" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C15" s="11"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C15" s="10"/>
     </x:row>
     <x:row r="16" spans="2:3">
-      <x:c r="B16" s="11"/>
-      <x:c r="C16" s="11"/>
+      <x:c r="B16" s="10"/>
+      <x:c r="C16" s="10"/>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="1"/>
       <x:c r="B17" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B18" s="7">
         <x:f t="shared" ref="B18:B26" si="0">B4/13900000</x:f>
@@ -10037,7 +10540,7 @@
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B19" s="7">
         <x:f t="shared" si="0"/>
@@ -10050,7 +10553,7 @@
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B20" s="7">
         <x:f t="shared" si="0"/>
@@ -10063,7 +10566,7 @@
     </x:row>
     <x:row r="21" spans="1:7" ht="24.949999999999999" customHeight="1">
       <x:c r="A21" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B21" s="7">
         <x:f t="shared" si="0"/>
@@ -10080,7 +10583,7 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="7">
         <x:f t="shared" si="0"/>
@@ -10097,7 +10600,7 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="7">
         <x:f t="shared" si="0"/>
@@ -10114,7 +10617,7 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B24" s="7">
         <x:f t="shared" si="0"/>
@@ -10131,7 +10634,7 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B25" s="7">
         <x:f t="shared" si="0"/>
@@ -10148,7 +10651,7 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B26" s="7">
         <x:f t="shared" si="0"/>
@@ -10177,17 +10680,17 @@
     </x:row>
     <x:row r="29" spans="2:7">
       <x:c r="B29" s="9" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C29" s="11"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C29" s="10"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
       <x:c r="F29" s="8"/>
       <x:c r="G29" s="8"/>
     </x:row>
     <x:row r="30" spans="2:7">
-      <x:c r="B30" s="11"/>
-      <x:c r="C30" s="11"/>
+      <x:c r="B30" s="10"/>
+      <x:c r="C30" s="10"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
       <x:c r="F30" s="8"/>
@@ -10196,10 +10699,10 @@
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1"/>
       <x:c r="B31" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
@@ -10208,7 +10711,7 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B32" s="1">
         <x:v>5848</x:v>
@@ -10223,7 +10726,7 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B33" s="1">
         <x:v>2970</x:v>
@@ -10238,7 +10741,7 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B34" s="1">
         <x:v>1497</x:v>
@@ -10253,7 +10756,7 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B35" s="1">
         <x:v>755</x:v>
@@ -10268,7 +10771,7 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B36" s="1">
         <x:v>386</x:v>
@@ -10281,12 +10784,12 @@
       <x:c r="F36" s="8"/>
       <x:c r="G36" s="8"/>
       <x:c r="H36" t="s">
-        <x:v>30</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>191</x:v>
@@ -10301,7 +10804,7 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>92</x:v>
@@ -10316,7 +10819,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>44</x:v>
@@ -10327,7 +10830,7 @@
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>22</x:v>
@@ -10423,7 +10926,7 @@
     <x:mergeCell ref="B15:C16"/>
     <x:mergeCell ref="B29:C30"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/batch_size_test.xlsx
+++ b/batch_size_test.xlsx
@@ -4,40 +4,93 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22776" windowHeight="8664" tabRatio="647"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22776" windowHeight="8664" tabRatio="886" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="02.25 persistent loop" sheetId="1" r:id="rId4"/>
-    <x:sheet name="02.26 memcpy test" sheetId="2" r:id="rId5"/>
-    <x:sheet name="02.27 memcpy test" sheetId="3" r:id="rId6"/>
-    <x:sheet name="02.27 memcpy test graph" sheetId="4" r:id="rId7"/>
-    <x:sheet name="02.28 kernel launch" sheetId="5" r:id="rId8"/>
-    <x:sheet name="02.28 kernel launch graph" sheetId="6" r:id="rId9"/>
-    <x:sheet name="02.28 kernel launch 64 thread" sheetId="7" r:id="rId10"/>
+    <x:sheet name="03.03 persistent loop graph" sheetId="2" r:id="rId5"/>
+    <x:sheet name="02.26 memcpy test" sheetId="3" r:id="rId6"/>
+    <x:sheet name="02.27 memcpy test" sheetId="4" r:id="rId7"/>
+    <x:sheet name="02.27 memcpy test graph" sheetId="5" r:id="rId8"/>
+    <x:sheet name="02.28 kernel launch" sheetId="6" r:id="rId9"/>
+    <x:sheet name="02.28 kernel launch graph" sheetId="7" r:id="rId10"/>
+    <x:sheet name="02.28 kernel launch 64 thread" sheetId="8" r:id="rId11"/>
+    <x:sheet name="03.03 polling 64 thread" sheetId="9" r:id="rId12"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="48">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="47">
   <x:si>
-    <x:t>packet size별 batch size에 따른 rx rate</x:t>
+    <x:t>1024*512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.260Mpps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.219Mpps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.703Mpps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.116Mpps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.273Mpps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.804Mpps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 1024 * 32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>512 (2.35Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>256 (4.5Mpps)</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 1024 * 4</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024 * 32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>256 (4.5Mpps)</x:t>
+    <x:t>64 * 1024 * 2</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 1024 * 8</x:t>
   </x:si>
   <x:si>
+    <x:t>cudaMemcpy 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>128 (8.4Mpps)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1514 (0.8 Mpps)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 (13.9Mpps)</x:t>
   </x:si>
   <x:si>
     <x:t>Ascending Order</x:t>
@@ -46,22 +99,25 @@
     <x:t>1024 (1.2Mpps)</x:t>
   </x:si>
   <x:si>
-    <x:t>512 (2.35Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 1024 * 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cudaMemcpy 횟수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>128 (8.4Mpps)</x:t>
-  </x:si>
-  <x:si>
     <x:t>64 * 1024 * 16</x:t>
   </x:si>
   <x:si>
     <x:t>packet size별 batch size에 따른 cudaMemcpy call 횟수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64 * 64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1024*8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rx rate</x:t>
   </x:si>
   <x:si>
     <x:t>1024*2</x:t>
@@ -70,100 +126,43 @@
     <x:t>1024*16</x:t>
   </x:si>
   <x:si>
-    <x:t>ㄴㄴㄴㄴ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*8</x:t>
+    <x:t>1024*64</x:t>
   </x:si>
   <x:si>
     <x:t>64 * 32</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 * 64</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1024*64</x:t>
+    <x:t>Polling</x:t>
   </x:si>
   <x:si>
     <x:t>100times loop / random data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 256</x:t>
+    <x:t>100 times loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 512</x:t>
+    <x:t>same size loop / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 128</x:t>
+    <x:t>packet size별 batch size에 따른 pps</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*512</x:t>
+    <x:t>same size loop / random data</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*128</x:t>
+    <x:t>packet size별 batch size에 따른 rx rate</x:t>
   </x:si>
   <x:si>
-    <x:t>64 * 1024</x:t>
+    <x:t>Descending Order</x:t>
   </x:si>
   <x:si>
-    <x:t>1024*256</x:t>
+    <x:t>once / random data</x:t>
   </x:si>
   <x:si>
     <x:t>once / normal data</x:t>
   </x:si>
   <x:si>
-    <x:t>Descending Order</x:t>
-  </x:si>
-  <x:si>
     <x:t>64 (13.8~14.0Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>once / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>same size loop / random data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 times loop / normal data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>packet size별 batch size에 따른 pps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>same size loop / normal data</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.116Mpps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.260Mpps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.804Mpps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.273Mpps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.703Mpps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.219Mpps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rx rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>64 (13.9Mpps)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polling</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -316,7 +315,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="24">
+  <x:cellXfs count="28">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -364,61 +363,6 @@
     <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -517,6 +461,93 @@
       </mc:Fallback>
     </mc:AlternateContent>
     <x:xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="right" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="right" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -931,7 +962,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1139,7 +1170,1473 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>Polling : pps rate</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$B$21:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.139784172661871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.278848920863309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.556834532374101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.741726618705036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.768345323741007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.962589928057554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.963309352517986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.899280575539568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.902877697841727</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.897841726618705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.918705035971223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.231785714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.461785714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.671428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0002380952381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0052380952381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00535714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00535714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00547619047619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.00357142857143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.954761904761905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$D$21:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.431555555555556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00555555555556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.00622222222222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.00622222222222</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.00622222222222</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.00622222222222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00622222222222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.982222222222222</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$E$21:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.822978723404255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$F$21:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.991666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.991666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9975</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.991666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.991666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$21:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$G$21:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="281598698"/>
+        <c:axId val="989470659"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="281598698"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="989470659"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="989470659"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="281598698"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>Polling : call count</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$37:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$B$37:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60550</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6420</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$37:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$C$37:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16490</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>256 (4.5Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$37:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>512 (2.35Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$37:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$E$37:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$37:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$F$37:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>37351</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.25 persistent loop'!$A$37:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.25 persistent loop'!$G$37:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>25450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="287247404"/>
+        <c:axId val="875730334"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="287247404"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="875730334"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="875730334"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="287247404"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1533,7 +3030,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1917,7 +3414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2620,7 +4117,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3041,7 +4538,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3744,7 +5241,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4165,7 +5662,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4331,7 +5828,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4352,7 +5849,7 @@
             <a:pPr algn="l">
               <a:defRPr sz="2000" b="1" i="0" u="none">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="함초롬돋움" panose="0"/>
                 <a:ea typeface="함초롬돋움" panose="0"/>
@@ -4363,14 +5860,14 @@
             <a:r>
               <a:rPr sz="2000" b="1" i="0" u="none">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="함초롬돋움" panose="0"/>
                 <a:ea typeface="함초롬돋움" panose="0"/>
                 <a:cs typeface="함초롬돋움" panose="0"/>
                 <a:sym typeface="함초롬돋움" panose="0"/>
               </a:rPr>
-              <a:t>pps test with kernel launch</a:t>
+              <a:t>Kernel Launch : pps rate</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -4391,67 +5888,95 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$20</c:f>
+              <c:f>'02.28 kernel launch'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$24:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$20:$G$20</c:f>
+              <c:f>'02.28 kernel launch'!$B$24:$B$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0915827338129496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.169352517985612</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.297841726618705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>0.461151079136691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>0.59136690647482</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>0.762589928057554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.856115107913669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.870503597122302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.877697841726619</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.884892086330935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.902877697841727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,67 +5987,95 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$21</c:f>
+              <c:f>'02.28 kernel launch'!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>128 (8.4Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$24:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$21:$G$21</c:f>
+              <c:f>'02.28 kernel launch'!$C$24:$C$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.149466192170819</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.270462633451957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.429418742586002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>0.601423487544484</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>0.830367734282325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>0.972716488730724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.981020166073547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.97864768683274</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.941874258600237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.889679715302491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4533,67 +6086,95 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$22</c:f>
+              <c:f>'02.28 kernel launch'!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>256 (4.5Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$24:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$22:$G$22</c:f>
+              <c:f>'02.28 kernel launch'!$D$24:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.269094922737307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.463576158940397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0.649006622516556</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>0.960264900662252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>0.999779249448124</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>0.999779249448124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.964679911699779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4604,66 +6185,94 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$23</c:f>
+              <c:f>'02.28 kernel launch'!$E$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>512 (2.35Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$24:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$23:$G$23</c:f>
+              <c:f>'02.28 kernel launch'!$E$24:$E$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.474893617021277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.659574468085106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.991489361702128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.999574468085106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4673,58 +6282,97 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:spPr/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$F$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024 (1.2Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$24:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$24:$G$24</c:f>
+              <c:f>'02.28 kernel launch'!$F$24:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.0915827338129496</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.671679197994987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.149466192170819</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.269094922737307</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.474893617021277</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.671679197994987</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.862576687116564</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4733,52 +6381,76 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:spPr/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$G$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1514 (0.8 Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
+            <c:strRef>
+              <c:f>'02.28 kernel launch'!$A$24:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$25:$G$25</c:f>
+              <c:f>'02.28 kernel launch'!$G$24:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.169352517985612</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.862576687116564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.270462633451957</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.463576158940397</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.659574468085106</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -4786,185 +6458,20 @@
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$26:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.297841726618705</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.429418742586002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.649006622516556</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.991489361702128</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$27:$G$27</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.461151079136691</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.601423487544484</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.960264900662252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.999574468085106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$28:$G$28</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.59136690647482</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.830367734282325</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.999779249448124</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.999574468085106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4972,18 +6479,18 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="780291972"/>
-        <c:axId val="200596670"/>
+        <c:axId val="256430135"/>
+        <c:axId val="865752676"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="780291972"/>
+        <c:axId val="256430135"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:crossAx val="200596670"/>
+        <c:crossAx val="865752676"/>
         <c:delete val="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crosses val="autoZero"/>
@@ -4994,18 +6501,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200596670"/>
+        <c:axId val="865752676"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:crossAx val="780291972"/>
+        <c:crossAx val="256430135"/>
         <c:delete val="0"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5047,7 +6561,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <c:date1904 val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5068,7 +6582,7 @@
             <a:pPr algn="l">
               <a:defRPr sz="2000" b="1" i="0" u="none">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="함초롬돋움" panose="0"/>
                 <a:ea typeface="함초롬돋움" panose="0"/>
@@ -5079,14 +6593,14 @@
             <a:r>
               <a:rPr sz="2000" b="1" i="0" u="none">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="함초롬돋움" panose="0"/>
                 <a:ea typeface="함초롬돋움" panose="0"/>
                 <a:cs typeface="함초롬돋움" panose="0"/>
                 <a:sym typeface="함초롬돋움" panose="0"/>
               </a:rPr>
-              <a:t>pps test with kernel launch</a:t>
+              <a:t>Kernel Launch : call count</a:t>
             </a:r>
             <a:endParaRPr/>
           </a:p>
@@ -5107,96 +6621,95 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$B$19</c:f>
+              <c:f>'02.28 kernel launch'!$B$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
+              <c:f>'02.28 kernel launch'!$A$44:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>1024*2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256</c:v>
+                  <c:v>1024*4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512</c:v>
+                  <c:v>1024*8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024</c:v>
+                  <c:v>1024*16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024*2</c:v>
+                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$B$20:$B$30</c:f>
+              <c:f>'02.28 kernel launch'!$B$44:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>39530</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>31900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>25133</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0915827338129496</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.169352517985612</c:v>
+                  <c:v>10425</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.297841726618705</c:v>
+                  <c:v>5830</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.461151079136691</c:v>
+                  <c:v>2960</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59136690647482</c:v>
+                  <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.762589928057554</c:v>
+                  <c:v>752</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.856115107913669</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5207,96 +6720,95 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$C$19</c:f>
+              <c:f>'02.28 kernel launch'!$C$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>128 (8.4Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
+              <c:f>'02.28 kernel launch'!$A$44:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>1024*2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256</c:v>
+                  <c:v>1024*4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512</c:v>
+                  <c:v>1024*8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024</c:v>
+                  <c:v>1024*16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024*2</c:v>
+                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$C$20:$C$30</c:f>
+              <c:f>'02.28 kernel launch'!$C$44:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>39470</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>35600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>28400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.149466192170819</c:v>
+                  <c:v>13600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.270462633451957</c:v>
+                  <c:v>8020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.429418742586002</c:v>
+                  <c:v>4113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.601423487544484</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.830367734282325</c:v>
+                  <c:v>1008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.972716488730724</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5307,96 +6819,95 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$D$19</c:f>
+              <c:f>'02.28 kernel launch'!$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>256 (4.5Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
+              <c:f>'02.28 kernel launch'!$A$44:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>1024*2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256</c:v>
+                  <c:v>1024*4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512</c:v>
+                  <c:v>1024*8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024</c:v>
+                  <c:v>1024*16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024*2</c:v>
+                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$D$20:$D$30</c:f>
+              <c:f>'02.28 kernel launch'!$D$44:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.269094922737307</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.463576158940397</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.649006622516556</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.960264900662252</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.999779249448124</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.999779249448124</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5407,96 +6918,95 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$E$19</c:f>
+              <c:f>'02.28 kernel launch'!$E$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>512 (2.35Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
+              <c:f>'02.28 kernel launch'!$A$44:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>1024*2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256</c:v>
+                  <c:v>1024*4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512</c:v>
+                  <c:v>1024*8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024</c:v>
+                  <c:v>1024*16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024*2</c:v>
+                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$E$20:$E$30</c:f>
+              <c:f>'02.28 kernel launch'!$E$44:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="9">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.474893617021277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.659574468085106</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.991489361702128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.999574468085106</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.999574468085106</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5507,96 +7017,95 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$F$19</c:f>
+              <c:f>'02.28 kernel launch'!$F$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>1024 (1.2Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
+              <c:f>'02.28 kernel launch'!$A$44:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>1024*2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256</c:v>
+                  <c:v>1024*4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512</c:v>
+                  <c:v>1024*8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024</c:v>
+                  <c:v>1024*16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024*2</c:v>
+                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$F$20:$F$30</c:f>
+              <c:f>'02.28 kernel launch'!$F$44:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>25100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="8">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.671679197994987</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5607,96 +7116,95 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$G$19</c:f>
+              <c:f>'02.28 kernel launch'!$G$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>1514 (0.8 Mpps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr/>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'02.28 kernel launch'!$A$20:$A$30</c:f>
+              <c:f>'02.28 kernel launch'!$A$44:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>1024*2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>256</c:v>
+                  <c:v>1024*4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>512</c:v>
+                  <c:v>1024*8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1024</c:v>
+                  <c:v>1024*16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1024*2</c:v>
+                  <c:v>1024*32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'02.28 kernel launch'!$G$20:$G$30</c:f>
+              <c:f>'02.28 kernel launch'!$G$44:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>21970</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6363</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>796</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v/>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.862576687116564</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5704,18 +7212,18 @@
         </c:ser>
         <c:gapWidth val="150"/>
         <c:overlap val="0"/>
-        <c:axId val="780291972"/>
-        <c:axId val="200596670"/>
+        <c:axId val="264259888"/>
+        <c:axId val="648324146"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="780291972"/>
+        <c:axId val="264259888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:crossAx val="200596670"/>
+        <c:crossAx val="648324146"/>
         <c:delete val="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crosses val="autoZero"/>
@@ -5726,18 +7234,25 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200596670"/>
+        <c:axId val="648324146"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:crossAx val="780291972"/>
+        <c:crossAx val="264259888"/>
         <c:delete val="0"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5779,72 +7294,1261 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame fPublished="0">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="12592051" cy="6086474"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame fPublished="0">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="6791325"/>
-        <a:ext cx="12592051" cy="6086474"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>Kernel Launch : pps rate</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch 64 thread'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch 64 thread'!$A$18:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch 64 thread'!$B$18:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.952380952380952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96031746031746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.973809523809524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.978571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.992063492063492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.952380952380952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.912698412698413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch 64 thread'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch 64 thread'!$A$18:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch 64 thread'!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.984597156398104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.983412322274882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.940758293838863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.888625592417062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.841232227488152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.793838862559242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.940758293838863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="228164587"/>
+        <c:axId val="946071321"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="228164587"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="946071321"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="946071321"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="228164587"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>Kernel Launch : pps rate</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch 64 thread'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch 64 thread'!$A$18:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch 64 thread'!$B$32:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.28 kernel launch 64 thread'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'02.28 kernel launch 64 thread'!$A$18:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'02.28 kernel launch 64 thread'!$C$32:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="228164587"/>
+        <c:axId val="946071321"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="228164587"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="946071321"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="946071321"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="228164587"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>Polling : pps rate</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03.03 polling 64 thread'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'03.03 polling 64 thread'!$A$18:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'03.03 polling 64 thread'!$B$18:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.955223880597015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.932835820895522</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.932835820895522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.947761194029851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.932835820895522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.895522388059702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.858208955223881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82089552238806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03.03 polling 64 thread'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'03.03 polling 64 thread'!$A$18:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'03.03 polling 64 thread'!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.947867298578199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.888625592417062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.845971563981043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.791469194312796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7760663507109</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="187838262"/>
+        <c:axId val="377453084"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="187838262"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="377453084"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="377453084"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="187838262"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <c:date1904 val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="2000" b="1" i="0" u="none">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="함초롬돋움" panose="0"/>
+                <a:ea typeface="함초롬돋움" panose="0"/>
+                <a:cs typeface="함초롬돋움" panose="0"/>
+                <a:sym typeface="함초롬돋움" panose="0"/>
+              </a:rPr>
+              <a:t>Polling : call count</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03.03 polling 64 thread'!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>64 (13.8~14.0Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'03.03 polling 64 thread'!$A$32:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'03.03 polling 64 thread'!$B$32:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03.03 polling 64 thread'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>128 (8.4Mpps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'03.03 polling 64 thread'!$A$32:$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1024*2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024*4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024*8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1024*16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024*32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024*64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024*128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024*256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024*512</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'03.03 polling 64 thread'!$C$32:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="207434404"/>
+        <c:axId val="126561182"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="207434404"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:crossAx val="126561182"/>
+        <c:delete val="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126561182"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:crossAx val="207434404"/>
+        <c:delete val="0"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+    <a:p>
+      <a:pPr algn="l">
+        <a:defRPr sz="1000" b="0" i="0" u="none">
+          <a:latin typeface="함초롬돋움" panose="0"/>
+          <a:ea typeface="함초롬돋움" panose="0"/>
+          <a:cs typeface="함초롬돋움" panose="0"/>
+          <a:sym typeface="함초롬돋움" panose="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:extLst>
+    <c:ext uri="CC8EB2C9-7E31-499d-B8F2-F6CE61031016">
+      <ho:hncChartStyle xmlns:ho="http://schemas.haansoft.com/office/8.0" layoutIndex="-1" colorIndex="0" styleIndex="0"/>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5865,8 +8569,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13506450" y="2886075"/>
-        <a:ext cx="6772276" cy="4200525"/>
+        <a:off x="13506451" y="2886075"/>
+        <a:ext cx="6772274" cy="4200525"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5879,7 +8583,72 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="11630025" cy="6067425"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="6572250"/>
+        <a:ext cx="11420475" cy="6210298"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5944,7 +8713,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6069,20 +8838,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing38.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1424940</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1242060</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame fPublished="0">
       <xdr:nvGraphicFramePr>
@@ -6090,12 +8859,207 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11572874" y="4667250"/>
+        <a:off x="16706851" y="4648200"/>
         <a:ext cx="5715000" cy="3457575"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing39.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="914399" y="4048125"/>
+        <a:ext cx="10429874" cy="5848350"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="838200" y="10515600"/>
+        <a:ext cx="9772651" cy="6086475"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373379</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1554480</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7896225" y="847724"/>
+        <a:ext cx="7877174" cy="4362450"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8324850" y="6677024"/>
+        <a:ext cx="7877174" cy="4362450"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8048625" y="276225"/>
+        <a:ext cx="7639050" cy="5010150"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1653540</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame fPublished="0">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8048626" y="6105524"/>
+        <a:ext cx="7848600" cy="4210049"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6361,8 +9325,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:P52"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H10" activeCellId="0" sqref="H10:H10"/>
+    <x:sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A36" activeCellId="0" sqref="A36:A36"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -6376,51 +9340,51 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="9" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C1" s="11"/>
-      <x:c r="D1" s="11"/>
-      <x:c r="E1" s="11"/>
-      <x:c r="F1" s="11"/>
-      <x:c r="G1" s="11"/>
+      <x:c r="B1" s="21" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C1" s="23"/>
+      <x:c r="D1" s="23"/>
+      <x:c r="E1" s="23"/>
+      <x:c r="F1" s="23"/>
+      <x:c r="G1" s="23"/>
     </x:row>
     <x:row r="2" spans="2:12">
-      <x:c r="B2" s="11"/>
-      <x:c r="C2" s="11"/>
-      <x:c r="D2" s="11"/>
-      <x:c r="E2" s="11"/>
-      <x:c r="F2" s="11"/>
-      <x:c r="G2" s="11"/>
+      <x:c r="B2" s="23"/>
+      <x:c r="C2" s="23"/>
+      <x:c r="D2" s="23"/>
+      <x:c r="E2" s="23"/>
+      <x:c r="F2" s="23"/>
+      <x:c r="G2" s="23"/>
       <x:c r="I2" t="s">
-        <x:v>45</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="L2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:12">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K3" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="L3" s="22">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L3" s="17">
         <x:f>$B$4/13900</x:f>
         <x:v>0.13978417266187051</x:v>
       </x:c>
@@ -6429,28 +9393,28 @@
       <x:c r="A4" s="1">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B4" s="20">
+      <x:c r="B4" s="15">
         <x:v>1943</x:v>
       </x:c>
-      <x:c r="C4" s="21">
+      <x:c r="C4" s="16">
         <x:v>1947</x:v>
       </x:c>
-      <x:c r="D4" s="21">
+      <x:c r="D4" s="16">
         <x:v>1942</x:v>
       </x:c>
-      <x:c r="E4" s="21">
+      <x:c r="E4" s="16">
         <x:v>1934</x:v>
       </x:c>
-      <x:c r="F4" s="21">
+      <x:c r="F4" s="16">
         <x:v>1190</x:v>
       </x:c>
-      <x:c r="G4" s="21">
+      <x:c r="G4" s="16">
         <x:v>815</x:v>
       </x:c>
       <x:c r="K4" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="L4" s="23">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L4" s="18">
         <x:f>$C$4/8400</x:f>
         <x:v>0.23178571428571429</x:v>
       </x:c>
@@ -6459,31 +9423,31 @@
       <x:c r="A5" s="1">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B5" s="21">
+      <x:c r="B5" s="16">
         <x:v>3876</x:v>
       </x:c>
-      <x:c r="C5" s="21">
+      <x:c r="C5" s="16">
         <x:v>3879</x:v>
       </x:c>
-      <x:c r="D5" s="21">
+      <x:c r="D5" s="16">
         <x:v>3870</x:v>
       </x:c>
-      <x:c r="E5" s="21">
+      <x:c r="E5" s="16">
         <x:v>2349</x:v>
       </x:c>
-      <x:c r="F5" s="21">
+      <x:c r="F5" s="16">
         <x:v>1190</x:v>
       </x:c>
-      <x:c r="G5" s="21">
+      <x:c r="G5" s="16">
         <x:v>815</x:v>
       </x:c>
       <x:c r="I5" t="s">
-        <x:v>47</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K5" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L5" s="23">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="L5" s="18">
         <x:f>$D$4/4500</x:f>
         <x:v>0.43155555555555558</x:v>
       </x:c>
@@ -6492,28 +9456,28 @@
       <x:c r="A6" s="1">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B6" s="21">
+      <x:c r="B6" s="16">
         <x:v>7740</x:v>
       </x:c>
-      <x:c r="C6" s="21">
+      <x:c r="C6" s="16">
         <x:v>5640</x:v>
       </x:c>
-      <x:c r="D6" s="21">
+      <x:c r="D6" s="16">
         <x:v>4525</x:v>
       </x:c>
-      <x:c r="E6" s="21">
+      <x:c r="E6" s="16">
         <x:v>2349</x:v>
       </x:c>
-      <x:c r="F6" s="21">
+      <x:c r="F6" s="16">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G6" s="21">
+      <x:c r="G6" s="16">
         <x:v>815</x:v>
       </x:c>
       <x:c r="K6" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="L6" s="23">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="L6" s="18">
         <x:f>$E$4/2350</x:f>
         <x:v>0.82297872340425537</x:v>
       </x:c>
@@ -6522,28 +9486,28 @@
       <x:c r="A7" s="1">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B7" s="21">
+      <x:c r="B7" s="16">
         <x:v>10310</x:v>
       </x:c>
-      <x:c r="C7" s="21">
+      <x:c r="C7" s="16">
         <x:v>8402</x:v>
       </x:c>
-      <x:c r="D7" s="21">
+      <x:c r="D7" s="16">
         <x:v>4528</x:v>
       </x:c>
-      <x:c r="E7" s="21">
+      <x:c r="E7" s="16">
         <x:v>2349</x:v>
       </x:c>
-      <x:c r="F7" s="21">
+      <x:c r="F7" s="16">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G7" s="21">
+      <x:c r="G7" s="16">
         <x:v>815</x:v>
       </x:c>
       <x:c r="K7" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="L7" s="22">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L7" s="17">
         <x:f>$F$4/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
@@ -6552,28 +9516,28 @@
       <x:c r="A8" s="1">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B8" s="21">
+      <x:c r="B8" s="16">
         <x:v>10680</x:v>
       </x:c>
-      <x:c r="C8" s="21">
+      <x:c r="C8" s="16">
         <x:v>8444</x:v>
       </x:c>
-      <x:c r="D8" s="21">
+      <x:c r="D8" s="16">
         <x:v>4528</x:v>
       </x:c>
-      <x:c r="E8" s="21">
+      <x:c r="E8" s="16">
         <x:v>2349</x:v>
       </x:c>
-      <x:c r="F8" s="21">
+      <x:c r="F8" s="16">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G8" s="21">
+      <x:c r="G8" s="16">
         <x:v>815</x:v>
       </x:c>
       <x:c r="K8" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="L8" s="22">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L8" s="17">
         <x:f>$G$4/815</x:f>
         <x:v>1</x:v>
       </x:c>
@@ -6582,192 +9546,192 @@
       <x:c r="A9" s="1">
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B9" s="21">
+      <x:c r="B9" s="16">
         <x:v>13380</x:v>
       </x:c>
-      <x:c r="C9" s="21">
+      <x:c r="C9" s="16">
         <x:v>8445</x:v>
       </x:c>
-      <x:c r="D9" s="21">
+      <x:c r="D9" s="16">
         <x:v>4528</x:v>
       </x:c>
-      <x:c r="E9" s="21">
+      <x:c r="E9" s="16">
         <x:v>2349</x:v>
       </x:c>
-      <x:c r="F9" s="21">
+      <x:c r="F9" s="16">
         <x:v>1190</x:v>
       </x:c>
-      <x:c r="G9" s="21">
+      <x:c r="G9" s="16">
         <x:v>815</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B10" s="21">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B10" s="16">
         <x:v>13390</x:v>
       </x:c>
-      <x:c r="C10" s="21">
+      <x:c r="C10" s="16">
         <x:v>8445</x:v>
       </x:c>
-      <x:c r="D10" s="21">
+      <x:c r="D10" s="16">
         <x:v>4528</x:v>
       </x:c>
-      <x:c r="E10" s="21">
+      <x:c r="E10" s="16">
         <x:v>2349</x:v>
       </x:c>
-      <x:c r="F10" s="21">
+      <x:c r="F10" s="16">
         <x:v>1190</x:v>
       </x:c>
-      <x:c r="G10" s="21"/>
+      <x:c r="G10" s="16"/>
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B11" s="21">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B11" s="16">
         <x:v>12500</x:v>
       </x:c>
-      <x:c r="C11" s="21">
+      <x:c r="C11" s="16">
         <x:v>8446</x:v>
       </x:c>
-      <x:c r="D11" s="21">
+      <x:c r="D11" s="16">
         <x:v>4528</x:v>
       </x:c>
-      <x:c r="E11" s="21">
+      <x:c r="E11" s="16">
         <x:v>2350</x:v>
       </x:c>
-      <x:c r="F11" s="21"/>
-      <x:c r="G11" s="21"/>
+      <x:c r="F11" s="16"/>
+      <x:c r="G11" s="16"/>
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B12" s="21">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B12" s="16">
         <x:v>12550</x:v>
       </x:c>
-      <x:c r="C12" s="21">
+      <x:c r="C12" s="16">
         <x:v>8430</x:v>
       </x:c>
-      <x:c r="D12" s="21">
+      <x:c r="D12" s="16">
         <x:v>4420</x:v>
       </x:c>
-      <x:c r="E12" s="21"/>
-      <x:c r="F12" s="21"/>
-      <x:c r="G12" s="21"/>
+      <x:c r="E12" s="16"/>
+      <x:c r="F12" s="16"/>
+      <x:c r="G12" s="16"/>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B13" s="21">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B13" s="16">
         <x:v>12480</x:v>
       </x:c>
-      <x:c r="C13" s="21">
+      <x:c r="C13" s="16">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="D13" s="21"/>
-      <x:c r="E13" s="21"/>
-      <x:c r="F13" s="21"/>
-      <x:c r="G13" s="21"/>
+      <x:c r="D13" s="16"/>
+      <x:c r="E13" s="16"/>
+      <x:c r="F13" s="16"/>
+      <x:c r="G13" s="16"/>
     </x:row>
     <x:row r="14" spans="1:7">
       <x:c r="A14" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B14" s="21">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B14" s="16">
         <x:v>12770</x:v>
       </x:c>
-      <x:c r="C14" s="21"/>
-      <x:c r="D14" s="21"/>
-      <x:c r="E14" s="21"/>
-      <x:c r="F14" s="21"/>
-      <x:c r="G14" s="21"/>
+      <x:c r="C14" s="16"/>
+      <x:c r="D14" s="16"/>
+      <x:c r="E14" s="16"/>
+      <x:c r="F14" s="16"/>
+      <x:c r="G14" s="16"/>
     </x:row>
     <x:row r="16" spans="10:16">
-      <x:c r="J16" s="14"/>
-      <x:c r="K16" s="14"/>
-      <x:c r="L16" s="14"/>
-      <x:c r="M16" s="14"/>
-      <x:c r="N16" s="14"/>
-      <x:c r="O16" s="14"/>
-      <x:c r="P16" s="14"/>
+      <x:c r="J16" s="9"/>
+      <x:c r="K16" s="9"/>
+      <x:c r="L16" s="9"/>
+      <x:c r="M16" s="9"/>
+      <x:c r="N16" s="9"/>
+      <x:c r="O16" s="9"/>
+      <x:c r="P16" s="9"/>
     </x:row>
     <x:row r="17" spans="10:16">
-      <x:c r="J17" s="14"/>
-      <x:c r="K17" s="14"/>
-      <x:c r="L17" s="14"/>
-      <x:c r="M17" s="14"/>
-      <x:c r="N17" s="14"/>
-      <x:c r="O17" s="14"/>
-      <x:c r="P17" s="14"/>
+      <x:c r="J17" s="9"/>
+      <x:c r="K17" s="9"/>
+      <x:c r="L17" s="9"/>
+      <x:c r="M17" s="9"/>
+      <x:c r="N17" s="9"/>
+      <x:c r="O17" s="9"/>
+      <x:c r="P17" s="9"/>
     </x:row>
     <x:row r="18" spans="2:7">
-      <x:c r="B18" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C18" s="11"/>
-      <x:c r="D18" s="11"/>
-      <x:c r="E18" s="11"/>
-      <x:c r="F18" s="11"/>
-      <x:c r="G18" s="11"/>
+      <x:c r="B18" s="21" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C18" s="23"/>
+      <x:c r="D18" s="23"/>
+      <x:c r="E18" s="23"/>
+      <x:c r="F18" s="23"/>
+      <x:c r="G18" s="23"/>
     </x:row>
     <x:row r="19" spans="2:7">
-      <x:c r="B19" s="11"/>
-      <x:c r="C19" s="11"/>
-      <x:c r="D19" s="11"/>
-      <x:c r="E19" s="11"/>
-      <x:c r="F19" s="11"/>
-      <x:c r="G19" s="11"/>
+      <x:c r="B19" s="23"/>
+      <x:c r="C19" s="23"/>
+      <x:c r="D19" s="23"/>
+      <x:c r="E19" s="23"/>
+      <x:c r="F19" s="23"/>
+      <x:c r="G19" s="23"/>
     </x:row>
     <x:row r="20" spans="1:7">
       <x:c r="A20" s="1"/>
       <x:c r="B20" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E20" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F20" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G20" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7">
       <x:c r="A21" s="1">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B21" s="22">
+      <x:c r="B21" s="17">
         <x:f>$B$4/13900</x:f>
         <x:v>0.13978417266187051</x:v>
       </x:c>
-      <x:c r="C21" s="23">
+      <x:c r="C21" s="18">
         <x:f>$C$4/8400</x:f>
         <x:v>0.23178571428571429</x:v>
       </x:c>
-      <x:c r="D21" s="23">
+      <x:c r="D21" s="18">
         <x:f>$D$4/4500</x:f>
         <x:v>0.43155555555555558</x:v>
       </x:c>
-      <x:c r="E21" s="23">
+      <x:c r="E21" s="18">
         <x:f>$E$4/2350</x:f>
         <x:v>0.82297872340425537</x:v>
       </x:c>
-      <x:c r="F21" s="22">
+      <x:c r="F21" s="17">
         <x:f>$F$4/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
-      <x:c r="G21" s="22">
+      <x:c r="G21" s="17">
         <x:f>$G$4/MAX($G$4:$G$9)</x:f>
         <x:v>1</x:v>
       </x:c>
@@ -6776,27 +9740,27 @@
       <x:c r="A22" s="1">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B22" s="22">
+      <x:c r="B22" s="17">
         <x:f>B5/13900</x:f>
         <x:v>0.27884892086330937</x:v>
       </x:c>
-      <x:c r="C22" s="23">
+      <x:c r="C22" s="18">
         <x:f>C5/8400</x:f>
         <x:v>0.4617857142857143</x:v>
       </x:c>
-      <x:c r="D22" s="23">
+      <x:c r="D22" s="18">
         <x:f>D5/4500</x:f>
         <x:v>0.85999999999999999</x:v>
       </x:c>
-      <x:c r="E22" s="23">
+      <x:c r="E22" s="18">
         <x:f>E5/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F22" s="22">
+      <x:c r="F22" s="17">
         <x:f>F5/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
-      <x:c r="G22" s="22">
+      <x:c r="G22" s="17">
         <x:f t="shared" ref="G22:G25" si="0">G5/MAX($G$4:$G$9)</x:f>
         <x:v>1</x:v>
       </x:c>
@@ -6805,27 +9769,27 @@
       <x:c r="A23" s="1">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B23" s="22">
+      <x:c r="B23" s="17">
         <x:f>B6/13900</x:f>
         <x:v>0.55683453237410074</x:v>
       </x:c>
-      <x:c r="C23" s="23">
+      <x:c r="C23" s="18">
         <x:f>C6/8400</x:f>
         <x:v>0.67142857142857137</x:v>
       </x:c>
-      <x:c r="D23" s="23">
+      <x:c r="D23" s="18">
         <x:f>D6/4500</x:f>
         <x:v>1.0055555555555555</x:v>
       </x:c>
-      <x:c r="E23" s="23">
+      <x:c r="E23" s="18">
         <x:f>E6/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F23" s="22">
+      <x:c r="F23" s="17">
         <x:f>F6/1200</x:f>
         <x:v>0.99750000000000005</x:v>
       </x:c>
-      <x:c r="G23" s="22">
+      <x:c r="G23" s="17">
         <x:f t="shared" si="0"/>
         <x:v>1</x:v>
       </x:c>
@@ -6834,27 +9798,27 @@
       <x:c r="A24" s="1">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B24" s="22">
+      <x:c r="B24" s="17">
         <x:f>B7/13900</x:f>
         <x:v>0.74172661870503598</x:v>
       </x:c>
-      <x:c r="C24" s="23">
+      <x:c r="C24" s="18">
         <x:f>C7/8400</x:f>
         <x:v>1.0002380952380951</x:v>
       </x:c>
-      <x:c r="D24" s="23">
+      <x:c r="D24" s="18">
         <x:f>D7/4500</x:f>
         <x:v>1.0062222222222221</x:v>
       </x:c>
-      <x:c r="E24" s="23">
+      <x:c r="E24" s="18">
         <x:f>E7/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F24" s="22">
+      <x:c r="F24" s="17">
         <x:f>F7/1200</x:f>
         <x:v>0.99750000000000005</x:v>
       </x:c>
-      <x:c r="G24" s="22">
+      <x:c r="G24" s="17">
         <x:f t="shared" si="0"/>
         <x:v>1</x:v>
       </x:c>
@@ -6863,27 +9827,27 @@
       <x:c r="A25" s="1">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B25" s="22">
+      <x:c r="B25" s="17">
         <x:f>B8/13900</x:f>
         <x:v>0.76834532374100717</x:v>
       </x:c>
-      <x:c r="C25" s="23">
+      <x:c r="C25" s="18">
         <x:f>C8/8400</x:f>
         <x:v>1.0052380952380953</x:v>
       </x:c>
-      <x:c r="D25" s="23">
+      <x:c r="D25" s="18">
         <x:f>D8/4500</x:f>
         <x:v>1.0062222222222221</x:v>
       </x:c>
-      <x:c r="E25" s="23">
+      <x:c r="E25" s="18">
         <x:f>E8/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F25" s="22">
+      <x:c r="F25" s="17">
         <x:f>F8/1200</x:f>
         <x:v>0.99750000000000005</x:v>
       </x:c>
-      <x:c r="G25" s="22">
+      <x:c r="G25" s="17">
         <x:f t="shared" si="0"/>
         <x:v>1</x:v>
       </x:c>
@@ -6892,148 +9856,148 @@
       <x:c r="A26" s="1">
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B26" s="22">
+      <x:c r="B26" s="17">
         <x:f>B9/13900</x:f>
         <x:v>0.96258992805755395</x:v>
       </x:c>
-      <x:c r="C26" s="23">
+      <x:c r="C26" s="18">
         <x:f>C9/8400</x:f>
         <x:v>1.0053571428571428</x:v>
       </x:c>
-      <x:c r="D26" s="23">
+      <x:c r="D26" s="18">
         <x:f>D9/4500</x:f>
         <x:v>1.0062222222222221</x:v>
       </x:c>
-      <x:c r="E26" s="23">
+      <x:c r="E26" s="18">
         <x:f>E9/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F26" s="22">
+      <x:c r="F26" s="17">
         <x:f>F9/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
-      <x:c r="G26" s="22">
+      <x:c r="G26" s="17">
         <x:f>G9/MAX($G$4:$G$9)</x:f>
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7">
       <x:c r="A27" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B27" s="22">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B27" s="17">
         <x:f>B10/13900</x:f>
         <x:v>0.96330935251798566</x:v>
       </x:c>
-      <x:c r="C27" s="23">
+      <x:c r="C27" s="18">
         <x:f>C10/8400</x:f>
         <x:v>1.0053571428571428</x:v>
       </x:c>
-      <x:c r="D27" s="23">
+      <x:c r="D27" s="18">
         <x:f>D10/4500</x:f>
         <x:v>1.0062222222222221</x:v>
       </x:c>
-      <x:c r="E27" s="23">
+      <x:c r="E27" s="18">
         <x:f>E10/2350</x:f>
         <x:v>0.99957446808510642</x:v>
       </x:c>
-      <x:c r="F27" s="22">
+      <x:c r="F27" s="17">
         <x:f>F10/1200</x:f>
         <x:v>0.9916666666666667</x:v>
       </x:c>
-      <x:c r="G27" s="22"/>
+      <x:c r="G27" s="17"/>
     </x:row>
     <x:row r="28" spans="1:7">
       <x:c r="A28" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B28" s="22">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B28" s="17">
         <x:f>B11/13900</x:f>
         <x:v>0.89928057553956831</x:v>
       </x:c>
-      <x:c r="C28" s="23">
+      <x:c r="C28" s="18">
         <x:f>C11/8400</x:f>
         <x:v>1.0054761904761904</x:v>
       </x:c>
-      <x:c r="D28" s="23">
+      <x:c r="D28" s="18">
         <x:f>D11/4500</x:f>
         <x:v>1.0062222222222221</x:v>
       </x:c>
-      <x:c r="E28" s="23">
+      <x:c r="E28" s="18">
         <x:f>E11/2350</x:f>
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F28" s="22"/>
-      <x:c r="G28" s="22"/>
+      <x:c r="F28" s="17"/>
+      <x:c r="G28" s="17"/>
     </x:row>
     <x:row r="29" spans="1:7">
       <x:c r="A29" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B29" s="22">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B29" s="17">
         <x:f>B12/13900</x:f>
         <x:v>0.90287769784172667</x:v>
       </x:c>
-      <x:c r="C29" s="23">
+      <x:c r="C29" s="18">
         <x:f>C12/8400</x:f>
         <x:v>1.0035714285714286</x:v>
       </x:c>
-      <x:c r="D29" s="23">
+      <x:c r="D29" s="18">
         <x:f>D12/4500</x:f>
         <x:v>0.98222222222222222</x:v>
       </x:c>
-      <x:c r="E29" s="23">
+      <x:c r="E29" s="18">
         <x:f>E12/2350</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F29" s="22"/>
-      <x:c r="G29" s="22"/>
+      <x:c r="F29" s="17"/>
+      <x:c r="G29" s="17"/>
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B30" s="22">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B30" s="17">
         <x:f>B13/13900</x:f>
         <x:v>0.89784172661870498</x:v>
       </x:c>
-      <x:c r="C30" s="23">
+      <x:c r="C30" s="18">
         <x:f>C13/8400</x:f>
         <x:v>0.95476190476190481</x:v>
       </x:c>
-      <x:c r="D30" s="23">
+      <x:c r="D30" s="18">
         <x:f>D13/4500</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E30" s="23">
+      <x:c r="E30" s="18">
         <x:f>E13/2350</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F30" s="22"/>
-      <x:c r="G30" s="22"/>
+      <x:c r="F30" s="17"/>
+      <x:c r="G30" s="17"/>
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B31" s="22">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B31" s="17">
         <x:f>B14/13900</x:f>
         <x:v>0.91870503597122299</x:v>
       </x:c>
-      <x:c r="C31" s="23">
+      <x:c r="C31" s="18">
         <x:f>C14/8400</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D31" s="23">
+      <x:c r="D31" s="18">
         <x:f>D14/4500</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E31" s="23">
+      <x:c r="E31" s="18">
         <x:f>E14/2350</x:f>
         <x:v>0</x:v>
       </x:c>
-      <x:c r="F31" s="22"/>
-      <x:c r="G31" s="22"/>
+      <x:c r="F31" s="17"/>
+      <x:c r="G31" s="17"/>
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="1"/>
@@ -7045,42 +10009,42 @@
       <x:c r="G33" s="1"/>
     </x:row>
     <x:row r="34" spans="2:7">
-      <x:c r="B34" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C34" s="11"/>
-      <x:c r="D34" s="11"/>
-      <x:c r="E34" s="11"/>
-      <x:c r="F34" s="11"/>
-      <x:c r="G34" s="11"/>
+      <x:c r="B34" s="21" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C34" s="23"/>
+      <x:c r="D34" s="23"/>
+      <x:c r="E34" s="23"/>
+      <x:c r="F34" s="23"/>
+      <x:c r="G34" s="23"/>
     </x:row>
     <x:row r="35" spans="2:7">
-      <x:c r="B35" s="11"/>
-      <x:c r="C35" s="11"/>
-      <x:c r="D35" s="11"/>
-      <x:c r="E35" s="11"/>
-      <x:c r="F35" s="11"/>
-      <x:c r="G35" s="11"/>
+      <x:c r="B35" s="23"/>
+      <x:c r="C35" s="23"/>
+      <x:c r="D35" s="23"/>
+      <x:c r="E35" s="23"/>
+      <x:c r="F35" s="23"/>
+      <x:c r="G35" s="23"/>
     </x:row>
     <x:row r="36" spans="1:7">
       <x:c r="A36" s="1"/>
       <x:c r="B36" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E36" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F36" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G36" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
@@ -7223,7 +10187,7 @@
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B43" s="1">
         <x:v>6420</x:v>
@@ -7244,7 +10208,7 @@
     </x:row>
     <x:row r="44" spans="1:7">
       <x:c r="A44" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B44" s="1">
         <x:v>3050</x:v>
@@ -7263,7 +10227,7 @@
     </x:row>
     <x:row r="45" spans="1:7">
       <x:c r="A45" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B45" s="1">
         <x:v>1532</x:v>
@@ -7280,7 +10244,7 @@
     </x:row>
     <x:row r="46" spans="1:7">
       <x:c r="A46" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B46" s="1">
         <x:v>760</x:v>
@@ -7295,7 +10259,7 @@
     </x:row>
     <x:row r="47" spans="1:7">
       <x:c r="A47" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B47" s="1">
         <x:v>387</x:v>
@@ -7364,6 +10328,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet8"/>
+  <x:dimension ref="A1:A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="U40" activeCellId="0" sqref="U40:U40"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
+  <x:sheetData/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:drawing r:id="rId1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:M58"/>
@@ -7379,32 +10360,32 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7" customHeight="1">
-      <x:c r="B1" s="12" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C1" s="12" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D1" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E1" s="12" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F1" s="12" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="G1" s="12" t="s">
+      <x:c r="B1" s="24" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C1" s="24" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D1" s="24" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E1" s="24" t="s">
         <x:v>38</x:v>
       </x:c>
+      <x:c r="F1" s="24" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G1" s="24" t="s">
+        <x:v>39</x:v>
+      </x:c>
     </x:row>
     <x:row r="2" spans="2:13" customHeight="1">
-      <x:c r="B2" s="12"/>
-      <x:c r="C2" s="12"/>
-      <x:c r="D2" s="12"/>
-      <x:c r="E2" s="12"/>
-      <x:c r="F2" s="12"/>
-      <x:c r="G2" s="12"/>
+      <x:c r="B2" s="24"/>
+      <x:c r="C2" s="24"/>
+      <x:c r="D2" s="24"/>
+      <x:c r="E2" s="24"/>
+      <x:c r="F2" s="24"/>
+      <x:c r="G2" s="24"/>
       <x:c r="H2" s="2"/>
       <x:c r="I2" s="2"/>
       <x:c r="J2" s="2"/>
@@ -7552,7 +10533,7 @@
     </x:row>
     <x:row r="9" spans="1:7" customHeight="1">
       <x:c r="A9" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="4">
         <x:v>2722</x:v>
@@ -7575,7 +10556,7 @@
     </x:row>
     <x:row r="10" spans="1:7" customHeight="1">
       <x:c r="A10" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B10" s="4">
         <x:v>2843</x:v>
@@ -7598,7 +10579,7 @@
     </x:row>
     <x:row r="11" spans="1:7" customHeight="1">
       <x:c r="A11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>3133</x:v>
@@ -7621,7 +10602,7 @@
     </x:row>
     <x:row r="12" spans="1:7" customHeight="1">
       <x:c r="A12" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>3857</x:v>
@@ -7644,7 +10625,7 @@
     </x:row>
     <x:row r="13" spans="1:7" customHeight="1">
       <x:c r="A13" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>5125</x:v>
@@ -7667,7 +10648,7 @@
     </x:row>
     <x:row r="14" spans="1:7" customHeight="1">
       <x:c r="A14" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>7528</x:v>
@@ -7690,7 +10671,7 @@
     </x:row>
     <x:row r="15" spans="1:7" customHeight="1">
       <x:c r="A15" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>11994</x:v>
@@ -7713,7 +10694,7 @@
     </x:row>
     <x:row r="16" spans="1:7" customHeight="1">
       <x:c r="A16" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>19883</x:v>
@@ -7736,7 +10717,7 @@
     </x:row>
     <x:row r="17" spans="1:7" customHeight="1">
       <x:c r="A17" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>37751</x:v>
@@ -7759,7 +10740,7 @@
     </x:row>
     <x:row r="18" spans="1:7" customHeight="1">
       <x:c r="A18" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>85677</x:v>
@@ -7782,7 +10763,7 @@
     </x:row>
     <x:row r="19" spans="1:7" customHeight="1">
       <x:c r="A19" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>206878</x:v>
@@ -7834,10 +10815,10 @@
       <x:c r="D38" s="3"/>
     </x:row>
     <x:row r="39" spans="2:5">
-      <x:c r="B39" s="11"/>
-      <x:c r="C39" s="11"/>
-      <x:c r="D39" s="10"/>
-      <x:c r="E39" s="10"/>
+      <x:c r="B39" s="23"/>
+      <x:c r="C39" s="23"/>
+      <x:c r="D39" s="22"/>
+      <x:c r="E39" s="22"/>
     </x:row>
     <x:row r="40" spans="2:5">
       <x:c r="B40" s="2"/>
@@ -7896,59 +10877,59 @@
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B48" s="3"/>
       <x:c r="D48" s="3"/>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7968,7 +10949,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:G93"/>
@@ -7984,40 +10965,40 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="13" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B1" s="10"/>
-      <x:c r="C1" s="10"/>
-      <x:c r="D1" s="10"/>
-      <x:c r="E1" s="10"/>
+      <x:c r="A1" s="25" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B1" s="22"/>
+      <x:c r="C1" s="22"/>
+      <x:c r="D1" s="22"/>
+      <x:c r="E1" s="22"/>
     </x:row>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="10"/>
-      <x:c r="B2" s="10"/>
-      <x:c r="C2" s="10"/>
-      <x:c r="D2" s="10"/>
-      <x:c r="E2" s="10"/>
+      <x:c r="A2" s="22"/>
+      <x:c r="B2" s="22"/>
+      <x:c r="C2" s="22"/>
+      <x:c r="D2" s="22"/>
+      <x:c r="E2" s="22"/>
     </x:row>
     <x:row r="3" spans="2:5">
-      <x:c r="B3" s="12" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C3" s="12" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D3" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E3" s="12" t="s">
-        <x:v>36</x:v>
+      <x:c r="B3" s="24" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C3" s="24" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D3" s="24" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E3" s="24" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:5">
-      <x:c r="B4" s="12"/>
-      <x:c r="C4" s="12"/>
-      <x:c r="D4" s="12"/>
-      <x:c r="E4" s="12"/>
+      <x:c r="B4" s="24"/>
+      <x:c r="C4" s="24"/>
+      <x:c r="D4" s="24"/>
+      <x:c r="E4" s="24"/>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="1">
@@ -8123,7 +11104,7 @@
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" s="4">
         <x:v>7445</x:v>
@@ -8140,7 +11121,7 @@
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B12" s="4">
         <x:v>2307</x:v>
@@ -8157,7 +11138,7 @@
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B13" s="4">
         <x:v>3334</x:v>
@@ -8174,7 +11155,7 @@
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B14" s="4">
         <x:v>5643</x:v>
@@ -8191,7 +11172,7 @@
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B15" s="4">
         <x:v>8649</x:v>
@@ -8208,7 +11189,7 @@
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B16" s="4">
         <x:v>7925</x:v>
@@ -8225,7 +11206,7 @@
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B17" s="4">
         <x:v>19881</x:v>
@@ -8242,7 +11223,7 @@
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="4">
         <x:v>26627</x:v>
@@ -8259,7 +11240,7 @@
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="4">
         <x:v>40525</x:v>
@@ -8276,7 +11257,7 @@
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B20" s="4">
         <x:v>74741</x:v>
@@ -8293,7 +11274,7 @@
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B21" s="4">
         <x:v>150490</x:v>
@@ -8309,32 +11290,32 @@
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5" ht="24.949999999999999" customHeight="1">
-      <x:c r="A25" s="13" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B25" s="10"/>
-      <x:c r="C25" s="10"/>
+      <x:c r="A25" s="25" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B25" s="22"/>
+      <x:c r="C25" s="22"/>
       <x:c r="D25" s="2"/>
       <x:c r="E25" s="2"/>
     </x:row>
     <x:row r="26" spans="1:5">
-      <x:c r="A26" s="10"/>
-      <x:c r="B26" s="10"/>
-      <x:c r="C26" s="10"/>
+      <x:c r="A26" s="22"/>
+      <x:c r="B26" s="22"/>
+      <x:c r="C26" s="22"/>
       <x:c r="D26" s="2"/>
       <x:c r="E26" s="2"/>
     </x:row>
     <x:row r="27" spans="2:3">
-      <x:c r="B27" s="12" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C27" s="12" t="s">
-        <x:v>38</x:v>
+      <x:c r="B27" s="24" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C27" s="24" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:3">
-      <x:c r="B28" s="12"/>
-      <x:c r="C28" s="12"/>
+      <x:c r="B28" s="24"/>
+      <x:c r="C28" s="24"/>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="1">
@@ -8404,7 +11385,7 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B35">
         <x:v>1704662</x:v>
@@ -8415,7 +11396,7 @@
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B36">
         <x:v>888145</x:v>
@@ -8426,7 +11407,7 @@
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>501401</x:v>
@@ -8437,7 +11418,7 @@
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>332799</x:v>
@@ -8448,7 +11429,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>234809</x:v>
@@ -8459,7 +11440,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>185326</x:v>
@@ -8470,7 +11451,7 @@
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B41">
         <x:v>161905</x:v>
@@ -8481,7 +11462,7 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B42">
         <x:v>150163</x:v>
@@ -8492,7 +11473,7 @@
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B43">
         <x:v>145611</x:v>
@@ -8503,7 +11484,7 @@
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B44">
         <x:v>148653</x:v>
@@ -8514,7 +11495,7 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B45">
         <x:v>167357</x:v>
@@ -8524,44 +11505,44 @@
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7" ht="24.949999999999999" customHeight="1">
-      <x:c r="A48" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B48" s="9"/>
-      <x:c r="C48" s="9"/>
-      <x:c r="D48" s="9"/>
-      <x:c r="E48" s="9"/>
+      <x:c r="A48" s="25" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B48" s="21"/>
+      <x:c r="C48" s="21"/>
+      <x:c r="D48" s="21"/>
+      <x:c r="E48" s="21"/>
       <x:c r="F48" s="6"/>
       <x:c r="G48" s="6"/>
     </x:row>
     <x:row r="49" spans="1:7" ht="24.949999999999999">
-      <x:c r="A49" s="9"/>
-      <x:c r="B49" s="9"/>
-      <x:c r="C49" s="9"/>
-      <x:c r="D49" s="9"/>
-      <x:c r="E49" s="9"/>
+      <x:c r="A49" s="21"/>
+      <x:c r="B49" s="21"/>
+      <x:c r="C49" s="21"/>
+      <x:c r="D49" s="21"/>
+      <x:c r="E49" s="21"/>
       <x:c r="F49" s="6"/>
       <x:c r="G49" s="6"/>
     </x:row>
     <x:row r="50" spans="2:5">
-      <x:c r="B50" s="12" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C50" s="12" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D50" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="E50" s="12" t="s">
-        <x:v>36</x:v>
+      <x:c r="B50" s="24" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C50" s="24" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D50" s="24" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E50" s="24" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="2:5">
-      <x:c r="B51" s="12"/>
-      <x:c r="C51" s="12"/>
-      <x:c r="D51" s="12"/>
-      <x:c r="E51" s="12"/>
+      <x:c r="B51" s="24"/>
+      <x:c r="C51" s="24"/>
+      <x:c r="D51" s="24"/>
+      <x:c r="E51" s="24"/>
     </x:row>
     <x:row r="52" spans="1:5">
       <x:c r="A52" s="1">
@@ -8667,7 +11648,7 @@
     </x:row>
     <x:row r="58" spans="1:5">
       <x:c r="A58" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B58" s="4">
         <x:v>2330</x:v>
@@ -8684,7 +11665,7 @@
     </x:row>
     <x:row r="59" spans="1:5">
       <x:c r="A59" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B59" s="4">
         <x:v>3582</x:v>
@@ -8701,7 +11682,7 @@
     </x:row>
     <x:row r="60" spans="1:5">
       <x:c r="A60" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B60" s="4">
         <x:v>3213</x:v>
@@ -8718,7 +11699,7 @@
     </x:row>
     <x:row r="61" spans="1:5">
       <x:c r="A61" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B61" s="4">
         <x:v>3588</x:v>
@@ -8735,7 +11716,7 @@
     </x:row>
     <x:row r="62" spans="1:5">
       <x:c r="A62" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B62" s="5">
         <x:v>12283</x:v>
@@ -8752,7 +11733,7 @@
     </x:row>
     <x:row r="63" spans="1:5">
       <x:c r="A63" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B63" s="4">
         <x:v>7954</x:v>
@@ -8769,7 +11750,7 @@
     </x:row>
     <x:row r="64" spans="1:5">
       <x:c r="A64" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B64" s="4">
         <x:v>11599</x:v>
@@ -8786,7 +11767,7 @@
     </x:row>
     <x:row r="65" spans="1:5">
       <x:c r="A65" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B65" s="4">
         <x:v>20553</x:v>
@@ -8803,7 +11784,7 @@
     </x:row>
     <x:row r="66" spans="1:5">
       <x:c r="A66" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B66" s="4">
         <x:v>38486</x:v>
@@ -8820,7 +11801,7 @@
     </x:row>
     <x:row r="67" spans="1:5">
       <x:c r="A67" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B67" s="4">
         <x:v>75167</x:v>
@@ -8837,7 +11818,7 @@
     </x:row>
     <x:row r="68" spans="1:5">
       <x:c r="A68" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B68" s="4">
         <x:v>161317</x:v>
@@ -8853,32 +11834,32 @@
       </x:c>
     </x:row>
     <x:row r="73" spans="1:5" ht="24.949999999999999" customHeight="1">
-      <x:c r="A73" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B73" s="9"/>
-      <x:c r="C73" s="9"/>
+      <x:c r="A73" s="25" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B73" s="21"/>
+      <x:c r="C73" s="21"/>
       <x:c r="D73" s="6"/>
       <x:c r="E73" s="6"/>
     </x:row>
     <x:row r="74" spans="1:5" ht="24.949999999999999">
-      <x:c r="A74" s="9"/>
-      <x:c r="B74" s="9"/>
-      <x:c r="C74" s="9"/>
+      <x:c r="A74" s="21"/>
+      <x:c r="B74" s="21"/>
+      <x:c r="C74" s="21"/>
       <x:c r="D74" s="6"/>
       <x:c r="E74" s="6"/>
     </x:row>
     <x:row r="75" spans="2:3">
-      <x:c r="B75" s="12" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C75" s="12" t="s">
-        <x:v>38</x:v>
+      <x:c r="B75" s="24" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C75" s="24" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="2:3">
-      <x:c r="B76" s="12"/>
-      <x:c r="C76" s="12"/>
+      <x:c r="B76" s="24"/>
+      <x:c r="C76" s="24"/>
     </x:row>
     <x:row r="77" spans="1:3">
       <x:c r="A77" s="1">
@@ -8948,7 +11929,7 @@
     </x:row>
     <x:row r="83" spans="1:3">
       <x:c r="A83" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B83">
         <x:v>1708597</x:v>
@@ -8959,7 +11940,7 @@
     </x:row>
     <x:row r="84" spans="1:3">
       <x:c r="A84" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B84">
         <x:v>889942</x:v>
@@ -8970,7 +11951,7 @@
     </x:row>
     <x:row r="85" spans="1:3">
       <x:c r="A85" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B85">
         <x:v>506309</x:v>
@@ -8981,7 +11962,7 @@
     </x:row>
     <x:row r="86" spans="1:3">
       <x:c r="A86" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B86">
         <x:v>344510</x:v>
@@ -8992,7 +11973,7 @@
     </x:row>
     <x:row r="87" spans="1:3">
       <x:c r="A87" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B87">
         <x:v>242647</x:v>
@@ -9003,7 +11984,7 @@
     </x:row>
     <x:row r="88" spans="1:3">
       <x:c r="A88" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B88">
         <x:v>185274</x:v>
@@ -9014,7 +11995,7 @@
     </x:row>
     <x:row r="89" spans="1:3">
       <x:c r="A89" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B89">
         <x:v>158391</x:v>
@@ -9025,7 +12006,7 @@
     </x:row>
     <x:row r="90" spans="1:3">
       <x:c r="A90" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B90">
         <x:v>149039</x:v>
@@ -9036,7 +12017,7 @@
     </x:row>
     <x:row r="91" spans="1:3">
       <x:c r="A91" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B91">
         <x:v>153874</x:v>
@@ -9047,7 +12028,7 @@
     </x:row>
     <x:row r="92" spans="1:3">
       <x:c r="A92" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B92">
         <x:v>154735</x:v>
@@ -9058,7 +12039,7 @@
     </x:row>
     <x:row r="93" spans="1:3">
       <x:c r="A93" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B93">
         <x:v>169481</x:v>
@@ -9091,7 +12072,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
   <x:dimension ref="A1:A1"/>
@@ -9108,13 +12089,13 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="A1:N58"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="D7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H13" activeCellId="0" sqref="H13:H13"/>
+    <x:sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A43" activeCellId="0" sqref="A43:A43"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -9126,43 +12107,43 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7">
-      <x:c r="B1" s="9" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C1" s="11"/>
-      <x:c r="D1" s="11"/>
-      <x:c r="E1" s="11"/>
-      <x:c r="F1" s="11"/>
-      <x:c r="G1" s="11"/>
+      <x:c r="B1" s="21" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C1" s="23"/>
+      <x:c r="D1" s="23"/>
+      <x:c r="E1" s="23"/>
+      <x:c r="F1" s="23"/>
+      <x:c r="G1" s="23"/>
     </x:row>
     <x:row r="2" spans="2:11">
-      <x:c r="B2" s="11"/>
-      <x:c r="C2" s="11"/>
-      <x:c r="D2" s="11"/>
-      <x:c r="E2" s="11"/>
-      <x:c r="F2" s="11"/>
-      <x:c r="G2" s="11"/>
+      <x:c r="B2" s="23"/>
+      <x:c r="C2" s="23"/>
+      <x:c r="D2" s="23"/>
+      <x:c r="E2" s="23"/>
+      <x:c r="F2" s="23"/>
+      <x:c r="G2" s="23"/>
       <x:c r="K2" s="1"/>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F3" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K3" s="1"/>
     </x:row>
@@ -9170,22 +12151,22 @@
       <x:c r="A4" s="1">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B4" s="16">
+      <x:c r="B4" s="11">
         <x:v>1273</x:v>
       </x:c>
-      <x:c r="C4" s="17">
+      <x:c r="C4" s="12">
         <x:v>1260</x:v>
       </x:c>
-      <x:c r="D4" s="17">
+      <x:c r="D4" s="12">
         <x:v>1219</x:v>
       </x:c>
-      <x:c r="E4" s="17">
+      <x:c r="E4" s="12">
         <x:v>1116</x:v>
       </x:c>
-      <x:c r="F4" s="17">
+      <x:c r="F4" s="12">
         <x:v>804</x:v>
       </x:c>
-      <x:c r="G4" s="17">
+      <x:c r="G4" s="12">
         <x:v>703</x:v>
       </x:c>
       <x:c r="I4" s="1"/>
@@ -9199,22 +12180,22 @@
       <x:c r="A5" s="1">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B5" s="18">
+      <x:c r="B5" s="13">
         <x:v>2354</x:v>
       </x:c>
-      <x:c r="C5" s="17">
+      <x:c r="C5" s="12">
         <x:v>2280</x:v>
       </x:c>
-      <x:c r="D5" s="17">
+      <x:c r="D5" s="12">
         <x:v>2100</x:v>
       </x:c>
-      <x:c r="E5" s="17">
+      <x:c r="E5" s="12">
         <x:v>1550</x:v>
       </x:c>
-      <x:c r="F5" s="17">
+      <x:c r="F5" s="12">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G5" s="17">
+      <x:c r="G5" s="12">
         <x:v>815</x:v>
       </x:c>
       <x:c r="J5" s="1"/>
@@ -9227,22 +12208,22 @@
       <x:c r="A6" s="1">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="B6" s="19">
+      <x:c r="B6" s="14">
         <x:v>4140</x:v>
       </x:c>
-      <x:c r="C6" s="17">
+      <x:c r="C6" s="12">
         <x:v>3620</x:v>
       </x:c>
-      <x:c r="D6" s="17">
+      <x:c r="D6" s="12">
         <x:v>2940</x:v>
       </x:c>
-      <x:c r="E6" s="17">
+      <x:c r="E6" s="12">
         <x:v>2330</x:v>
       </x:c>
-      <x:c r="F6" s="17">
+      <x:c r="F6" s="12">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G6" s="17">
+      <x:c r="G6" s="12">
         <x:v>815</x:v>
       </x:c>
       <x:c r="K6" s="1"/>
@@ -9251,22 +12232,22 @@
       <x:c r="A7" s="1">
         <x:v>256</x:v>
       </x:c>
-      <x:c r="B7" s="17">
+      <x:c r="B7" s="12">
         <x:v>6410</x:v>
       </x:c>
-      <x:c r="C7" s="17">
+      <x:c r="C7" s="12">
         <x:v>5070</x:v>
       </x:c>
-      <x:c r="D7" s="17">
+      <x:c r="D7" s="12">
         <x:v>4350</x:v>
       </x:c>
-      <x:c r="E7" s="17">
+      <x:c r="E7" s="12">
         <x:v>2349</x:v>
       </x:c>
-      <x:c r="F7" s="17">
+      <x:c r="F7" s="12">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G7" s="17">
+      <x:c r="G7" s="12">
         <x:v>815</x:v>
       </x:c>
       <x:c r="K7" s="1"/>
@@ -9275,240 +12256,240 @@
       <x:c r="A8" s="1">
         <x:v>512</x:v>
       </x:c>
-      <x:c r="B8" s="17">
+      <x:c r="B8" s="12">
         <x:v>8220</x:v>
       </x:c>
-      <x:c r="C8" s="17">
+      <x:c r="C8" s="12">
         <x:v>7000</x:v>
       </x:c>
-      <x:c r="D8" s="17">
+      <x:c r="D8" s="12">
         <x:v>4529</x:v>
       </x:c>
-      <x:c r="E8" s="17">
+      <x:c r="E8" s="12">
         <x:v>2349</x:v>
       </x:c>
-      <x:c r="F8" s="17">
+      <x:c r="F8" s="12">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G8" s="17">
+      <x:c r="G8" s="12">
         <x:v>815</x:v>
       </x:c>
       <x:c r="J8" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="K8" s="15" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="K8" s="10" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="1">
         <x:v>1024</x:v>
       </x:c>
-      <x:c r="B9" s="17">
+      <x:c r="B9" s="12">
         <x:v>10600</x:v>
       </x:c>
-      <x:c r="C9" s="17">
+      <x:c r="C9" s="12">
         <x:v>8200</x:v>
       </x:c>
-      <x:c r="D9" s="17">
+      <x:c r="D9" s="12">
         <x:v>4529</x:v>
       </x:c>
-      <x:c r="E9" s="17">
+      <x:c r="E9" s="12">
         <x:v>2350</x:v>
       </x:c>
-      <x:c r="F9" s="17">
+      <x:c r="F9" s="12">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G9" s="17">
+      <x:c r="G9" s="12">
         <x:v>815</x:v>
       </x:c>
       <x:c r="J9" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="K9" s="15" t="s">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K9" s="10" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B10" s="17">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B10" s="12">
         <x:v>11900</x:v>
       </x:c>
-      <x:c r="C10" s="17">
+      <x:c r="C10" s="12">
         <x:v>8430</x:v>
       </x:c>
-      <x:c r="D10" s="17">
+      <x:c r="D10" s="12">
         <x:v>4530</x:v>
       </x:c>
-      <x:c r="E10" s="17">
+      <x:c r="E10" s="12">
         <x:v>2350</x:v>
       </x:c>
-      <x:c r="F10" s="17">
+      <x:c r="F10" s="12">
         <x:v>1197</x:v>
       </x:c>
-      <x:c r="G10" s="17"/>
+      <x:c r="G10" s="12"/>
       <x:c r="J10" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K10" s="15" t="s">
-        <x:v>44</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K10" s="10" t="s">
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B11" s="17">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B11" s="12">
         <x:v>12100</x:v>
       </x:c>
-      <x:c r="C11" s="17">
+      <x:c r="C11" s="12">
         <x:v>8270</x:v>
       </x:c>
-      <x:c r="D11" s="17">
+      <x:c r="D11" s="12">
         <x:v>4530</x:v>
       </x:c>
-      <x:c r="E11" s="17">
+      <x:c r="E11" s="12">
         <x:v>2350</x:v>
       </x:c>
-      <x:c r="F11" s="17"/>
-      <x:c r="G11" s="17"/>
+      <x:c r="F11" s="12"/>
+      <x:c r="G11" s="12"/>
       <x:c r="J11" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="K11" s="15" t="s">
-        <x:v>39</x:v>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="K11" s="10" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B12" s="17">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B12" s="12">
         <x:v>12200</x:v>
       </x:c>
-      <x:c r="C12" s="17">
+      <x:c r="C12" s="12">
         <x:v>8250</x:v>
       </x:c>
-      <x:c r="D12" s="17">
+      <x:c r="D12" s="12">
         <x:v>4370</x:v>
       </x:c>
-      <x:c r="E12" s="17"/>
-      <x:c r="F12" s="17"/>
-      <x:c r="G12" s="17"/>
+      <x:c r="E12" s="12"/>
+      <x:c r="F12" s="12"/>
+      <x:c r="G12" s="12"/>
       <x:c r="J12" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="K12" s="15" t="s">
-        <x:v>41</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="K12" s="10" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B13" s="17">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B13" s="12">
         <x:v>12300</x:v>
       </x:c>
-      <x:c r="C13" s="17">
+      <x:c r="C13" s="12">
         <x:v>7940</x:v>
       </x:c>
-      <x:c r="D13" s="17"/>
-      <x:c r="E13" s="17"/>
-      <x:c r="F13" s="17"/>
-      <x:c r="G13" s="17"/>
+      <x:c r="D13" s="12"/>
+      <x:c r="E13" s="12"/>
+      <x:c r="F13" s="12"/>
+      <x:c r="G13" s="12"/>
       <x:c r="J13" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="K13" s="15" t="s">
-        <x:v>43</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="K13" s="10" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:11">
       <x:c r="A14" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B14" s="17">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B14" s="12">
         <x:v>12550</x:v>
       </x:c>
-      <x:c r="C14" s="17">
+      <x:c r="C14" s="12">
         <x:v>7500</x:v>
       </x:c>
-      <x:c r="D14" s="17"/>
-      <x:c r="E14" s="17"/>
-      <x:c r="F14" s="17"/>
-      <x:c r="G14" s="17"/>
+      <x:c r="D14" s="12"/>
+      <x:c r="E14" s="12"/>
+      <x:c r="F14" s="12"/>
+      <x:c r="G14" s="12"/>
       <x:c r="H14" t="s">
-        <x:v>45</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="K14" s="1"/>
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B15" s="16">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B15" s="11">
         <x:v>12500</x:v>
       </x:c>
-      <x:c r="C15" s="16">
+      <x:c r="C15" s="11">
         <x:v>7100</x:v>
       </x:c>
-      <x:c r="D15" s="16"/>
-      <x:c r="E15" s="16"/>
-      <x:c r="F15" s="16"/>
-      <x:c r="G15" s="16"/>
+      <x:c r="D15" s="11"/>
+      <x:c r="E15" s="11"/>
+      <x:c r="F15" s="11"/>
+      <x:c r="G15" s="11"/>
       <x:c r="K15" s="1"/>
     </x:row>
     <x:row r="16" spans="1:11">
       <x:c r="A16" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B16" s="16">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B16" s="11">
         <x:v>12000</x:v>
       </x:c>
-      <x:c r="C16" s="16">
+      <x:c r="C16" s="11">
         <x:v>6700</x:v>
       </x:c>
-      <x:c r="D16" s="16"/>
-      <x:c r="E16" s="16"/>
-      <x:c r="F16" s="16"/>
-      <x:c r="G16" s="16"/>
+      <x:c r="D16" s="11"/>
+      <x:c r="E16" s="11"/>
+      <x:c r="F16" s="11"/>
+      <x:c r="G16" s="11"/>
       <x:c r="K16" s="1"/>
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B17" s="16">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B17" s="11">
         <x:v>11200</x:v>
       </x:c>
-      <x:c r="C17" s="16">
+      <x:c r="C17" s="11">
         <x:v>7940</x:v>
       </x:c>
-      <x:c r="D17" s="16"/>
-      <x:c r="E17" s="16"/>
-      <x:c r="F17" s="16"/>
-      <x:c r="G17" s="16"/>
+      <x:c r="D17" s="11"/>
+      <x:c r="E17" s="11"/>
+      <x:c r="F17" s="11"/>
+      <x:c r="G17" s="11"/>
       <x:c r="K17" s="1"/>
     </x:row>
     <x:row r="18" spans="1:11">
       <x:c r="A18" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B18" s="16">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="11">
         <x:v>11500</x:v>
       </x:c>
-      <x:c r="C18" s="16"/>
-      <x:c r="D18" s="16"/>
-      <x:c r="E18" s="16"/>
-      <x:c r="F18" s="16"/>
-      <x:c r="G18" s="16"/>
+      <x:c r="C18" s="11"/>
+      <x:c r="D18" s="11"/>
+      <x:c r="E18" s="11"/>
+      <x:c r="F18" s="11"/>
+      <x:c r="G18" s="11"/>
       <x:c r="K18" s="1"/>
     </x:row>
     <x:row r="19" spans="10:11">
       <x:c r="J19" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K19" s="7">
         <x:f>$B$4/13900</x:f>
@@ -9517,7 +12498,7 @@
     </x:row>
     <x:row r="20" spans="10:11">
       <x:c r="J20" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K20" s="8">
         <x:f>$C$4/MAX($C$4:$C$13)</x:f>
@@ -9525,16 +12506,16 @@
       </x:c>
     </x:row>
     <x:row r="21" spans="2:11">
-      <x:c r="B21" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C21" s="11"/>
-      <x:c r="D21" s="11"/>
-      <x:c r="E21" s="11"/>
-      <x:c r="F21" s="11"/>
-      <x:c r="G21" s="11"/>
+      <x:c r="B21" s="21" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C21" s="23"/>
+      <x:c r="D21" s="23"/>
+      <x:c r="E21" s="23"/>
+      <x:c r="F21" s="23"/>
+      <x:c r="G21" s="23"/>
       <x:c r="J21" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K21" s="8">
         <x:f>$D$4/MAX($D$4:$D$13)</x:f>
@@ -9542,14 +12523,14 @@
       </x:c>
     </x:row>
     <x:row r="22" spans="2:11">
-      <x:c r="B22" s="11"/>
-      <x:c r="C22" s="11"/>
-      <x:c r="D22" s="11"/>
-      <x:c r="E22" s="11"/>
-      <x:c r="F22" s="11"/>
-      <x:c r="G22" s="11"/>
+      <x:c r="B22" s="23"/>
+      <x:c r="C22" s="23"/>
+      <x:c r="D22" s="23"/>
+      <x:c r="E22" s="23"/>
+      <x:c r="F22" s="23"/>
+      <x:c r="G22" s="23"/>
       <x:c r="J22" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K22" s="8">
         <x:f>$E$4/MAX($E$4:$E$13)</x:f>
@@ -9559,25 +12540,25 @@
     <x:row r="23" spans="1:11">
       <x:c r="A23" s="1"/>
       <x:c r="B23" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F23" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G23" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="J23" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="K23" s="8">
         <x:f>$F$4/MAX($F$4:$F$13)</x:f>
@@ -9613,7 +12594,7 @@
         <x:v>0.86257668711656443</x:v>
       </x:c>
       <x:c r="J24" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="K24" s="8">
         <x:f>$G$4/MAX($G$4:$G$13)</x:f>
@@ -9767,7 +12748,7 @@
     </x:row>
     <x:row r="30" spans="1:7">
       <x:c r="A30" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B30" s="7">
         <x:f>B10/13900</x:f>
@@ -9796,7 +12777,7 @@
     </x:row>
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B31" s="7">
         <x:f>B11/13900</x:f>
@@ -9825,7 +12806,7 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="7">
         <x:f>B12/13900</x:f>
@@ -9854,7 +12835,7 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B33" s="7">
         <x:f>B13/13900</x:f>
@@ -9883,7 +12864,7 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B34" s="7">
         <x:f>B14/13900</x:f>
@@ -9912,7 +12893,7 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B35" s="7">
         <x:f>B15/13900</x:f>
@@ -9927,9 +12908,9 @@
       <x:c r="F35" s="8"/>
       <x:c r="G35" s="8"/>
     </x:row>
-    <x:row r="36" spans="1:8">
+    <x:row r="36" spans="1:7">
       <x:c r="A36" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B36" s="7">
         <x:f>B16/13900</x:f>
@@ -9943,13 +12924,10 @@
       <x:c r="E36" s="8"/>
       <x:c r="F36" s="8"/>
       <x:c r="G36" s="8"/>
-      <x:c r="H36" t="s">
-        <x:v>16</x:v>
-      </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B37" s="7">
         <x:f>B17/13900</x:f>
@@ -9966,7 +12944,7 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="7">
         <x:f>B18/13900</x:f>
@@ -9982,42 +12960,42 @@
       <x:c r="G38" s="8"/>
     </x:row>
     <x:row r="41" spans="2:7">
-      <x:c r="B41" s="9" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C41" s="11"/>
-      <x:c r="D41" s="11"/>
-      <x:c r="E41" s="11"/>
-      <x:c r="F41" s="11"/>
-      <x:c r="G41" s="11"/>
+      <x:c r="B41" s="21" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C41" s="23"/>
+      <x:c r="D41" s="23"/>
+      <x:c r="E41" s="23"/>
+      <x:c r="F41" s="23"/>
+      <x:c r="G41" s="23"/>
     </x:row>
     <x:row r="42" spans="2:7">
-      <x:c r="B42" s="11"/>
-      <x:c r="C42" s="11"/>
-      <x:c r="D42" s="11"/>
-      <x:c r="E42" s="11"/>
-      <x:c r="F42" s="11"/>
-      <x:c r="G42" s="11"/>
+      <x:c r="B42" s="23"/>
+      <x:c r="C42" s="23"/>
+      <x:c r="D42" s="23"/>
+      <x:c r="E42" s="23"/>
+      <x:c r="F42" s="23"/>
+      <x:c r="G42" s="23"/>
     </x:row>
     <x:row r="43" spans="1:7">
       <x:c r="A43" s="1"/>
       <x:c r="B43" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E43" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F43" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G43" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:7">
@@ -10160,7 +13138,7 @@
     </x:row>
     <x:row r="50" spans="1:7">
       <x:c r="A50" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B50" s="1">
         <x:v>5830</x:v>
@@ -10181,7 +13159,7 @@
     </x:row>
     <x:row r="51" spans="1:7">
       <x:c r="A51" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B51" s="1">
         <x:v>2960</x:v>
@@ -10200,7 +13178,7 @@
     </x:row>
     <x:row r="52" spans="1:7">
       <x:c r="A52" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B52" s="1">
         <x:v>1490</x:v>
@@ -10217,7 +13195,7 @@
     </x:row>
     <x:row r="53" spans="1:7">
       <x:c r="A53" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B53" s="1">
         <x:v>752</x:v>
@@ -10232,7 +13210,7 @@
     </x:row>
     <x:row r="54" spans="1:7">
       <x:c r="A54" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B54" s="1">
         <x:v>384</x:v>
@@ -10247,7 +13225,7 @@
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B55">
         <x:v>191</x:v>
@@ -10258,7 +13236,7 @@
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B56">
         <x:v>92</x:v>
@@ -10269,7 +13247,7 @@
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B57">
         <x:v>44</x:v>
@@ -10280,7 +13258,7 @@
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B58">
         <x:v>22</x:v>
@@ -10298,13 +13276,13 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet6"/>
   <x:dimension ref="A1:A1"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="P61" activeCellId="0" sqref="P61:P61"/>
+    <x:sheetView topLeftCell="A48" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="N55" activeCellId="0" sqref="N55:N55"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -10315,13 +13293,13 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet10"/>
-  <x:dimension ref="A1:H54"/>
+  <x:dimension ref="A1:G54"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D42" activeCellId="0" sqref="D42:D42"/>
+    <x:sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I25" activeCellId="0" sqref="I25:I25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
@@ -10332,18 +13310,18 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:7" ht="24.949999999999999" customHeight="1">
-      <x:c r="B1" s="9" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C1" s="10"/>
+      <x:c r="B1" s="21" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C1" s="22"/>
       <x:c r="D1" s="2"/>
       <x:c r="E1" s="2"/>
       <x:c r="F1" s="2"/>
       <x:c r="G1" s="2"/>
     </x:row>
     <x:row r="2" spans="2:7">
-      <x:c r="B2" s="10"/>
-      <x:c r="C2" s="10"/>
+      <x:c r="B2" s="22"/>
+      <x:c r="C2" s="22"/>
       <x:c r="D2" s="2"/>
       <x:c r="E2" s="2"/>
       <x:c r="F2" s="2"/>
@@ -10352,10 +13330,10 @@
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1"/>
       <x:c r="B3" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D3" s="1"/>
       <x:c r="E3" s="1"/>
@@ -10364,13 +13342,13 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B4" s="1">
-        <x:v>12000000</x:v>
-      </x:c>
-      <x:c r="C4" s="1">
-        <x:v>8440000</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B4" s="12">
+        <x:v>12000</x:v>
+      </x:c>
+      <x:c r="C4" s="12">
+        <x:v>8440</x:v>
       </x:c>
       <x:c r="D4" s="1"/>
       <x:c r="E4" s="1"/>
@@ -10379,13 +13357,13 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B5" s="1">
-        <x:v>12100000</x:v>
-      </x:c>
-      <x:c r="C5" s="1">
-        <x:v>8310000</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B5" s="26">
+        <x:v>12100</x:v>
+      </x:c>
+      <x:c r="C5" s="26">
+        <x:v>8310</x:v>
       </x:c>
       <x:c r="D5" s="1"/>
       <x:c r="E5" s="1"/>
@@ -10394,13 +13372,13 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B6" s="1">
-        <x:v>12270000</x:v>
-      </x:c>
-      <x:c r="C6" s="1">
-        <x:v>8300000</x:v>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B6" s="26">
+        <x:v>12270</x:v>
+      </x:c>
+      <x:c r="C6" s="26">
+        <x:v>8300</x:v>
       </x:c>
       <x:c r="D6" s="1"/>
       <x:c r="E6" s="1"/>
@@ -10409,13 +13387,13 @@
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B7" s="1">
-        <x:v>12330000</x:v>
-      </x:c>
-      <x:c r="C7" s="1">
-        <x:v>7940000</x:v>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B7" s="26">
+        <x:v>12330</x:v>
+      </x:c>
+      <x:c r="C7" s="26">
+        <x:v>7940</x:v>
       </x:c>
       <x:c r="D7" s="1"/>
       <x:c r="E7" s="1"/>
@@ -10424,13 +13402,13 @@
     </x:row>
     <x:row r="8" spans="1:7">
       <x:c r="A8" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B8" s="1">
-        <x:v>12600000</x:v>
-      </x:c>
-      <x:c r="C8" s="1">
-        <x:v>7500000</x:v>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B8" s="26">
+        <x:v>12600</x:v>
+      </x:c>
+      <x:c r="C8" s="26">
+        <x:v>7500</x:v>
       </x:c>
       <x:c r="D8" s="1"/>
       <x:c r="E8" s="1"/>
@@ -10439,13 +13417,13 @@
     </x:row>
     <x:row r="9" spans="1:7">
       <x:c r="A9" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B9">
-        <x:v>12500000</x:v>
-      </x:c>
-      <x:c r="C9">
-        <x:v>7100000</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B9" s="27">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="C9" s="27">
+        <x:v>7100</x:v>
       </x:c>
       <x:c r="D9" s="1"/>
       <x:c r="E9" s="1"/>
@@ -10454,13 +13432,13 @@
     </x:row>
     <x:row r="10" spans="1:7">
       <x:c r="A10" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B10">
-        <x:v>12000000</x:v>
-      </x:c>
-      <x:c r="C10">
-        <x:v>6700000</x:v>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="27">
+        <x:v>12000</x:v>
+      </x:c>
+      <x:c r="C10" s="27">
+        <x:v>6700</x:v>
       </x:c>
       <x:c r="D10" s="1"/>
       <x:c r="E10" s="1"/>
@@ -10469,13 +13447,13 @@
     </x:row>
     <x:row r="11" spans="1:7">
       <x:c r="A11" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="B11">
-        <x:v>11200000</x:v>
-      </x:c>
-      <x:c r="C11">
-        <x:v>7940000</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="27">
+        <x:v>11200</x:v>
+      </x:c>
+      <x:c r="C11" s="27">
+        <x:v>7940</x:v>
       </x:c>
       <x:c r="D11" s="1"/>
       <x:c r="E11" s="1"/>
@@ -10484,11 +13462,12 @@
     </x:row>
     <x:row r="12" spans="1:7">
       <x:c r="A12" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B12">
-        <x:v>11500000</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="27">
+        <x:v>11500</x:v>
+      </x:c>
+      <x:c r="C12" s="27"/>
       <x:c r="D12" s="1"/>
       <x:c r="E12" s="1"/>
       <x:c r="F12" s="1"/>
@@ -10507,73 +13486,73 @@
       <x:c r="G14" s="1"/>
     </x:row>
     <x:row r="15" spans="2:3">
-      <x:c r="B15" s="9" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C15" s="10"/>
+      <x:c r="B15" s="21" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="22"/>
     </x:row>
     <x:row r="16" spans="2:3">
-      <x:c r="B16" s="10"/>
-      <x:c r="C16" s="10"/>
+      <x:c r="B16" s="22"/>
+      <x:c r="C16" s="22"/>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="1"/>
       <x:c r="B17" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B18" s="7">
-        <x:f t="shared" ref="B18:B26" si="0">B4/13900000</x:f>
-        <x:v>0.86330935251798557</x:v>
+        <x:f>B4/MAX($B$4:$B$12)</x:f>
+        <x:v>0.95238095238095233</x:v>
       </x:c>
       <x:c r="C18" s="8">
-        <x:f t="shared" ref="C18:C26" si="1">C4/MAX($C$4:$C$13)</x:f>
+        <x:f t="shared" ref="C18:C26" si="0">C4/MAX($C$4:$C$13)</x:f>
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B19" s="7">
+        <x:f t="shared" ref="B19:B26" si="1">B5/MAX($B$4:$B$12)</x:f>
+        <x:v>0.96031746031746035</x:v>
+      </x:c>
+      <x:c r="C19" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.87050359712230219</x:v>
-      </x:c>
-      <x:c r="C19" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.9845971563981043</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B20" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.97380952380952379</x:v>
+      </x:c>
+      <x:c r="C20" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.88273381294964026</x:v>
-      </x:c>
-      <x:c r="C20" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.98341232227488151</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:7" ht="24.949999999999999" customHeight="1">
       <x:c r="A21" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B21" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.97857142857142854</x:v>
+      </x:c>
+      <x:c r="C21" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.88705035971223023</x:v>
-      </x:c>
-      <x:c r="C21" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.94075829383886256</x:v>
       </x:c>
       <x:c r="D21" s="2"/>
@@ -10583,14 +13562,14 @@
     </x:row>
     <x:row r="22" spans="1:7">
       <x:c r="A22" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B22" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C22" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.90647482014388492</x:v>
-      </x:c>
-      <x:c r="C22" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.88862559241706163</x:v>
       </x:c>
       <x:c r="D22" s="2"/>
@@ -10600,14 +13579,14 @@
     </x:row>
     <x:row r="23" spans="1:7">
       <x:c r="A23" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B23" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.99206349206349209</x:v>
+      </x:c>
+      <x:c r="C23" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.89928057553956831</x:v>
-      </x:c>
-      <x:c r="C23" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.84123222748815163</x:v>
       </x:c>
       <x:c r="D23" s="1"/>
@@ -10617,14 +13596,14 @@
     </x:row>
     <x:row r="24" spans="1:7">
       <x:c r="A24" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B24" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.95238095238095233</x:v>
+      </x:c>
+      <x:c r="C24" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.86330935251798557</x:v>
-      </x:c>
-      <x:c r="C24" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.79383886255924174</x:v>
       </x:c>
       <x:c r="D24" s="8"/>
@@ -10634,14 +13613,14 @@
     </x:row>
     <x:row r="25" spans="1:7">
       <x:c r="A25" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B25" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.88888888888888884</x:v>
+      </x:c>
+      <x:c r="C25" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.80575539568345322</x:v>
-      </x:c>
-      <x:c r="C25" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0.94075829383886256</x:v>
       </x:c>
       <x:c r="D25" s="8"/>
@@ -10651,14 +13630,14 @@
     </x:row>
     <x:row r="26" spans="1:7">
       <x:c r="A26" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.91269841269841268</x:v>
+      </x:c>
+      <x:c r="C26" s="8">
         <x:f t="shared" si="0"/>
-        <x:v>0.82733812949640284</x:v>
-      </x:c>
-      <x:c r="C26" s="8">
-        <x:f t="shared" si="1"/>
         <x:v>0</x:v>
       </x:c>
       <x:c r="D26" s="8"/>
@@ -10679,18 +13658,18 @@
       <x:c r="G28" s="8"/>
     </x:row>
     <x:row r="29" spans="2:7">
-      <x:c r="B29" s="9" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C29" s="10"/>
+      <x:c r="B29" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C29" s="22"/>
       <x:c r="D29" s="8"/>
       <x:c r="E29" s="8"/>
       <x:c r="F29" s="8"/>
       <x:c r="G29" s="8"/>
     </x:row>
     <x:row r="30" spans="2:7">
-      <x:c r="B30" s="10"/>
-      <x:c r="C30" s="10"/>
+      <x:c r="B30" s="22"/>
+      <x:c r="C30" s="22"/>
       <x:c r="D30" s="8"/>
       <x:c r="E30" s="8"/>
       <x:c r="F30" s="8"/>
@@ -10699,10 +13678,10 @@
     <x:row r="31" spans="1:7">
       <x:c r="A31" s="1"/>
       <x:c r="B31" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D31" s="8"/>
       <x:c r="E31" s="8"/>
@@ -10711,7 +13690,7 @@
     </x:row>
     <x:row r="32" spans="1:7">
       <x:c r="A32" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B32" s="1">
         <x:v>5848</x:v>
@@ -10726,7 +13705,7 @@
     </x:row>
     <x:row r="33" spans="1:7">
       <x:c r="A33" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B33" s="1">
         <x:v>2970</x:v>
@@ -10741,7 +13720,7 @@
     </x:row>
     <x:row r="34" spans="1:7">
       <x:c r="A34" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B34" s="1">
         <x:v>1497</x:v>
@@ -10756,7 +13735,7 @@
     </x:row>
     <x:row r="35" spans="1:7">
       <x:c r="A35" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="1">
         <x:v>755</x:v>
@@ -10769,9 +13748,9 @@
       <x:c r="F35" s="8"/>
       <x:c r="G35" s="8"/>
     </x:row>
-    <x:row r="36" spans="1:8">
+    <x:row r="36" spans="1:7">
       <x:c r="A36" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B36" s="1">
         <x:v>386</x:v>
@@ -10783,13 +13762,10 @@
       <x:c r="E36" s="8"/>
       <x:c r="F36" s="8"/>
       <x:c r="G36" s="8"/>
-      <x:c r="H36" t="s">
-        <x:v>16</x:v>
-      </x:c>
     </x:row>
     <x:row r="37" spans="1:7">
       <x:c r="A37" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B37">
         <x:v>191</x:v>
@@ -10804,7 +13780,7 @@
     </x:row>
     <x:row r="38" spans="1:7">
       <x:c r="A38" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B38">
         <x:v>92</x:v>
@@ -10819,7 +13795,7 @@
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B39">
         <x:v>44</x:v>
@@ -10830,7 +13806,7 @@
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B40">
         <x:v>22</x:v>
@@ -10928,5 +13904,621 @@
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:drawing r:id="rId1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet7"/>
+  <x:dimension ref="A1:G54"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I13" activeCellId="0" sqref="I13:I13"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.550000000000001"/>
+  <x:cols>
+    <x:col min="1" max="1" width="13.19921875" customWidth="1"/>
+    <x:col min="2" max="3" width="32.41015625" customWidth="1"/>
+    <x:col min="4" max="7" width="22.4453125" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="2:7" ht="24.949999999999999" customHeight="1">
+      <x:c r="B1" s="21" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C1" s="22"/>
+      <x:c r="D1" s="2"/>
+      <x:c r="E1" s="2"/>
+      <x:c r="F1" s="2"/>
+      <x:c r="G1" s="2"/>
+    </x:row>
+    <x:row r="2" spans="2:7">
+      <x:c r="B2" s="22"/>
+      <x:c r="C2" s="22"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
+      <x:c r="F2" s="2"/>
+      <x:c r="G2" s="2"/>
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="1"/>
+      <x:c r="B3" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D3" s="1"/>
+      <x:c r="E3" s="1"/>
+      <x:c r="F3" s="1"/>
+      <x:c r="G3" s="1"/>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B4" s="19">
+        <x:v>13400</x:v>
+      </x:c>
+      <x:c r="C4" s="19">
+        <x:v>8440</x:v>
+      </x:c>
+      <x:c r="D4" s="1"/>
+      <x:c r="E4" s="1"/>
+      <x:c r="F4" s="1"/>
+      <x:c r="G4" s="1"/>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B5" s="19">
+        <x:v>12800</x:v>
+      </x:c>
+      <x:c r="C5" s="19">
+        <x:v>8440</x:v>
+      </x:c>
+      <x:c r="D5" s="1"/>
+      <x:c r="E5" s="1"/>
+      <x:c r="F5" s="1"/>
+      <x:c r="G5" s="1"/>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B6" s="19">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="C6" s="19">
+        <x:v>8440</x:v>
+      </x:c>
+      <x:c r="D6" s="1"/>
+      <x:c r="E6" s="1"/>
+      <x:c r="F6" s="1"/>
+      <x:c r="G6" s="1"/>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B7" s="19">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="C7" s="19">
+        <x:v>8000</x:v>
+      </x:c>
+      <x:c r="D7" s="1"/>
+      <x:c r="E7" s="1"/>
+      <x:c r="F7" s="1"/>
+      <x:c r="G7" s="1"/>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B8" s="19">
+        <x:v>12700</x:v>
+      </x:c>
+      <x:c r="C8" s="19">
+        <x:v>7500</x:v>
+      </x:c>
+      <x:c r="D8" s="1"/>
+      <x:c r="E8" s="1"/>
+      <x:c r="F8" s="1"/>
+      <x:c r="G8" s="1"/>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B9" s="20">
+        <x:v>12500</x:v>
+      </x:c>
+      <x:c r="C9" s="20">
+        <x:v>7140</x:v>
+      </x:c>
+      <x:c r="D9" s="1"/>
+      <x:c r="E9" s="1"/>
+      <x:c r="F9" s="1"/>
+      <x:c r="G9" s="1"/>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="20">
+        <x:v>12000</x:v>
+      </x:c>
+      <x:c r="C10" s="20">
+        <x:v>6680</x:v>
+      </x:c>
+      <x:c r="D10" s="1"/>
+      <x:c r="E10" s="1"/>
+      <x:c r="F10" s="1"/>
+      <x:c r="G10" s="1"/>
+    </x:row>
+    <x:row r="11" spans="1:7">
+      <x:c r="A11" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B11" s="20">
+        <x:v>11500</x:v>
+      </x:c>
+      <x:c r="C11" s="20">
+        <x:v>6550</x:v>
+      </x:c>
+      <x:c r="D11" s="1"/>
+      <x:c r="E11" s="1"/>
+      <x:c r="F11" s="1"/>
+      <x:c r="G11" s="1"/>
+    </x:row>
+    <x:row r="12" spans="1:7">
+      <x:c r="A12" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="20">
+        <x:v>11000</x:v>
+      </x:c>
+      <x:c r="C12" s="20"/>
+      <x:c r="D12" s="1"/>
+      <x:c r="E12" s="1"/>
+      <x:c r="F12" s="1"/>
+      <x:c r="G12" s="1"/>
+    </x:row>
+    <x:row r="13" spans="4:7">
+      <x:c r="D13" s="1"/>
+      <x:c r="E13" s="1"/>
+      <x:c r="F13" s="1"/>
+      <x:c r="G13" s="1"/>
+    </x:row>
+    <x:row r="14" spans="4:7">
+      <x:c r="D14" s="1"/>
+      <x:c r="E14" s="1"/>
+      <x:c r="F14" s="1"/>
+      <x:c r="G14" s="1"/>
+    </x:row>
+    <x:row r="15" spans="2:3">
+      <x:c r="B15" s="21" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="22"/>
+    </x:row>
+    <x:row r="16" spans="2:3">
+      <x:c r="B16" s="22"/>
+      <x:c r="C16" s="22"/>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="1"/>
+      <x:c r="B17" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B18" s="7">
+        <x:f>B4/MAX($B$4:$B$12)</x:f>
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" s="8">
+        <x:f t="shared" ref="C18:C26" si="0">C4/MAX($C$4:$C$13)</x:f>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B19" s="7">
+        <x:f t="shared" ref="B19:B26" si="1">B5/MAX($B$4:$B$12)</x:f>
+        <x:v>0.95522388059701491</x:v>
+      </x:c>
+      <x:c r="C19" s="8">
+        <x:f t="shared" si="0"/>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B20" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.93283582089552242</x:v>
+      </x:c>
+      <x:c r="C20" s="8">
+        <x:f t="shared" si="0"/>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:7" ht="24.949999999999999" customHeight="1">
+      <x:c r="A21" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B21" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.93283582089552242</x:v>
+      </x:c>
+      <x:c r="C21" s="8">
+        <x:f t="shared" si="0"/>
+        <x:v>0.94786729857819907</x:v>
+      </x:c>
+      <x:c r="D21" s="2"/>
+      <x:c r="E21" s="2"/>
+      <x:c r="F21" s="2"/>
+      <x:c r="G21" s="2"/>
+    </x:row>
+    <x:row r="22" spans="1:7">
+      <x:c r="A22" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B22" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.94776119402985071</x:v>
+      </x:c>
+      <x:c r="C22" s="8">
+        <x:f t="shared" si="0"/>
+        <x:v>0.88862559241706163</x:v>
+      </x:c>
+      <x:c r="D22" s="2"/>
+      <x:c r="E22" s="2"/>
+      <x:c r="F22" s="2"/>
+      <x:c r="G22" s="2"/>
+    </x:row>
+    <x:row r="23" spans="1:7">
+      <x:c r="A23" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B23" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.93283582089552242</x:v>
+      </x:c>
+      <x:c r="C23" s="8">
+        <x:f t="shared" si="0"/>
+        <x:v>0.84597156398104267</x:v>
+      </x:c>
+      <x:c r="D23" s="1"/>
+      <x:c r="E23" s="1"/>
+      <x:c r="F23" s="1"/>
+      <x:c r="G23" s="1"/>
+    </x:row>
+    <x:row r="24" spans="1:7">
+      <x:c r="A24" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B24" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.89552238805970152</x:v>
+      </x:c>
+      <x:c r="C24" s="8">
+        <x:f t="shared" si="0"/>
+        <x:v>0.79146919431279616</x:v>
+      </x:c>
+      <x:c r="D24" s="8"/>
+      <x:c r="E24" s="8"/>
+      <x:c r="F24" s="8"/>
+      <x:c r="G24" s="8"/>
+    </x:row>
+    <x:row r="25" spans="1:7">
+      <x:c r="A25" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B25" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.85820895522388063</x:v>
+      </x:c>
+      <x:c r="C25" s="8">
+        <x:f t="shared" si="0"/>
+        <x:v>0.77606635071090047</x:v>
+      </x:c>
+      <x:c r="D25" s="8"/>
+      <x:c r="E25" s="8"/>
+      <x:c r="F25" s="8"/>
+      <x:c r="G25" s="8"/>
+    </x:row>
+    <x:row r="26" spans="1:7">
+      <x:c r="A26" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="7">
+        <x:f t="shared" si="1"/>
+        <x:v>0.82089552238805974</x:v>
+      </x:c>
+      <x:c r="C26" s="8">
+        <x:f t="shared" si="0"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D26" s="8"/>
+      <x:c r="E26" s="8"/>
+      <x:c r="F26" s="8"/>
+      <x:c r="G26" s="8"/>
+    </x:row>
+    <x:row r="27" spans="4:7">
+      <x:c r="D27" s="8"/>
+      <x:c r="E27" s="8"/>
+      <x:c r="F27" s="8"/>
+      <x:c r="G27" s="8"/>
+    </x:row>
+    <x:row r="28" spans="4:7">
+      <x:c r="D28" s="8"/>
+      <x:c r="E28" s="8"/>
+      <x:c r="F28" s="8"/>
+      <x:c r="G28" s="8"/>
+    </x:row>
+    <x:row r="29" spans="2:7">
+      <x:c r="B29" s="21" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C29" s="22"/>
+      <x:c r="D29" s="8"/>
+      <x:c r="E29" s="8"/>
+      <x:c r="F29" s="8"/>
+      <x:c r="G29" s="8"/>
+    </x:row>
+    <x:row r="30" spans="2:7">
+      <x:c r="B30" s="22"/>
+      <x:c r="C30" s="22"/>
+      <x:c r="D30" s="8"/>
+      <x:c r="E30" s="8"/>
+      <x:c r="F30" s="8"/>
+      <x:c r="G30" s="8"/>
+    </x:row>
+    <x:row r="31" spans="1:7">
+      <x:c r="A31" s="1"/>
+      <x:c r="B31" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D31" s="8"/>
+      <x:c r="E31" s="8"/>
+      <x:c r="F31" s="8"/>
+      <x:c r="G31" s="8"/>
+    </x:row>
+    <x:row r="32" spans="1:7">
+      <x:c r="A32" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B32" s="1">
+        <x:v>6565</x:v>
+      </x:c>
+      <x:c r="C32" s="1">
+        <x:v>4124</x:v>
+      </x:c>
+      <x:c r="D32" s="8"/>
+      <x:c r="E32" s="8"/>
+      <x:c r="F32" s="8"/>
+      <x:c r="G32" s="8"/>
+    </x:row>
+    <x:row r="33" spans="1:7">
+      <x:c r="A33" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B33" s="1">
+        <x:v>3127</x:v>
+      </x:c>
+      <x:c r="C33" s="1">
+        <x:v>2602</x:v>
+      </x:c>
+      <x:c r="D33" s="8"/>
+      <x:c r="E33" s="8"/>
+      <x:c r="F33" s="8"/>
+      <x:c r="G33" s="8"/>
+    </x:row>
+    <x:row r="34" spans="1:7">
+      <x:c r="A34" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B34" s="1">
+        <x:v>1534</x:v>
+      </x:c>
+      <x:c r="C34" s="1">
+        <x:v>1031</x:v>
+      </x:c>
+      <x:c r="D34" s="8"/>
+      <x:c r="E34" s="8"/>
+      <x:c r="F34" s="8"/>
+      <x:c r="G34" s="8"/>
+    </x:row>
+    <x:row r="35" spans="1:7">
+      <x:c r="A35" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B35" s="1">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="C35" s="1">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="D35" s="8"/>
+      <x:c r="E35" s="8"/>
+      <x:c r="F35" s="8"/>
+      <x:c r="G35" s="8"/>
+    </x:row>
+    <x:row r="36" spans="1:7">
+      <x:c r="A36" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B36" s="1">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="C36" s="1">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D36" s="8"/>
+      <x:c r="E36" s="8"/>
+      <x:c r="F36" s="8"/>
+      <x:c r="G36" s="8"/>
+    </x:row>
+    <x:row r="37" spans="1:7">
+      <x:c r="A37" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B37">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C37">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="8"/>
+      <x:c r="E37" s="8"/>
+      <x:c r="F37" s="8"/>
+      <x:c r="G37" s="8"/>
+    </x:row>
+    <x:row r="38" spans="1:7">
+      <x:c r="A38" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B38">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C38">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D38" s="8"/>
+      <x:c r="E38" s="8"/>
+      <x:c r="F38" s="8"/>
+      <x:c r="G38" s="8"/>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B39">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C39">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:2">
+      <x:c r="A40" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="4:7" ht="24.949999999999999" customHeight="1">
+      <x:c r="D41" s="2"/>
+      <x:c r="E41" s="2"/>
+      <x:c r="F41" s="2"/>
+      <x:c r="G41" s="2"/>
+    </x:row>
+    <x:row r="42" spans="4:7">
+      <x:c r="D42" s="2"/>
+      <x:c r="E42" s="2"/>
+      <x:c r="F42" s="2"/>
+      <x:c r="G42" s="2"/>
+    </x:row>
+    <x:row r="43" spans="4:7">
+      <x:c r="D43" s="1"/>
+      <x:c r="E43" s="1"/>
+      <x:c r="F43" s="1"/>
+      <x:c r="G43" s="1"/>
+    </x:row>
+    <x:row r="44" spans="4:7">
+      <x:c r="D44" s="1"/>
+      <x:c r="E44" s="1"/>
+      <x:c r="F44" s="1"/>
+      <x:c r="G44" s="1"/>
+    </x:row>
+    <x:row r="45" spans="4:7">
+      <x:c r="D45" s="1"/>
+      <x:c r="E45" s="1"/>
+      <x:c r="F45" s="1"/>
+      <x:c r="G45" s="1"/>
+    </x:row>
+    <x:row r="46" spans="4:7">
+      <x:c r="D46" s="1"/>
+      <x:c r="E46" s="1"/>
+      <x:c r="F46" s="1"/>
+      <x:c r="G46" s="1"/>
+    </x:row>
+    <x:row r="47" spans="4:7">
+      <x:c r="D47" s="1"/>
+      <x:c r="E47" s="1"/>
+      <x:c r="F47" s="1"/>
+      <x:c r="G47" s="1"/>
+    </x:row>
+    <x:row r="48" spans="4:7">
+      <x:c r="D48" s="1"/>
+      <x:c r="E48" s="1"/>
+      <x:c r="F48" s="1"/>
+      <x:c r="G48" s="1"/>
+    </x:row>
+    <x:row r="49" spans="4:7">
+      <x:c r="D49" s="1"/>
+      <x:c r="E49" s="1"/>
+      <x:c r="F49" s="1"/>
+      <x:c r="G49" s="1"/>
+    </x:row>
+    <x:row r="50" spans="4:7">
+      <x:c r="D50" s="1"/>
+      <x:c r="E50" s="1"/>
+      <x:c r="F50" s="1"/>
+      <x:c r="G50" s="1"/>
+    </x:row>
+    <x:row r="51" spans="4:7">
+      <x:c r="D51" s="1"/>
+      <x:c r="E51" s="1"/>
+      <x:c r="F51" s="1"/>
+      <x:c r="G51" s="1"/>
+    </x:row>
+    <x:row r="52" spans="4:7">
+      <x:c r="D52" s="1"/>
+      <x:c r="E52" s="1"/>
+      <x:c r="F52" s="1"/>
+      <x:c r="G52" s="1"/>
+    </x:row>
+    <x:row r="53" spans="4:7">
+      <x:c r="D53" s="1"/>
+      <x:c r="E53" s="1"/>
+      <x:c r="F53" s="1"/>
+      <x:c r="G53" s="1"/>
+    </x:row>
+    <x:row r="54" spans="4:7">
+      <x:c r="D54" s="1"/>
+      <x:c r="E54" s="1"/>
+      <x:c r="F54" s="1"/>
+      <x:c r="G54" s="1"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="B1:C2"/>
+    <x:mergeCell ref="B15:C16"/>
+    <x:mergeCell ref="B29:C30"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:drawing r:id="rId1"/>
 </x:worksheet>
 </file>